--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="302">
   <si>
     <t>实战题目</t>
   </si>
@@ -1226,6 +1226,14 @@
   </si>
   <si>
     <t>1、动态规划；2、直接计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法，DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3084,7 +3092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+      <selection pane="bottomLeft" activeCell="S161" sqref="S161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5822,8 +5830,8 @@
       <c r="C59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>195</v>
+      <c r="D59" s="1">
+        <v>122</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>116</v>
@@ -5841,9 +5849,12 @@
         <f t="shared" si="105"/>
         <v>KW31/5</v>
       </c>
+      <c r="K59" s="9">
+        <v>44070</v>
+      </c>
       <c r="L59" s="9" t="str">
         <f t="shared" si="106"/>
-        <v>KW0/6</v>
+        <v>KW35/4</v>
       </c>
       <c r="N59" s="9" t="str">
         <f t="shared" si="107"/>
@@ -6044,8 +6055,8 @@
       <c r="C65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>192</v>
+      <c r="D65" s="1">
+        <v>55</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>122</v>
@@ -6054,7 +6065,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="I65" s="9">
         <v>44043</v>
@@ -7094,15 +7105,15 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:19">
+    <row r="94" spans="2:19" hidden="1">
       <c r="B94" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="1">
-        <v>122</v>
+      <c r="D94" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>180</v>
@@ -7157,6 +7168,9 @@
         <f t="shared" si="113"/>
         <v>KW0/6</v>
       </c>
+      <c r="S95" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="4" t="s">
@@ -7177,9 +7191,12 @@
       <c r="G96" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="I96" s="9">
+        <v>44070</v>
+      </c>
       <c r="J96" s="9" t="str">
         <f t="shared" si="111"/>
-        <v>KW0/6</v>
+        <v>KW35/4</v>
       </c>
       <c r="L96" s="9" t="str">
         <f t="shared" si="112"/>
@@ -7188,6 +7205,9 @@
       <c r="N96" s="9" t="str">
         <f t="shared" si="113"/>
         <v>KW0/6</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -7221,6 +7241,9 @@
         <f t="shared" ref="N97:N103" si="116">"KW"&amp;WEEKNUM(M97)&amp;"/"&amp;WEEKDAY(M97,2)</f>
         <v>KW0/6</v>
       </c>
+      <c r="S97" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="4" t="s">
@@ -7241,9 +7264,12 @@
       <c r="G98" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="I98" s="9">
+        <v>44070</v>
+      </c>
       <c r="J98" s="9" t="str">
         <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <v>KW35/4</v>
       </c>
       <c r="L98" s="9" t="str">
         <f t="shared" si="115"/>
@@ -7252,6 +7278,9 @@
       <c r="N98" s="9" t="str">
         <f t="shared" si="116"/>
         <v>KW0/6</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="2:19" hidden="1">
@@ -7296,8 +7325,8 @@
       <c r="C100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="1">
-        <v>55</v>
+      <c r="D100" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>122</v>
@@ -9207,6 +9236,16 @@
     <row r="158" spans="2:19" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:S158">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="121"/>
+        <filter val="122"/>
+        <filter val="123"/>
+        <filter val="188"/>
+        <filter val="309"/>
+        <filter val="714"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="买卖股票的最佳时机"/>

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$S$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$S$159</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="304">
   <si>
     <t>实战题目</t>
   </si>
@@ -186,11 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 递归法
-2. 迭代法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反转链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,11 +311,6 @@
   <si>
     <t>递归法，找重复性，不要人肉递归，直接递归会超时，需要缓存
 用动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴力法，哈希：节点是否已在存储的字典中
-快慢指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,14 +887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双指针法，难点是去重（注意4个零的情况）？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代法；递归法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有效的数独</t>
   </si>
   <si>
@@ -1235,13 +1217,74 @@
   <si>
     <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针法，难点是去重（注意4个零的情况）？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迭代法；递归法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（需要进一步理解）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希：节点是否已在存储的字典中
+快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 递归法（更简单）
+2. 迭代法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、递归法；2、迭代法（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写迭代时再想想前序遍历的顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的后序遍历</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1328,6 +1371,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1463,8 +1514,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1505,8 +1556,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1547,8 +1598,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1589,8 +1640,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1631,8 +1682,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1667,14 +1718,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>336737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1709,13 +1760,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1751,13 +1802,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1799,8 +1850,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1841,8 +1892,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1883,8 +1934,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1925,8 +1976,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1961,14 +2012,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2003,14 +2054,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2045,13 +2096,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2087,13 +2138,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2135,8 +2186,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2177,8 +2228,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2219,8 +2270,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2261,348 +2312,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="AutoShape 37" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="187138"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 39" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="187138"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 41" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 43" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="183776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="AutoShape 45" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="183776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 31" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="190501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 33" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="190499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 35" descr="star"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6902824" y="168088"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 37" descr="star"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2639,12 +2354,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 39" descr="star"/>
+        <xdr:cNvPr id="22" name="AutoShape 39" descr="star"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2681,12 +2396,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="AutoShape 41" descr="star"/>
+        <xdr:cNvPr id="23" name="AutoShape 41" descr="star"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2723,12 +2438,12 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="AutoShape 43" descr="star"/>
+        <xdr:cNvPr id="24" name="AutoShape 43" descr="star"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2765,7 +2480,343 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 45" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="183776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>193863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 31" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>193861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 33" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 35" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 37" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="187138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 39" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="187138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 41" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 43" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902824" y="168088"/>
+          <a:ext cx="190500" cy="183776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>15688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2779,6 +2830,384 @@
         <a:xfrm>
           <a:off x="6902824" y="168088"/>
           <a:ext cx="190500" cy="183776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 39" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5657850"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 31" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 33" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 35" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 37" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5629275"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 31" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 33" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 35" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5543550"/>
+          <a:ext cx="190500" cy="193862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 37" descr="star"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="5629275"/>
+          <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,11 +3517,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T158"/>
+  <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S161" sqref="S161"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3113,6 +3542,7 @@
     <col min="15" max="17" width="9" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="30.75" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3120,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3135,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -3169,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -3184,7 +3614,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="9">
@@ -3225,22 +3655,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="9">
@@ -3270,7 +3700,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20" hidden="1">
@@ -3278,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -3293,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4"/>
       <c r="I4" s="9">
@@ -3328,13 +3758,16 @@
       <c r="S4" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="T4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="5" spans="1:20" hidden="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -3343,13 +3776,13 @@
         <v>206</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="12">
@@ -3379,18 +3812,16 @@
         <v>KW0/6</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="T5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1">
+        <v>299</v>
+      </c>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -3399,13 +3830,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="12">
@@ -3433,12 +3864,12 @@
       </c>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:20" ht="36" hidden="1">
+    <row r="7" spans="1:20" ht="24" hidden="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -3453,7 +3884,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="9">
@@ -3483,15 +3914,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" hidden="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -3506,7 +3937,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8"/>
       <c r="J8" s="9" t="str">
@@ -3531,12 +3962,12 @@
       </c>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -3551,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9"/>
       <c r="J9" s="9" t="str">
@@ -3581,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -3596,7 +4027,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="9">
@@ -3630,12 +4061,12 @@
       </c>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -3650,7 +4081,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11"/>
       <c r="J11" s="9" t="str">
@@ -3675,12 +4106,12 @@
       </c>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -3695,7 +4126,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12"/>
       <c r="J12" s="9" t="str">
@@ -3720,18 +4151,18 @@
       </c>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>32</v>
@@ -3740,7 +4171,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13"/>
       <c r="J13" s="9" t="str">
@@ -3770,7 +4201,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -3785,7 +4216,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="9">
@@ -3823,7 +4254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -3838,7 +4269,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15"/>
       <c r="I15" s="9">
@@ -3876,7 +4307,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -3891,7 +4322,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="12">
@@ -3901,9 +4332,12 @@
         <f t="shared" ref="J16:L24" si="37">"KW"&amp;WEEKNUM(I16)&amp;"/"&amp;WEEKDAY(I16,2)</f>
         <v>KW30/7</v>
       </c>
+      <c r="K16" s="9">
+        <v>44071</v>
+      </c>
       <c r="L16" s="9" t="str">
         <f t="shared" si="37"/>
-        <v>KW0/6</v>
+        <v>KW35/5</v>
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" ref="N16" si="38">"KW"&amp;WEEKNUM(M16)&amp;"/"&amp;WEEKDAY(M16,2)</f>
@@ -3918,15 +4352,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="72" hidden="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="72">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -3941,7 +4375,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="9">
@@ -3976,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -3991,7 +4425,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="9">
@@ -4024,12 +4458,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -4044,7 +4478,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="9">
@@ -4072,12 +4506,12 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" hidden="1">
+    <row r="20" spans="1:19">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -4092,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="9">
@@ -4120,12 +4554,12 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -4140,7 +4574,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="9">
@@ -4170,12 +4604,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:19">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -4190,7 +4624,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22"/>
       <c r="J22" s="9" t="str">
@@ -4215,12 +4649,12 @@
       </c>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -4235,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="12">
@@ -4250,27 +4684,27 @@
         <v>KW0/6</v>
       </c>
       <c r="N23" s="9" t="str">
-        <f t="shared" ref="N23:N43" si="59">"KW"&amp;WEEKNUM(M23)&amp;"/"&amp;WEEKDAY(M23,2)</f>
+        <f t="shared" ref="N23:N44" si="59">"KW"&amp;WEEKNUM(M23)&amp;"/"&amp;WEEKDAY(M23,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="P23" s="9" t="str">
-        <f t="shared" ref="P23:P43" si="60">"KW"&amp;WEEKNUM(O23)&amp;"/"&amp;WEEKDAY(O23,2)</f>
+        <f t="shared" ref="P23:P44" si="60">"KW"&amp;WEEKNUM(O23)&amp;"/"&amp;WEEKDAY(O23,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="R23" s="9" t="str">
-        <f t="shared" ref="R23:R43" si="61">"KW"&amp;WEEKNUM(Q23)&amp;"/"&amp;WEEKDAY(Q23,2)</f>
+        <f t="shared" ref="R23:R44" si="61">"KW"&amp;WEEKNUM(Q23)&amp;"/"&amp;WEEKDAY(Q23,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1">
+    <row r="24" spans="1:19">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -4285,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24"/>
       <c r="J24" s="9" t="str">
@@ -4310,27 +4744,27 @@
       </c>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" hidden="1">
+    <row r="25" spans="1:19">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9">
@@ -4357,15 +4791,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" hidden="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="4">
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4374,13 +4808,13 @@
         <v>226</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9">
@@ -4407,15 +4841,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="27" hidden="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27">
       <c r="A27" s="4">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4424,13 +4858,13 @@
         <v>98</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9">
@@ -4457,15 +4891,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="27" hidden="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27">
       <c r="A28" s="4">
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -4474,13 +4908,13 @@
         <v>104</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
@@ -4507,15 +4941,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="4">
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -4524,13 +4958,13 @@
         <v>111</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9">
@@ -4557,15 +4991,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" hidden="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="4">
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -4574,13 +5008,13 @@
         <v>297</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="9"/>
       <c r="J30" s="9" t="str">
@@ -4605,27 +5039,27 @@
       </c>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:19">
       <c r="A31" s="4">
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9">
@@ -4652,15 +5086,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="27" hidden="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="27">
       <c r="A32" s="4">
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -4669,13 +5103,13 @@
         <v>239</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9">
@@ -4702,30 +5136,30 @@
         <v>KW0/6</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="4">
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -4736,12 +5170,12 @@
       <c r="R33" s="9"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" ht="27" hidden="1">
+    <row r="34" spans="1:19" ht="27">
       <c r="A34" s="4">
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -4750,16 +5184,16 @@
         <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9">
         <v>44032</v>
@@ -4768,9 +5202,12 @@
         <f t="shared" ref="J34" si="84">"KW"&amp;WEEKNUM(I34)&amp;"/"&amp;WEEKDAY(I34,2)</f>
         <v>KW30/1</v>
       </c>
+      <c r="K34" s="9">
+        <v>44080</v>
+      </c>
       <c r="L34" s="9" t="str">
         <f t="shared" ref="L34" si="85">"KW"&amp;WEEKNUM(K34)&amp;"/"&amp;WEEKDAY(K34,2)</f>
-        <v>KW0/6</v>
+        <v>KW37/7</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="59"/>
@@ -4785,15 +5222,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" hidden="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="27">
       <c r="A35" s="4">
         <v>18</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -4802,16 +5239,16 @@
         <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9">
         <v>44032</v>
@@ -4820,9 +5257,12 @@
         <f t="shared" ref="J35" si="86">"KW"&amp;WEEKNUM(I35)&amp;"/"&amp;WEEKDAY(I35,2)</f>
         <v>KW30/1</v>
       </c>
+      <c r="K35" s="9">
+        <v>44080</v>
+      </c>
       <c r="L35" s="9" t="str">
         <f t="shared" ref="L35" si="87">"KW"&amp;WEEKNUM(K35)&amp;"/"&amp;WEEKDAY(K35,2)</f>
-        <v>KW0/6</v>
+        <v>KW37/7</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="59"/>
@@ -4837,96 +5277,89 @@
         <v>KW0/6</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="27" hidden="1">
-      <c r="A36" s="4">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="D36" s="2">
-        <v>590</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>100</v>
+        <v>145</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9">
-        <v>44037</v>
+        <v>44079</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="shared" ref="J36" si="88">"KW"&amp;WEEKNUM(I36)&amp;"/"&amp;WEEKDAY(I36,2)</f>
-        <v>KW30/6</v>
+        <v>KW36/6</v>
+      </c>
+      <c r="K36" s="9">
+        <v>44080</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" ref="L36" si="89">"KW"&amp;WEEKNUM(K36)&amp;"/"&amp;WEEKDAY(K36,2)</f>
-        <v>KW0/6</v>
+        <v>KW37/7</v>
       </c>
       <c r="N36" s="9" t="str">
-        <f t="shared" si="59"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="P36" s="9" t="str">
-        <f t="shared" si="60"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="R36" s="9" t="str">
-        <f t="shared" si="61"/>
-        <v>KW0/6</v>
-      </c>
+        <f t="shared" ref="N36" si="90">"KW"&amp;WEEKNUM(M36)&amp;"/"&amp;WEEKDAY(M36,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="27">
       <c r="A37" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9">
         <v>44037</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="shared" ref="J37" si="90">"KW"&amp;WEEKNUM(I37)&amp;"/"&amp;WEEKDAY(I37,2)</f>
+        <f t="shared" ref="J37" si="91">"KW"&amp;WEEKNUM(I37)&amp;"/"&amp;WEEKDAY(I37,2)</f>
         <v>KW30/6</v>
       </c>
+      <c r="K37" s="9">
+        <v>44080</v>
+      </c>
       <c r="L37" s="9" t="str">
-        <f t="shared" ref="L37" si="91">"KW"&amp;WEEKNUM(K37)&amp;"/"&amp;WEEKDAY(K37,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="L37" si="92">"KW"&amp;WEEKNUM(K37)&amp;"/"&amp;WEEKDAY(K37,2)</f>
+        <v>KW37/7</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="59"/>
@@ -4941,41 +5374,47 @@
         <v>KW0/6</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="2">
-        <v>429</v>
+        <v>589</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="I38" s="9">
+        <v>44037</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="shared" ref="J38" si="92">"KW"&amp;WEEKNUM(I38)&amp;"/"&amp;WEEKDAY(I38,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="J38" si="93">"KW"&amp;WEEKNUM(I38)&amp;"/"&amp;WEEKDAY(I38,2)</f>
+        <v>KW30/6</v>
+      </c>
+      <c r="K38" s="9">
+        <v>44080</v>
       </c>
       <c r="L38" s="9" t="str">
-        <f t="shared" ref="L38" si="93">"KW"&amp;WEEKNUM(K38)&amp;"/"&amp;WEEKDAY(K38,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="L38" si="94">"KW"&amp;WEEKNUM(K38)&amp;"/"&amp;WEEKDAY(K38,2)</f>
+        <v>KW37/7</v>
       </c>
       <c r="N38" s="9" t="str">
         <f t="shared" si="59"/>
@@ -4989,40 +5428,48 @@
         <f t="shared" si="61"/>
         <v>KW0/6</v>
       </c>
-      <c r="S38"/>
-    </row>
-    <row r="39" spans="1:19" hidden="1">
+      <c r="S38" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="2">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="I39" s="9">
+        <v>44079</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="shared" ref="J39" si="94">"KW"&amp;WEEKNUM(I39)&amp;"/"&amp;WEEKDAY(I39,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="J39" si="95">"KW"&amp;WEEKNUM(I39)&amp;"/"&amp;WEEKDAY(I39,2)</f>
+        <v>KW36/6</v>
+      </c>
+      <c r="K39" s="9">
+        <v>44080</v>
       </c>
       <c r="L39" s="9" t="str">
-        <f t="shared" ref="L39" si="95">"KW"&amp;WEEKNUM(K39)&amp;"/"&amp;WEEKDAY(K39,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="L39" si="96">"KW"&amp;WEEKNUM(K39)&amp;"/"&amp;WEEKDAY(K39,2)</f>
+        <v>KW37/7</v>
       </c>
       <c r="N39" s="9" t="str">
         <f t="shared" si="59"/>
@@ -5038,37 +5485,37 @@
       </c>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19">
       <c r="A40" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="2">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J40" s="9" t="str">
-        <f t="shared" ref="J40" si="96">"KW"&amp;WEEKNUM(I40)&amp;"/"&amp;WEEKDAY(I40,2)</f>
+        <f t="shared" ref="J40" si="97">"KW"&amp;WEEKNUM(I40)&amp;"/"&amp;WEEKDAY(I40,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L40" s="9" t="str">
-        <f t="shared" ref="L40" si="97">"KW"&amp;WEEKNUM(K40)&amp;"/"&amp;WEEKDAY(K40,2)</f>
+        <f t="shared" ref="L40" si="98">"KW"&amp;WEEKNUM(K40)&amp;"/"&amp;WEEKDAY(K40,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N40" s="9" t="str">
@@ -5085,40 +5532,37 @@
       </c>
       <c r="S40"/>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19">
       <c r="A41" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="2">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="9">
-        <v>44035</v>
-      </c>
       <c r="J41" s="9" t="str">
-        <f t="shared" ref="J41" si="98">"KW"&amp;WEEKNUM(I41)&amp;"/"&amp;WEEKDAY(I41,2)</f>
-        <v>KW30/4</v>
+        <f t="shared" ref="J41" si="99">"KW"&amp;WEEKNUM(I41)&amp;"/"&amp;WEEKDAY(I41,2)</f>
+        <v>KW0/6</v>
       </c>
       <c r="L41" s="9" t="str">
-        <f t="shared" ref="L41" si="99">"KW"&amp;WEEKNUM(K41)&amp;"/"&amp;WEEKDAY(K41,2)</f>
+        <f t="shared" ref="L41" si="100">"KW"&amp;WEEKNUM(K41)&amp;"/"&amp;WEEKDAY(K41,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N41" s="9" t="str">
@@ -5133,44 +5577,42 @@
         <f t="shared" si="61"/>
         <v>KW0/6</v>
       </c>
-      <c r="S41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1">
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="shared" ref="J42:J43" si="100">"KW"&amp;WEEKNUM(I42)&amp;"/"&amp;WEEKDAY(I42,2)</f>
-        <v>KW30/3</v>
+        <f t="shared" ref="J42" si="101">"KW"&amp;WEEKNUM(I42)&amp;"/"&amp;WEEKDAY(I42,2)</f>
+        <v>KW30/4</v>
       </c>
       <c r="L42" s="9" t="str">
-        <f t="shared" ref="L42:L43" si="101">"KW"&amp;WEEKNUM(K42)&amp;"/"&amp;WEEKDAY(K42,2)</f>
+        <f t="shared" ref="L42" si="102">"KW"&amp;WEEKNUM(K42)&amp;"/"&amp;WEEKDAY(K42,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N42" s="9" t="str">
@@ -5185,38 +5627,44 @@
         <f t="shared" si="61"/>
         <v>KW0/6</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" hidden="1">
+      <c r="S42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="1">
-        <v>77</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>84</v>
+      <c r="D43" s="2">
+        <v>347</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="9">
+        <v>44034</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="shared" si="100"/>
-        <v>KW0/6</v>
+        <f t="shared" ref="J43:J44" si="103">"KW"&amp;WEEKNUM(I43)&amp;"/"&amp;WEEKDAY(I43,2)</f>
+        <v>KW30/3</v>
       </c>
       <c r="L43" s="9" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="L43:L44" si="104">"KW"&amp;WEEKNUM(K43)&amp;"/"&amp;WEEKDAY(K43,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N43" s="9" t="str">
@@ -5231,2880 +5679,2900 @@
         <f t="shared" si="61"/>
         <v>KW0/6</v>
       </c>
-      <c r="S43"/>
-    </row>
-    <row r="44" spans="1:19" hidden="1">
+      <c r="S43" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="shared" ref="J44:J45" si="102">"KW"&amp;WEEKNUM(I44)&amp;"/"&amp;WEEKDAY(I44,2)</f>
+        <f t="shared" si="103"/>
         <v>KW0/6</v>
       </c>
       <c r="L44" s="9" t="str">
-        <f t="shared" ref="L44:L45" si="103">"KW"&amp;WEEKNUM(K44)&amp;"/"&amp;WEEKDAY(K44,2)</f>
+        <f t="shared" si="104"/>
         <v>KW0/6</v>
       </c>
       <c r="N44" s="9" t="str">
-        <f t="shared" ref="N44:N45" si="104">"KW"&amp;WEEKNUM(M44)&amp;"/"&amp;WEEKDAY(M44,2)</f>
+        <f t="shared" si="59"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="P44" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="R44" s="9" t="str">
+        <f t="shared" si="61"/>
         <v>KW0/6</v>
       </c>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19">
       <c r="A45" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="J45:J46" si="105">"KW"&amp;WEEKNUM(I45)&amp;"/"&amp;WEEKDAY(I45,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="L45:L46" si="106">"KW"&amp;WEEKNUM(K45)&amp;"/"&amp;WEEKDAY(K45,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N45" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="N45:N46" si="107">"KW"&amp;WEEKNUM(M45)&amp;"/"&amp;WEEKDAY(M45,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19">
+      <c r="A46" s="4">
+        <v>28</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="9">
-        <v>44039</v>
+        <v>97</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="shared" ref="J46:J71" si="105">"KW"&amp;WEEKNUM(I46)&amp;"/"&amp;WEEKDAY(I46,2)</f>
-        <v>KW31/1</v>
-      </c>
-      <c r="K46" s="18">
-        <v>44045</v>
+        <f t="shared" si="105"/>
+        <v>KW0/6</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" ref="L46:L71" si="106">"KW"&amp;WEEKNUM(K46)&amp;"/"&amp;WEEKDAY(K46,2)</f>
-        <v>KW32/7</v>
+        <f t="shared" si="106"/>
+        <v>KW0/6</v>
       </c>
       <c r="N46" s="9" t="str">
-        <f t="shared" ref="N46:N71" si="107">"KW"&amp;WEEKNUM(M46)&amp;"/"&amp;WEEKDAY(M46,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="S46" t="s">
-        <v>110</v>
-      </c>
+        <f t="shared" si="107"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S46"/>
     </row>
     <row r="47" spans="1:19" hidden="1">
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/2</v>
+        <f t="shared" ref="J47:J72" si="108">"KW"&amp;WEEKNUM(I47)&amp;"/"&amp;WEEKDAY(I47,2)</f>
+        <v>KW31/1</v>
       </c>
       <c r="K47" s="18">
         <v>44045</v>
       </c>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="L47:L72" si="109">"KW"&amp;WEEKNUM(K47)&amp;"/"&amp;WEEKDAY(K47,2)</f>
         <v>KW32/7</v>
       </c>
       <c r="N47" s="9" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="N47:N72" si="110">"KW"&amp;WEEKNUM(M47)&amp;"/"&amp;WEEKDAY(M47,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="40.5" hidden="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1">
       <c r="B48" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="1">
-        <v>169</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>112</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9">
         <v>44040</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>KW31/2</v>
       </c>
       <c r="K48" s="18">
         <v>44045</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW32/7</v>
       </c>
       <c r="N48" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" hidden="1">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="40.5" hidden="1">
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="1">
-        <v>17</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>113</v>
+        <v>169</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/3</v>
+        <f t="shared" si="108"/>
+        <v>KW31/2</v>
       </c>
       <c r="K49" s="18">
         <v>44045</v>
       </c>
       <c r="L49" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW32/7</v>
       </c>
       <c r="N49" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S49" t="s">
-        <v>129</v>
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:19" hidden="1">
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>228</v>
+      <c r="D50" s="1">
+        <v>17</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="9">
+        <v>44041</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/3</v>
+      </c>
+      <c r="K50" s="18">
+        <v>44045</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW32/7</v>
+      </c>
+      <c r="N50" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L50" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N50" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S50"/>
-    </row>
-    <row r="51" spans="2:19" hidden="1">
-      <c r="B51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>102</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="9">
-        <v>44041</v>
+        <v>208</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f t="shared" ref="J51:J55" si="108">"KW"&amp;WEEKNUM(I51)&amp;"/"&amp;WEEKDAY(I51,2)</f>
-        <v>KW31/3</v>
-      </c>
-      <c r="K51" s="18">
-        <v>44045</v>
+        <f t="shared" si="108"/>
+        <v>KW0/6</v>
       </c>
       <c r="L51" s="9" t="str">
-        <f t="shared" ref="L51:L55" si="109">"KW"&amp;WEEKNUM(K51)&amp;"/"&amp;WEEKDAY(K51,2)</f>
-        <v>KW32/7</v>
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
       </c>
       <c r="N51" s="9" t="str">
-        <f t="shared" ref="N51:N55" si="110">"KW"&amp;WEEKNUM(M51)&amp;"/"&amp;WEEKDAY(M51,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="S51" t="s">
-        <v>135</v>
-      </c>
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S51"/>
     </row>
     <row r="52" spans="2:19" hidden="1">
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>229</v>
+      <c r="D52" s="1">
+        <v>102</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>230</v>
+        <v>132</v>
+      </c>
+      <c r="I52" s="9">
+        <v>44041</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="shared" si="108"/>
-        <v>KW0/6</v>
+        <f t="shared" ref="J52:J56" si="111">"KW"&amp;WEEKNUM(I52)&amp;"/"&amp;WEEKDAY(I52,2)</f>
+        <v>KW31/3</v>
+      </c>
+      <c r="K52" s="18">
+        <v>44045</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f t="shared" si="109"/>
-        <v>KW0/6</v>
+        <f t="shared" ref="L52:L56" si="112">"KW"&amp;WEEKNUM(K52)&amp;"/"&amp;WEEKDAY(K52,2)</f>
+        <v>KW32/7</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S52"/>
-    </row>
-    <row r="53" spans="2:19" hidden="1">
+        <f t="shared" ref="N52:N56" si="113">"KW"&amp;WEEKNUM(M52)&amp;"/"&amp;WEEKDAY(M52,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="S52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="1">
-        <v>22</v>
+      <c r="D53" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="9">
+        <v>226</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f t="shared" si="111"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f t="shared" si="112"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N53" s="9" t="str">
+        <f t="shared" si="113"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="2:19" hidden="1">
+      <c r="B54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>22</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="9">
         <v>44041</v>
       </c>
-      <c r="J53" s="9" t="str">
+      <c r="J54" s="9" t="str">
+        <f t="shared" si="111"/>
+        <v>KW31/3</v>
+      </c>
+      <c r="K54" s="18">
+        <v>44045</v>
+      </c>
+      <c r="L54" s="9" t="str">
+        <f t="shared" si="112"/>
+        <v>KW32/7</v>
+      </c>
+      <c r="M54" s="18">
+        <v>44049</v>
+      </c>
+      <c r="N54" s="9" t="str">
+        <f t="shared" si="113"/>
+        <v>KW32/4</v>
+      </c>
+      <c r="S54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>515</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f t="shared" si="111"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" si="112"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N55" s="9" t="str">
+        <f t="shared" si="113"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f t="shared" si="111"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f t="shared" si="112"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N56" s="9" t="str">
+        <f t="shared" si="113"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="27" hidden="1">
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>69</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57" s="9">
+        <v>44044</v>
+      </c>
+      <c r="J57" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW31/3</v>
-      </c>
-      <c r="K53" s="18">
+        <v>KW31/6</v>
+      </c>
+      <c r="K57" s="9">
+        <v>44052</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW33/7</v>
+      </c>
+      <c r="N57" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" hidden="1">
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>367</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="9">
         <v>44045</v>
       </c>
-      <c r="L53" s="9" t="str">
+      <c r="J58" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW32/7</v>
+      </c>
+      <c r="K58" s="9">
+        <v>44052</v>
+      </c>
+      <c r="L58" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW33/7</v>
+      </c>
+      <c r="N58" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1">
+        <v>860</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="9">
+        <v>44044</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/6</v>
+      </c>
+      <c r="L59" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N59" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" hidden="1">
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1">
+        <v>122</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="9">
+        <v>44043</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/5</v>
+      </c>
+      <c r="K60" s="9">
+        <v>44070</v>
+      </c>
+      <c r="L60" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW35/4</v>
+      </c>
+      <c r="N60" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>455</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="9">
+        <v>44043</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/5</v>
+      </c>
+      <c r="L61" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N61" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="1">
+        <v>874</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L62" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N62" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S62"/>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="B63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="9">
+        <v>44042</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/4</v>
+      </c>
+      <c r="L63" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N63" s="9" t="str">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S63" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" hidden="1">
+      <c r="B64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1">
+        <v>200</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="9">
+        <v>44042</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f t="shared" si="108"/>
+        <v>KW31/4</v>
+      </c>
+      <c r="K64" s="18">
+        <v>44045</v>
+      </c>
+      <c r="L64" s="9" t="str">
         <f t="shared" si="109"/>
         <v>KW32/7</v>
       </c>
-      <c r="M53" s="18">
-        <v>44049</v>
-      </c>
-      <c r="N53" s="9" t="str">
+      <c r="N64" s="9" t="str">
         <f t="shared" si="110"/>
-        <v>KW32/4</v>
-      </c>
-      <c r="S53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" hidden="1">
-      <c r="B54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>515</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J54" s="9" t="str">
-        <f t="shared" si="108"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L54" s="9" t="str">
-        <f t="shared" si="109"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N54" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S54"/>
-    </row>
-    <row r="55" spans="2:19" hidden="1">
-      <c r="B55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="9" t="str">
-        <f t="shared" si="108"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L55" s="9" t="str">
-        <f t="shared" si="109"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N55" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" ht="27" hidden="1">
-      <c r="B56" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>69</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I56" s="9">
-        <v>44044</v>
-      </c>
-      <c r="J56" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/6</v>
-      </c>
-      <c r="K56" s="9">
-        <v>44052</v>
-      </c>
-      <c r="L56" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW33/7</v>
-      </c>
-      <c r="N56" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" hidden="1">
-      <c r="B57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>367</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="9">
-        <v>44045</v>
-      </c>
-      <c r="J57" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW32/7</v>
-      </c>
-      <c r="K57" s="9">
-        <v>44052</v>
-      </c>
-      <c r="L57" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW33/7</v>
-      </c>
-      <c r="N57" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" hidden="1">
-      <c r="B58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="1">
-        <v>860</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="9">
-        <v>44044</v>
-      </c>
-      <c r="J58" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/6</v>
-      </c>
-      <c r="L58" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N58" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19">
-      <c r="B59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="1">
-        <v>122</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I59" s="9">
-        <v>44043</v>
-      </c>
-      <c r="J59" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/5</v>
-      </c>
-      <c r="K59" s="9">
-        <v>44070</v>
-      </c>
-      <c r="L59" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW35/4</v>
-      </c>
-      <c r="N59" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" hidden="1">
-      <c r="B60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="1">
-        <v>455</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="9">
-        <v>44043</v>
-      </c>
-      <c r="J60" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/5</v>
-      </c>
-      <c r="L60" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N60" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S60" t="s">
+        <v>KW0/6</v>
+      </c>
+      <c r="S64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:19" hidden="1">
-      <c r="B61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="1">
-        <v>874</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L61" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N61" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S61"/>
-    </row>
-    <row r="62" spans="2:19" hidden="1">
-      <c r="B62" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="9">
-        <v>44042</v>
-      </c>
-      <c r="J62" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/4</v>
-      </c>
-      <c r="L62" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N62" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S62" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" hidden="1">
-      <c r="B63" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="1">
-        <v>200</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="9">
-        <v>44042</v>
-      </c>
-      <c r="J63" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/4</v>
-      </c>
-      <c r="K63" s="18">
-        <v>44045</v>
-      </c>
-      <c r="L63" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW32/7</v>
-      </c>
-      <c r="N63" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" hidden="1">
-      <c r="B64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="1">
-        <v>529</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J64" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L64" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N64" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S64"/>
-    </row>
-    <row r="65" spans="2:19" hidden="1">
+    <row r="65" spans="2:19">
       <c r="B65" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="1">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I65" s="9">
-        <v>44043</v>
+        <v>132</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW31/5</v>
+        <f t="shared" si="108"/>
+        <v>KW0/6</v>
       </c>
       <c r="L65" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW0/6</v>
       </c>
       <c r="N65" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" hidden="1">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S65"/>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="I66" s="9">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW32/7</v>
-      </c>
-      <c r="K66" s="9">
-        <v>44052</v>
+        <f t="shared" si="108"/>
+        <v>KW31/5</v>
       </c>
       <c r="L66" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW33/7</v>
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
       </c>
       <c r="N66" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S66" s="20" t="s">
-        <v>151</v>
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S66" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="2:19" hidden="1">
       <c r="B67" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="1">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I67" s="9">
         <v>44045</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>KW32/7</v>
       </c>
       <c r="K67" s="9">
         <v>44052</v>
       </c>
       <c r="L67" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW33/7</v>
       </c>
       <c r="N67" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S67" t="s">
-        <v>153</v>
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S67" s="20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="2:19" hidden="1">
       <c r="B68" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="1">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="I68" s="9">
+        <v>44045</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW0/6</v>
+        <f t="shared" si="108"/>
+        <v>KW32/7</v>
+      </c>
+      <c r="K68" s="9">
+        <v>44052</v>
       </c>
       <c r="L68" s="9" t="str">
-        <f t="shared" si="106"/>
-        <v>KW0/6</v>
+        <f t="shared" si="109"/>
+        <v>KW33/7</v>
       </c>
       <c r="N68" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S68"/>
-    </row>
-    <row r="69" spans="2:19" hidden="1">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="1">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="J69" s="9" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>KW0/6</v>
       </c>
       <c r="L69" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW0/6</v>
       </c>
       <c r="N69" s="9" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S69"/>
     </row>
-    <row r="70" spans="2:19" hidden="1">
+    <row r="70" spans="2:19">
       <c r="B70" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>191</v>
+      <c r="D70" s="1">
+        <v>126</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>KW0/6</v>
       </c>
       <c r="L70" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW0/6</v>
       </c>
       <c r="N70" s="9" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S70"/>
     </row>
-    <row r="71" spans="2:19" hidden="1">
+    <row r="71" spans="2:19">
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="1">
-        <v>64</v>
+      <c r="D71" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="9">
-        <v>44051</v>
+        <v>22</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f t="shared" si="105"/>
-        <v>KW32/6</v>
+        <f t="shared" si="108"/>
+        <v>KW0/6</v>
       </c>
       <c r="L71" s="9" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>KW0/6</v>
       </c>
       <c r="N71" s="9" t="str">
-        <f t="shared" si="107"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S71" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" ht="27" hidden="1">
+        <f t="shared" si="110"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S71"/>
+    </row>
+    <row r="72" spans="2:19">
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="1">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I72" s="9">
         <v>44051</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f t="shared" ref="J72:J96" si="111">"KW"&amp;WEEKNUM(I72)&amp;"/"&amp;WEEKDAY(I72,2)</f>
+        <f t="shared" si="108"/>
         <v>KW32/6</v>
       </c>
       <c r="L72" s="9" t="str">
-        <f t="shared" ref="L72:L96" si="112">"KW"&amp;WEEKNUM(K72)&amp;"/"&amp;WEEKDAY(K72,2)</f>
+        <f t="shared" si="109"/>
         <v>KW0/6</v>
       </c>
       <c r="N72" s="9" t="str">
-        <f t="shared" ref="N72:N96" si="113">"KW"&amp;WEEKNUM(M72)&amp;"/"&amp;WEEKDAY(M72,2)</f>
+        <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="27" hidden="1">
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="1">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I73" s="9">
         <v>44051</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="J73:J97" si="114">"KW"&amp;WEEKNUM(I73)&amp;"/"&amp;WEEKDAY(I73,2)</f>
         <v>KW32/6</v>
       </c>
+      <c r="K73" s="18">
+        <v>44071</v>
+      </c>
       <c r="L73" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW0/6</v>
+        <f t="shared" ref="L73:L97" si="115">"KW"&amp;WEEKNUM(K73)&amp;"/"&amp;WEEKDAY(K73,2)</f>
+        <v>KW35/5</v>
       </c>
       <c r="N73" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="N73:N97" si="116">"KW"&amp;WEEKNUM(M73)&amp;"/"&amp;WEEKDAY(M73,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="1">
-        <v>621</v>
+        <v>221</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>194</v>
+      <c r="G74" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="I74" s="9">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW33/7</v>
+        <f t="shared" si="114"/>
+        <v>KW32/6</v>
       </c>
       <c r="L74" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N74" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="1">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="22" t="s">
-        <v>194</v>
+      <c r="G75" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I75" s="9">
         <v>44052</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW33/7</v>
       </c>
       <c r="L75" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N75" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" hidden="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="1">
-        <v>32</v>
+        <v>647</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I76" s="9">
         <v>44052</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW33/7</v>
       </c>
       <c r="L76" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N76" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" hidden="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="1">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I77" s="9">
         <v>44052</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW33/7</v>
       </c>
-      <c r="K77" s="18">
-        <v>44067</v>
-      </c>
       <c r="L77" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW35/1</v>
+        <f t="shared" si="115"/>
+        <v>KW0/6</v>
       </c>
       <c r="N77" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="2:19" hidden="1">
       <c r="B78" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="1">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>194</v>
+      <c r="G78" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="9">
+        <v>44052</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW0/6</v>
+        <f t="shared" si="114"/>
+        <v>KW33/7</v>
+      </c>
+      <c r="K78" s="18">
+        <v>44067</v>
       </c>
       <c r="L78" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW0/6</v>
+        <f t="shared" si="115"/>
+        <v>KW35/1</v>
       </c>
       <c r="N78" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="1">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L79" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N79" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
       <c r="B80" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="1">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L80" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N80" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19">
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="1">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L81" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N81" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="1">
-        <v>76</v>
+        <v>552</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L82" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N82" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="1">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L83" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N83" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D84" s="1">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="I84" s="9">
-        <v>44048</v>
+        <v>22</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW32/3</v>
+        <f t="shared" si="114"/>
+        <v>KW0/6</v>
       </c>
       <c r="L84" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N84" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S84" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I85" s="9">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW32/4</v>
+        <f t="shared" si="114"/>
+        <v>KW32/3</v>
       </c>
       <c r="L85" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N85" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" ht="27" hidden="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>1143</v>
+        <v>63</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I86" s="9">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW32/5</v>
-      </c>
-      <c r="K86" s="9">
-        <v>44067</v>
+        <f t="shared" si="114"/>
+        <v>KW32/4</v>
       </c>
       <c r="L86" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW35/1</v>
+        <f t="shared" si="115"/>
+        <v>KW0/6</v>
       </c>
       <c r="N86" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" ht="36" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="27" hidden="1">
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>70</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>171</v>
+        <v>1143</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9">
-        <v>44031</v>
+        <v>44050</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW30/7</v>
+        <f t="shared" si="114"/>
+        <v>KW32/5</v>
       </c>
       <c r="K87" s="9">
-        <v>44050</v>
+        <v>44067</v>
       </c>
       <c r="L87" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW32/5</v>
+        <f t="shared" si="115"/>
+        <v>KW35/1</v>
       </c>
       <c r="N87" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S87" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" ht="27" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" ht="36" hidden="1">
       <c r="B88" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>120</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>172</v>
+        <v>70</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I88" s="9">
-        <v>44051</v>
+        <v>44031</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW32/6</v>
+        <f t="shared" si="114"/>
+        <v>KW30/7</v>
+      </c>
+      <c r="K88" s="9">
+        <v>44050</v>
       </c>
       <c r="L88" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW0/6</v>
+        <f t="shared" si="115"/>
+        <v>KW32/5</v>
       </c>
       <c r="N88" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S88" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="27">
       <c r="B89" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I89" s="9">
         <v>44051</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW32/6</v>
       </c>
       <c r="L89" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N89" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S89" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="2:19" hidden="1">
+    <row r="90" spans="2:19">
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="1">
+        <v>53</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" s="9">
+        <v>44051</v>
+      </c>
+      <c r="J90" s="9" t="str">
+        <f t="shared" si="114"/>
+        <v>KW32/6</v>
+      </c>
+      <c r="L90" s="9" t="str">
+        <f t="shared" si="115"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N90" s="9" t="str">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19">
+      <c r="B91" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J90" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L90" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N90" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" hidden="1">
-      <c r="B91" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I91" s="9">
-        <v>44052</v>
+        <v>20</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW33/7</v>
+        <f t="shared" si="114"/>
+        <v>KW0/6</v>
       </c>
       <c r="L91" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N91" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S91" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19">
       <c r="B92" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="9">
+        <v>44052</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW0/6</v>
+        <f t="shared" si="114"/>
+        <v>KW33/7</v>
       </c>
       <c r="L92" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N92" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I93" s="9">
-        <v>44069</v>
+        <v>191</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW35/3</v>
+        <f t="shared" si="114"/>
+        <v>KW0/6</v>
       </c>
       <c r="L93" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N93" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S93" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" hidden="1">
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19">
       <c r="B94" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>195</v>
+      <c r="D94" s="1">
+        <v>121</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="I94" s="9">
+        <v>44069</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW0/6</v>
+        <f t="shared" si="114"/>
+        <v>KW35/3</v>
       </c>
       <c r="L94" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N94" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="1">
-        <v>123</v>
+      <c r="D95" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>KW0/6</v>
       </c>
       <c r="L95" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N95" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>301</v>
+        <f t="shared" si="116"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I96" s="9">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW35/4</v>
+        <f t="shared" si="114"/>
+        <v>KW35/5</v>
       </c>
       <c r="L96" s="9" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N96" s="9" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="I97" s="9">
+        <v>44070</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" ref="J97:J103" si="114">"KW"&amp;WEEKNUM(I97)&amp;"/"&amp;WEEKDAY(I97,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" si="114"/>
+        <v>KW35/4</v>
       </c>
       <c r="L97" s="9" t="str">
-        <f t="shared" ref="L97:L103" si="115">"KW"&amp;WEEKNUM(K97)&amp;"/"&amp;WEEKDAY(K97,2)</f>
+        <f t="shared" si="115"/>
         <v>KW0/6</v>
       </c>
       <c r="N97" s="9" t="str">
-        <f t="shared" ref="N97:N103" si="116">"KW"&amp;WEEKNUM(M97)&amp;"/"&amp;WEEKDAY(M97,2)</f>
+        <f t="shared" si="116"/>
         <v>KW0/6</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I98" s="9">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW35/4</v>
+        <f t="shared" ref="J98:J104" si="117">"KW"&amp;WEEKNUM(I98)&amp;"/"&amp;WEEKDAY(I98,2)</f>
+        <v>KW35/5</v>
       </c>
       <c r="L98" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="L98:L104" si="118">"KW"&amp;WEEKNUM(K98)&amp;"/"&amp;WEEKDAY(K98,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N98" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="N98:N104" si="119">"KW"&amp;WEEKNUM(M98)&amp;"/"&amp;WEEKDAY(M98,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" hidden="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19">
       <c r="B99" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>279</v>
+        <v>714</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="I99" s="9">
+        <v>44070</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <f t="shared" si="117"/>
+        <v>KW35/4</v>
       </c>
       <c r="L99" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N99" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" hidden="1">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19">
       <c r="B100" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>192</v>
+      <c r="D100" s="1">
+        <v>279</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L100" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N100" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" hidden="1">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19">
       <c r="B101" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="1">
-        <v>45</v>
+      <c r="D101" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L101" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N101" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" hidden="1">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19">
       <c r="B102" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L102" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N102" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" ht="27" hidden="1">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19">
       <c r="B103" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>322</v>
+        <v>980</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>193</v>
+        <v>22</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I103" s="9">
-        <v>44052</v>
+        <v>184</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW33/7</v>
+        <f t="shared" si="117"/>
+        <v>KW0/6</v>
       </c>
       <c r="L103" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N103" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" hidden="1">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" ht="27">
       <c r="B104" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>518</v>
+        <v>322</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>193</v>
+      <c r="G104" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="H104" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I104" s="9">
+        <v>44052</v>
+      </c>
+      <c r="J104" s="9" t="str">
+        <f t="shared" si="117"/>
+        <v>KW33/7</v>
+      </c>
+      <c r="L104" s="9" t="str">
+        <f t="shared" si="118"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N104" s="9" t="str">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19">
+      <c r="B105" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>518</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="J104" s="9" t="str">
-        <f t="shared" ref="J104" si="117">"KW"&amp;WEEKNUM(I104)&amp;"/"&amp;WEEKDAY(I104,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="L104" s="9" t="str">
-        <f t="shared" ref="L104" si="118">"KW"&amp;WEEKNUM(K104)&amp;"/"&amp;WEEKDAY(K104,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="N104" s="9" t="str">
-        <f t="shared" ref="N104" si="119">"KW"&amp;WEEKNUM(M104)&amp;"/"&amp;WEEKDAY(M104,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" hidden="1">
-      <c r="B105" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="1">
-        <v>36</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I105" s="9">
-        <v>44055</v>
+        <v>191</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" ref="J105:J120" si="120">"KW"&amp;WEEKNUM(I105)&amp;"/"&amp;WEEKDAY(I105,2)</f>
-        <v>KW33/3</v>
+        <f t="shared" ref="J105" si="120">"KW"&amp;WEEKNUM(I105)&amp;"/"&amp;WEEKDAY(I105,2)</f>
+        <v>KW0/6</v>
       </c>
       <c r="L105" s="9" t="str">
-        <f t="shared" ref="L105:L120" si="121">"KW"&amp;WEEKNUM(K105)&amp;"/"&amp;WEEKDAY(K105,2)</f>
+        <f t="shared" ref="L105" si="121">"KW"&amp;WEEKNUM(K105)&amp;"/"&amp;WEEKDAY(K105,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N105" s="9" t="str">
-        <f t="shared" ref="N105:N120" si="122">"KW"&amp;WEEKNUM(M105)&amp;"/"&amp;WEEKDAY(M105,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:19" hidden="1">
+        <f t="shared" ref="N105" si="122">"KW"&amp;WEEKNUM(M105)&amp;"/"&amp;WEEKDAY(M105,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19">
       <c r="B106" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D106" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I106" s="9">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/4</v>
+        <f t="shared" ref="J106:J121" si="123">"KW"&amp;WEEKNUM(I106)&amp;"/"&amp;WEEKDAY(I106,2)</f>
+        <v>KW33/3</v>
       </c>
       <c r="L106" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="L106:L121" si="124">"KW"&amp;WEEKNUM(K106)&amp;"/"&amp;WEEKDAY(K106,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N106" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" ht="36" hidden="1">
+        <f t="shared" ref="N106:N121" si="125">"KW"&amp;WEEKNUM(M106)&amp;"/"&amp;WEEKDAY(M106,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19">
       <c r="B107" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>171</v>
+      <c r="D107" s="1">
+        <v>37</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I107" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="I107" s="9">
+        <v>44056</v>
+      </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW0/6</v>
+        <f t="shared" si="123"/>
+        <v>KW33/4</v>
       </c>
       <c r="L107" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N107" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S107" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" ht="54" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" ht="36">
       <c r="B108" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="1">
-        <v>191</v>
+      <c r="D108" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I108" s="9">
-        <v>44057</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="I108" s="9"/>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/5</v>
+        <f t="shared" si="123"/>
+        <v>KW0/6</v>
       </c>
       <c r="L108" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N108" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S108" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S108" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" ht="54">
       <c r="B109" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I109" s="9">
         <v>44057</v>
       </c>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>KW33/5</v>
       </c>
       <c r="L109" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N109" s="9" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>KW0/6</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19" ht="40.5" hidden="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19">
       <c r="B110" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D110" s="1">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I110" s="9">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/6</v>
+        <f t="shared" si="123"/>
+        <v>KW33/5</v>
       </c>
       <c r="L110" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N110" s="9" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>KW0/6</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" hidden="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" ht="40.5">
       <c r="B111" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="1">
-        <v>208</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>217</v>
+        <v>190</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="I111" s="9">
-        <v>44053</v>
+        <v>44058</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/1</v>
+        <f t="shared" si="123"/>
+        <v>KW33/6</v>
       </c>
       <c r="L111" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N111" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19">
       <c r="B112" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="1">
-        <v>547</v>
+        <v>208</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>241</v>
+      <c r="I112" s="9">
+        <v>44053</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW0/6</v>
+        <f t="shared" si="123"/>
+        <v>KW33/1</v>
       </c>
       <c r="L112" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N112" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="113" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19">
       <c r="B113" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>235</v>
+      <c r="D113" s="1">
+        <v>547</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G113" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>KW0/6</v>
       </c>
       <c r="L113" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N113" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19">
       <c r="B114" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="1">
-        <v>130</v>
+      <c r="D114" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>KW0/6</v>
       </c>
       <c r="L114" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N114" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="115" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19">
       <c r="B115" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>233</v>
+      <c r="D115" s="1">
+        <v>130</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>KW0/6</v>
       </c>
       <c r="L115" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N115" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="116" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19">
       <c r="B116" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="1">
-        <v>127</v>
+      <c r="D116" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I116" s="9">
-        <v>44059</v>
-      </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW34/7</v>
+        <f t="shared" si="123"/>
+        <v>KW0/6</v>
       </c>
       <c r="L116" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N116" s="9" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="117" spans="2:19" hidden="1">
       <c r="B117" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="1">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
+      </c>
+      <c r="I117" s="9">
+        <v>44059</v>
       </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW0/6</v>
+        <f t="shared" si="123"/>
+        <v>KW34/7</v>
+      </c>
+      <c r="K117" s="18">
+        <v>44071</v>
       </c>
       <c r="L117" s="9" t="str">
-        <f t="shared" si="121"/>
-        <v>KW0/6</v>
+        <f t="shared" si="124"/>
+        <v>KW35/5</v>
       </c>
       <c r="N117" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="118" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19">
       <c r="B118" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="1">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I118" s="9">
-        <v>44058</v>
+        <v>227</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/6</v>
+        <f t="shared" si="123"/>
+        <v>KW0/6</v>
       </c>
       <c r="L118" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N118" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S118" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19">
       <c r="B119" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="1">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I119" s="9">
+        <v>44058</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW0/6</v>
+        <f t="shared" si="123"/>
+        <v>KW33/6</v>
       </c>
       <c r="L119" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N119" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="120" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19">
       <c r="B120" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="1">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I120" s="9">
-        <v>44058</v>
-      </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="120"/>
-        <v>KW33/6</v>
+        <f t="shared" si="123"/>
+        <v>KW0/6</v>
       </c>
       <c r="L120" s="9" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N120" s="9" t="str">
-        <f t="shared" si="122"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S120" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="2:19" hidden="1">
+        <f t="shared" si="125"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19">
       <c r="B121" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I121" s="9">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" ref="J121" si="123">"KW"&amp;WEEKNUM(I121)&amp;"/"&amp;WEEKDAY(I121,2)</f>
-        <v>KW34/7</v>
+        <f t="shared" si="123"/>
+        <v>KW33/6</v>
       </c>
       <c r="L121" s="9" t="str">
-        <f t="shared" ref="L121" si="124">"KW"&amp;WEEKNUM(K121)&amp;"/"&amp;WEEKDAY(K121,2)</f>
+        <f t="shared" si="124"/>
         <v>KW0/6</v>
       </c>
       <c r="N121" s="9" t="str">
-        <f t="shared" ref="N121" si="125">"KW"&amp;WEEKNUM(M121)&amp;"/"&amp;WEEKDAY(M121,2)</f>
+        <f t="shared" si="125"/>
         <v>KW0/6</v>
       </c>
       <c r="S121" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="2:19" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19">
       <c r="B122" s="4" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D122" s="1">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I122" s="9">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="J122" s="9" t="str">
         <f t="shared" ref="J122" si="126">"KW"&amp;WEEKNUM(I122)&amp;"/"&amp;WEEKDAY(I122,2)</f>
-        <v>KW34/1</v>
+        <v>KW34/7</v>
       </c>
       <c r="L122" s="9" t="str">
         <f t="shared" ref="L122" si="127">"KW"&amp;WEEKNUM(K122)&amp;"/"&amp;WEEKDAY(K122,2)</f>
@@ -8115,1155 +8583,1172 @@
         <v>KW0/6</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="2:19" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19">
       <c r="B123" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="1">
-        <v>1122</v>
+        <v>146</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
+      </c>
+      <c r="I123" s="9">
+        <v>44060</v>
       </c>
       <c r="J123" s="9" t="str">
-        <f t="shared" ref="J123:J142" si="129">"KW"&amp;WEEKNUM(I123)&amp;"/"&amp;WEEKDAY(I123,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="J123" si="129">"KW"&amp;WEEKNUM(I123)&amp;"/"&amp;WEEKDAY(I123,2)</f>
+        <v>KW34/1</v>
       </c>
       <c r="L123" s="9" t="str">
-        <f t="shared" ref="L123:L142" si="130">"KW"&amp;WEEKNUM(K123)&amp;"/"&amp;WEEKDAY(K123,2)</f>
+        <f t="shared" ref="L123" si="130">"KW"&amp;WEEKNUM(K123)&amp;"/"&amp;WEEKDAY(K123,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N123" s="9" t="str">
-        <f t="shared" ref="N123:N142" si="131">"KW"&amp;WEEKNUM(M123)&amp;"/"&amp;WEEKDAY(M123,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="124" spans="2:19" hidden="1">
+        <f t="shared" ref="N123" si="131">"KW"&amp;WEEKNUM(M123)&amp;"/"&amp;WEEKDAY(M123,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19">
       <c r="B124" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>269</v>
+      <c r="D124" s="1">
+        <v>1122</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="J124:J143" si="132">"KW"&amp;WEEKNUM(I124)&amp;"/"&amp;WEEKDAY(I124,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L124" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" ref="L124:L143" si="133">"KW"&amp;WEEKNUM(K124)&amp;"/"&amp;WEEKDAY(K124,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N124" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="125" spans="2:19" hidden="1">
+        <f t="shared" ref="N124:N143" si="134">"KW"&amp;WEEKNUM(M124)&amp;"/"&amp;WEEKDAY(M124,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19">
       <c r="B125" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J125" s="9" t="str">
+        <f t="shared" si="132"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L125" s="9" t="str">
+        <f t="shared" si="133"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N125" s="9" t="str">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19">
+      <c r="B126" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D126" s="1">
         <v>1244</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J125" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L125" s="9" t="str">
-        <f t="shared" si="130"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N125" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="126" spans="2:19" hidden="1">
-      <c r="B126" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="1">
-        <v>56</v>
-      </c>
       <c r="E126" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I126" s="9">
-        <v>44063</v>
+        <v>267</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW34/4</v>
+        <f t="shared" si="132"/>
+        <v>KW0/6</v>
       </c>
       <c r="L126" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N126" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S126" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19">
       <c r="B127" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D127" s="1">
-        <v>493</v>
+        <v>56</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I127" s="9">
-        <v>44067</v>
+        <v>44063</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW35/1</v>
+        <f t="shared" si="132"/>
+        <v>KW34/4</v>
       </c>
       <c r="L127" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N127" s="9" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>KW0/6</v>
       </c>
       <c r="S127" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="2:19" hidden="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19">
       <c r="B128" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D128" s="1">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I128" s="9">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW34/6</v>
+        <f t="shared" si="132"/>
+        <v>KW35/1</v>
       </c>
       <c r="L128" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N128" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="129" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19">
       <c r="B129" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D129" s="1">
-        <v>151</v>
+        <v>541</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I129" s="9">
         <v>44065</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW34/6</v>
       </c>
       <c r="L129" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N129" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="130" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19">
       <c r="B130" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="1">
-        <v>557</v>
+        <v>151</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I130" s="9">
         <v>44065</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW34/6</v>
       </c>
       <c r="L130" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N130" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19">
       <c r="B131" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D131" s="1">
-        <v>917</v>
+        <v>557</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I131" s="9">
         <v>44065</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW34/6</v>
       </c>
       <c r="L131" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N131" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="132" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19">
       <c r="B132" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="1">
-        <v>205</v>
+        <v>917</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="I132" s="9">
+        <v>44065</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW0/6</v>
+        <f t="shared" si="132"/>
+        <v>KW34/6</v>
       </c>
       <c r="L132" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N132" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="133" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19">
       <c r="B133" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D133" s="1">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L133" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N133" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19">
       <c r="B134" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D134" s="1">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L134" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N134" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19">
       <c r="B135" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>298</v>
+      <c r="D135" s="1">
+        <v>300</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L135" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N135" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19">
       <c r="B136" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="1">
-        <v>8</v>
+      <c r="D136" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I136" s="9">
-        <v>44065</v>
-      </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW34/6</v>
+        <f t="shared" si="132"/>
+        <v>KW0/6</v>
       </c>
       <c r="L136" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N136" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S136" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="137" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19">
       <c r="B137" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="1">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="I137" s="9">
+        <v>44065</v>
       </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW0/6</v>
+        <f t="shared" si="132"/>
+        <v>KW34/6</v>
       </c>
       <c r="L137" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N137" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="138" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S137" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19">
       <c r="B138" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D138" s="1">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I138" s="9">
-        <v>44068</v>
+        <v>272</v>
       </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW35/2</v>
+        <f t="shared" si="132"/>
+        <v>KW0/6</v>
       </c>
       <c r="L138" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N138" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S138" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="139" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19">
       <c r="B139" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>297</v>
+      <c r="D139" s="1">
+        <v>5</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="I139" s="9">
+        <v>44068</v>
       </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="129"/>
-        <v>KW0/6</v>
+        <f t="shared" si="132"/>
+        <v>KW35/2</v>
       </c>
       <c r="L139" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N139" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S139" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19">
       <c r="B140" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="1">
-        <v>818</v>
+      <c r="D140" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G140" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L140" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N140" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="141" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19">
       <c r="B141" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D141" s="1">
-        <v>44</v>
+        <v>818</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L141" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N141" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="142" spans="2:19" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19">
       <c r="B142" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D142" s="1">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>KW0/6</v>
       </c>
       <c r="L142" s="9" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N142" s="9" t="str">
-        <f t="shared" si="131"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="143" spans="2:19" ht="12.75" hidden="1" customHeight="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19">
       <c r="B143" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D143" s="1">
-        <v>709</v>
+        <v>115</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I143" s="9">
-        <v>44065</v>
+        <v>272</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" ref="J143:J151" si="132">"KW"&amp;WEEKNUM(I143)&amp;"/"&amp;WEEKDAY(I143,2)</f>
-        <v>KW34/6</v>
+        <f t="shared" si="132"/>
+        <v>KW0/6</v>
       </c>
       <c r="L143" s="9" t="str">
-        <f t="shared" ref="L143:L151" si="133">"KW"&amp;WEEKNUM(K143)&amp;"/"&amp;WEEKDAY(K143,2)</f>
+        <f t="shared" si="133"/>
         <v>KW0/6</v>
       </c>
       <c r="N143" s="9" t="str">
-        <f t="shared" ref="N143:N151" si="134">"KW"&amp;WEEKNUM(M143)&amp;"/"&amp;WEEKDAY(M143,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="S143" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" ht="27" hidden="1">
+        <f t="shared" si="134"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" ht="12.75" customHeight="1">
       <c r="B144" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D144" s="1">
-        <v>58</v>
+        <v>709</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I144" s="9">
         <v>44065</v>
       </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="J144:J152" si="135">"KW"&amp;WEEKNUM(I144)&amp;"/"&amp;WEEKDAY(I144,2)</f>
         <v>KW34/6</v>
       </c>
       <c r="L144" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="L144:L152" si="136">"KW"&amp;WEEKNUM(K144)&amp;"/"&amp;WEEKDAY(K144,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N144" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="N144:N152" si="137">"KW"&amp;WEEKNUM(M144)&amp;"/"&amp;WEEKDAY(M144,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19" hidden="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" ht="27">
       <c r="B145" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D145" s="1">
-        <v>771</v>
+        <v>58</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I145" s="9">
         <v>44065</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L145" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N145" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="146" spans="2:19" hidden="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19">
       <c r="B146" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D146" s="1">
-        <v>387</v>
+        <v>771</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I146" s="9">
         <v>44065</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L146" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N146" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="2:19" hidden="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19">
       <c r="B147" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D147" s="1">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I147" s="9">
         <v>44065</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L147" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N147" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="148" spans="2:19" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19">
       <c r="B148" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D148" s="1">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I148" s="9">
         <v>44065</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L148" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N148" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="149" spans="2:19" hidden="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19">
       <c r="B149" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>287</v>
+      <c r="D149" s="1">
+        <v>344</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="I149" s="9">
+        <v>44065</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW0/6</v>
+        <f t="shared" si="135"/>
+        <v>KW34/6</v>
       </c>
       <c r="L149" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N149" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="150" spans="2:19" hidden="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19">
       <c r="B150" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L150" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N150" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19" hidden="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19">
       <c r="B151" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D151" s="1">
-        <v>125</v>
+      <c r="D151" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L151" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N151" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="152" spans="2:19" hidden="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19">
       <c r="B152" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>292</v>
+      <c r="D152" s="1">
+        <v>125</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" ref="J152:J154" si="135">"KW"&amp;WEEKNUM(I152)&amp;"/"&amp;WEEKDAY(I152,2)</f>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L152" s="9" t="str">
-        <f t="shared" ref="L152:L154" si="136">"KW"&amp;WEEKNUM(K152)&amp;"/"&amp;WEEKDAY(K152,2)</f>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N152" s="9" t="str">
-        <f t="shared" ref="N152:N154" si="137">"KW"&amp;WEEKNUM(M152)&amp;"/"&amp;WEEKDAY(M152,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="153" spans="2:19" hidden="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19">
       <c r="B153" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" ref="J153:J155" si="138">"KW"&amp;WEEKNUM(I153)&amp;"/"&amp;WEEKDAY(I153,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L153" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="L153:L155" si="139">"KW"&amp;WEEKNUM(K153)&amp;"/"&amp;WEEKDAY(K153,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N153" s="9" t="str">
-        <f t="shared" si="137"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="154" spans="2:19" hidden="1">
+        <f t="shared" ref="N153:N155" si="140">"KW"&amp;WEEKNUM(M153)&amp;"/"&amp;WEEKDAY(M153,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19">
       <c r="B154" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J154" s="9" t="str">
+        <f t="shared" si="138"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L154" s="9" t="str">
+        <f t="shared" si="139"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N154" s="9" t="str">
+        <f t="shared" si="140"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19">
+      <c r="B155" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
         <v>10</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E155" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J155" s="9" t="str">
+        <f t="shared" si="138"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L155" s="9" t="str">
+        <f t="shared" si="139"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N155" s="9" t="str">
+        <f t="shared" si="140"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19">
+      <c r="D156" s="1">
+        <v>240</v>
+      </c>
+      <c r="E156" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J154" s="9" t="str">
-        <f t="shared" si="135"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="L154" s="9" t="str">
-        <f t="shared" si="136"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="N154" s="9" t="str">
-        <f t="shared" si="137"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="155" spans="2:19" hidden="1">
-      <c r="D155" s="1">
-        <v>240</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I155" s="9">
+      <c r="G156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I156" s="9">
         <v>44069</v>
       </c>
-      <c r="J155" s="9" t="str">
-        <f t="shared" ref="J155" si="138">"KW"&amp;WEEKNUM(I155)&amp;"/"&amp;WEEKDAY(I155,2)</f>
+      <c r="J156" s="9" t="str">
+        <f t="shared" ref="J156" si="141">"KW"&amp;WEEKNUM(I156)&amp;"/"&amp;WEEKDAY(I156,2)</f>
         <v>KW35/3</v>
       </c>
-      <c r="L155" s="9" t="str">
-        <f t="shared" ref="L155" si="139">"KW"&amp;WEEKNUM(K155)&amp;"/"&amp;WEEKDAY(K155,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="N155" s="9" t="str">
-        <f t="shared" ref="N155" si="140">"KW"&amp;WEEKNUM(M155)&amp;"/"&amp;WEEKDAY(M155,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="156" spans="2:19" hidden="1"/>
-    <row r="157" spans="2:19" hidden="1"/>
-    <row r="158" spans="2:19" hidden="1"/>
+      <c r="L156" s="9" t="str">
+        <f t="shared" ref="L156" si="142">"KW"&amp;WEEKNUM(K156)&amp;"/"&amp;WEEKDAY(K156,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="N156" s="9" t="str">
+        <f t="shared" ref="N156" si="143">"KW"&amp;WEEKNUM(M156)&amp;"/"&amp;WEEKDAY(M156,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S158">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="121"/>
-        <filter val="122"/>
-        <filter val="123"/>
-        <filter val="188"/>
-        <filter val="309"/>
-        <filter val="714"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="买卖股票的最佳时机"/>
-        <filter val="买卖股票的最佳时机 II"/>
-        <filter val="买卖股票的最佳时机 II "/>
-        <filter val="买卖股票的最佳时机 III"/>
-        <filter val="买卖股票的最佳时机 IV "/>
-        <filter val="买卖股票的最佳时机含手续费"/>
-        <filter val="最佳买卖股票时机含冷冻期"/>
-      </filters>
+  <autoFilter ref="A1:S159">
+    <filterColumn colId="10">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C154">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C155">
       <formula1>"周作业,实战题目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
       <formula1>"简单,中等,困难"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9307,139 +9792,140 @@
     <hyperlink ref="E34" r:id="rId37" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
     <hyperlink ref="D35" r:id="rId38" display="https://leetcode.com/problems/binary-tree-preorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
     <hyperlink ref="E35" r:id="rId39" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="D36" r:id="rId40" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E36" r:id="rId41" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
-    <hyperlink ref="D37" r:id="rId42" display="https://leetcode.com/problems/n-ary-tree-preorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E37" r:id="rId43" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
-    <hyperlink ref="D38" r:id="rId44" display="https://leetcode.com/problems/n-ary-tree-level-order-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E38" r:id="rId45" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
-    <hyperlink ref="D39" r:id="rId46" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E39" r:id="rId47" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
-    <hyperlink ref="D40" r:id="rId48" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E40" r:id="rId49" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
-    <hyperlink ref="D41" r:id="rId50" display="https://leetcode.com/problems/ugly-number-ii/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E41" r:id="rId51" display="https://leetcode-cn.com/problems/ugly-number-ii/"/>
-    <hyperlink ref="D42" r:id="rId52" display="https://leetcode.com/problems/top-k-frequent-elements/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
-    <hyperlink ref="E42" r:id="rId53" display="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="D37" r:id="rId40" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E37" r:id="rId41" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
+    <hyperlink ref="D38" r:id="rId42" display="https://leetcode.com/problems/n-ary-tree-preorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E38" r:id="rId43" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
+    <hyperlink ref="D39" r:id="rId44" display="https://leetcode.com/problems/n-ary-tree-level-order-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E39" r:id="rId45" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
+    <hyperlink ref="D40" r:id="rId46" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E40" r:id="rId47" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="D41" r:id="rId48" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E41" r:id="rId49" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="D42" r:id="rId50" display="https://leetcode.com/problems/ugly-number-ii/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E42" r:id="rId51" display="https://leetcode-cn.com/problems/ugly-number-ii/"/>
+    <hyperlink ref="D43" r:id="rId52" display="https://leetcode.com/problems/top-k-frequent-elements/discuss/?currentPage=1&amp;orderBy=most_votes&amp;query="/>
+    <hyperlink ref="E43" r:id="rId53" display="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
     <hyperlink ref="E32" r:id="rId54" display="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
     <hyperlink ref="E31" r:id="rId55" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/"/>
     <hyperlink ref="E33" r:id="rId56" display="http://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="E43" r:id="rId57" display="https://leetcode-cn.com/problems/combinations/"/>
-    <hyperlink ref="E44" r:id="rId58" display="https://leetcode-cn.com/problems/permutations/"/>
-    <hyperlink ref="E45" r:id="rId59" display="https://leetcode-cn.com/problems/permutations-ii/"/>
-    <hyperlink ref="E46" r:id="rId60" display="https://leetcode-cn.com/problems/powx-n/"/>
-    <hyperlink ref="E47" r:id="rId61" display="https://leetcode-cn.com/problems/subsets/"/>
-    <hyperlink ref="E48" r:id="rId62" display="https://leetcode-cn.com/problems/majority-element/description/"/>
-    <hyperlink ref="E49" r:id="rId63" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="E50" r:id="rId64" display="https://leetcode-cn.com/problems/n-queens/"/>
-    <hyperlink ref="E58" r:id="rId65" display="https://leetcode-cn.com/problems/lemonade-change/description/"/>
-    <hyperlink ref="E59" r:id="rId66" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
-    <hyperlink ref="E60" r:id="rId67" display="https://leetcode-cn.com/problems/assign-cookies/description/"/>
-    <hyperlink ref="E61" r:id="rId68" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
-    <hyperlink ref="E62" r:id="rId69" display="https://leetcode-cn.com/problems/word-ladder/description/"/>
-    <hyperlink ref="E63" r:id="rId70" display="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="E64" r:id="rId71" display="https://leetcode-cn.com/problems/minesweeper/description/"/>
-    <hyperlink ref="E65" r:id="rId72" display="https://leetcode-cn.com/problems/jump-game/"/>
-    <hyperlink ref="E66" r:id="rId73" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
-    <hyperlink ref="E67" r:id="rId74" display="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="E68" r:id="rId75" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="E69" r:id="rId76" display="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
-    <hyperlink ref="E70" r:id="rId77" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
-    <hyperlink ref="E51" r:id="rId78" location="/description" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/ - /description"/>
-    <hyperlink ref="E52" r:id="rId79" location="/description" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/ - /description"/>
-    <hyperlink ref="E53" r:id="rId80" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
-    <hyperlink ref="E54" r:id="rId81" location="/description" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/ - /description"/>
-    <hyperlink ref="E55" r:id="rId82" display="https://leetcode-cn.com/problems/coin-change/"/>
-    <hyperlink ref="E57" r:id="rId83" display="https://leetcode-cn.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="E56" r:id="rId84" display="https://leetcode-cn.com/problems/sqrtx/"/>
-    <hyperlink ref="E71" r:id="rId85" display="https://leetcode-cn.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="E72" r:id="rId86" display="https://leetcode-cn.com/problems/decode-ways"/>
-    <hyperlink ref="E73" r:id="rId87" display="https://leetcode-cn.com/problems/maximal-square/"/>
-    <hyperlink ref="E74" r:id="rId88" display="https://leetcode-cn.com/problems/task-scheduler/"/>
-    <hyperlink ref="E75" r:id="rId89" display="https://leetcode-cn.com/problems/palindromic-substrings/"/>
-    <hyperlink ref="E76" r:id="rId90" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="E77" r:id="rId91" display="https://leetcode-cn.com/problems/edit-distance/"/>
-    <hyperlink ref="E78" r:id="rId92" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/"/>
-    <hyperlink ref="E79" r:id="rId93" display="https://leetcode-cn.com/problems/frog-jump/"/>
-    <hyperlink ref="E80" r:id="rId94" display="https://leetcode-cn.com/problems/split-array-largest-sum"/>
-    <hyperlink ref="E81" r:id="rId95" display="https://leetcode-cn.com/problems/student-attendance-record-ii/"/>
-    <hyperlink ref="E82" r:id="rId96" display="https://leetcode-cn.com/problems/minimum-window-substring/"/>
-    <hyperlink ref="E83" r:id="rId97" display="https://leetcode-cn.com/problems/burst-balloons/"/>
-    <hyperlink ref="E84" r:id="rId98" display="https://leetcode-cn.com/problems/unique-paths/"/>
-    <hyperlink ref="E85" r:id="rId99" display="https://leetcode-cn.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="E86" r:id="rId100" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
-    <hyperlink ref="E87" r:id="rId101" display="https://leetcode-cn.com/problems/climbing-stairs/description/"/>
-    <hyperlink ref="E88" r:id="rId102" display="https://leetcode-cn.com/problems/triangle/description/"/>
-    <hyperlink ref="E89" r:id="rId103" display="https://leetcode-cn.com/problems/maximum-subarray/"/>
-    <hyperlink ref="E90" r:id="rId104" display="https://leetcode-cn.com/problems/maximum-product-subarray/description/"/>
-    <hyperlink ref="E91" r:id="rId105" display="https://leetcode-cn.com/problems/house-robber/"/>
-    <hyperlink ref="E92" r:id="rId106" display="https://leetcode-cn.com/problems/house-robber-ii/description/"/>
-    <hyperlink ref="E93" r:id="rId107" location="/description" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/ - /description"/>
-    <hyperlink ref="E94" r:id="rId108" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
-    <hyperlink ref="E95" r:id="rId109" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iii/"/>
-    <hyperlink ref="E96" r:id="rId110" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="E97" r:id="rId111" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iv/"/>
-    <hyperlink ref="E98" r:id="rId112" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/"/>
-    <hyperlink ref="E99" r:id="rId113" display="https://leetcode-cn.com/problems/perfect-squares/"/>
-    <hyperlink ref="E102" r:id="rId114" display="https://leetcode-cn.com/problems/unique-paths-iii/"/>
-    <hyperlink ref="E103" r:id="rId115" display="https://leetcode-cn.com/problems/coin-change/"/>
-    <hyperlink ref="E104" r:id="rId116" display="https://leetcode-cn.com/problems/coin-change-2/"/>
-    <hyperlink ref="E101" r:id="rId117" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
-    <hyperlink ref="E100" r:id="rId118" display="https://leetcode-cn.com/problems/jump-game/"/>
-    <hyperlink ref="E105" r:id="rId119" display="https://leetcode-cn.com/problems/valid-sudoku/description/"/>
-    <hyperlink ref="E106" r:id="rId120" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description"/>
-    <hyperlink ref="E107" r:id="rId121" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
-    <hyperlink ref="E108" r:id="rId122" display="https://leetcode-cn.com/problems/number-of-1-bits/"/>
-    <hyperlink ref="E109" r:id="rId123" display="https://leetcode-cn.com/problems/power-of-two/"/>
-    <hyperlink ref="E110" r:id="rId124" display="https://leetcode-cn.com/problems/reverse-bits/"/>
-    <hyperlink ref="E111" r:id="rId125" location="/description" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/ - /description"/>
-    <hyperlink ref="E112" r:id="rId126" display="https://leetcode-cn.com/problems/friend-circles"/>
-    <hyperlink ref="E113" r:id="rId127" display="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="E114" r:id="rId128" display="https://leetcode-cn.com/problems/surrounded-regions/"/>
-    <hyperlink ref="E115" r:id="rId129" display="https://leetcode-cn.com/problems/generate-parentheses/"/>
-    <hyperlink ref="E116" r:id="rId130" display="https://leetcode-cn.com/problems/word-ladder/"/>
-    <hyperlink ref="E117" r:id="rId131" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/"/>
-    <hyperlink ref="E118" r:id="rId132" display="https://leetcode-cn.com/problems/counting-bits/description/"/>
-    <hyperlink ref="E119" r:id="rId133" display="https://leetcode-cn.com/problems/word-search-ii/"/>
-    <hyperlink ref="E120" r:id="rId134" display="https://leetcode-cn.com/problems/n-queens/"/>
-    <hyperlink ref="E121" r:id="rId135" display="https://leetcode-cn.com/problems/n-queens-ii/description/"/>
-    <hyperlink ref="E122" r:id="rId136" location="/" display="https://leetcode-cn.com/problems/lru-cache/ - /"/>
-    <hyperlink ref="E123" r:id="rId137" display="https://leetcode-cn.com/problems/relative-sort-array/"/>
-    <hyperlink ref="E124" r:id="rId138" display="https://leetcode-cn.com/problems/valid-anagram/"/>
-    <hyperlink ref="E125" r:id="rId139" display="https://leetcode-cn.com/problems/design-a-leaderboard/"/>
-    <hyperlink ref="E126" r:id="rId140" display="https://leetcode-cn.com/problems/merge-intervals/"/>
-    <hyperlink ref="E127" r:id="rId141" display="https://leetcode-cn.com/problems/reverse-pairs/"/>
-    <hyperlink ref="E129" r:id="rId142" display="https://leetcode-cn.com/problems/reverse-words-in-a-string/"/>
-    <hyperlink ref="E130" r:id="rId143" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/"/>
-    <hyperlink ref="E131" r:id="rId144" display="https://leetcode-cn.com/problems/reverse-only-letters/"/>
-    <hyperlink ref="E132" r:id="rId145" display="https://leetcode-cn.com/problems/isomorphic-strings/"/>
-    <hyperlink ref="E133" r:id="rId146" display="https://leetcode-cn.com/problems/valid-palindrome-ii/"/>
-    <hyperlink ref="E134" r:id="rId147" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="E135" r:id="rId148" display="https://leetcode-cn.com/problems/decode-ways/"/>
-    <hyperlink ref="E136" r:id="rId149" display="https://leetcode-cn.com/problems/string-to-integer-atoi/"/>
-    <hyperlink ref="E137" r:id="rId150" display="https://leetcode-cn.com/problems/find-all-anagrams-in-a-string/"/>
-    <hyperlink ref="E138" r:id="rId151" display="https://leetcode-cn.com/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="E139" r:id="rId152" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="E140" r:id="rId153" display="https://leetcode-cn.com/problems/race-car/"/>
-    <hyperlink ref="E141" r:id="rId154" display="https://leetcode-cn.com/problems/wildcard-matching/"/>
-    <hyperlink ref="E142" r:id="rId155" display="https://leetcode-cn.com/problems/distinct-subsequences/"/>
-    <hyperlink ref="E143" r:id="rId156" display="https://leetcode-cn.com/problems/to-lower-case/"/>
-    <hyperlink ref="E144" r:id="rId157" display="https://leetcode-cn.com/problems/length-of-last-word/"/>
-    <hyperlink ref="E145" r:id="rId158" display="https://leetcode-cn.com/problems/jewels-and-stones/"/>
-    <hyperlink ref="E146" r:id="rId159" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/"/>
-    <hyperlink ref="E147" r:id="rId160" display="https://leetcode-cn.com/problems/longest-common-prefix/description/"/>
-    <hyperlink ref="E148" r:id="rId161" display="https://leetcode-cn.com/problems/reverse-string"/>
-    <hyperlink ref="E149" r:id="rId162" display="https://leetcode-cn.com/problems/valid-anagram/"/>
-    <hyperlink ref="E150" r:id="rId163" display="https://leetcode-cn.com/problems/group-anagrams/"/>
-    <hyperlink ref="E151" r:id="rId164" display="https://leetcode-cn.com/problems/valid-palindrome/"/>
-    <hyperlink ref="E152" r:id="rId165" display="https://leetcode-cn.com/problems/edit-distance/"/>
-    <hyperlink ref="E153" r:id="rId166" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
-    <hyperlink ref="E154" r:id="rId167" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
-    <hyperlink ref="E155" r:id="rId168" display="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="E44" r:id="rId57" display="https://leetcode-cn.com/problems/combinations/"/>
+    <hyperlink ref="E45" r:id="rId58" display="https://leetcode-cn.com/problems/permutations/"/>
+    <hyperlink ref="E46" r:id="rId59" display="https://leetcode-cn.com/problems/permutations-ii/"/>
+    <hyperlink ref="E47" r:id="rId60" display="https://leetcode-cn.com/problems/powx-n/"/>
+    <hyperlink ref="E48" r:id="rId61" display="https://leetcode-cn.com/problems/subsets/"/>
+    <hyperlink ref="E49" r:id="rId62" display="https://leetcode-cn.com/problems/majority-element/description/"/>
+    <hyperlink ref="E50" r:id="rId63" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="E51" r:id="rId64" display="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="E59" r:id="rId65" display="https://leetcode-cn.com/problems/lemonade-change/description/"/>
+    <hyperlink ref="E60" r:id="rId66" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
+    <hyperlink ref="E61" r:id="rId67" display="https://leetcode-cn.com/problems/assign-cookies/description/"/>
+    <hyperlink ref="E62" r:id="rId68" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
+    <hyperlink ref="E63" r:id="rId69" display="https://leetcode-cn.com/problems/word-ladder/description/"/>
+    <hyperlink ref="E64" r:id="rId70" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="E65" r:id="rId71" display="https://leetcode-cn.com/problems/minesweeper/description/"/>
+    <hyperlink ref="E66" r:id="rId72" display="https://leetcode-cn.com/problems/jump-game/"/>
+    <hyperlink ref="E67" r:id="rId73" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="E68" r:id="rId74" display="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="E69" r:id="rId75" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="E70" r:id="rId76" display="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
+    <hyperlink ref="E71" r:id="rId77" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
+    <hyperlink ref="E52" r:id="rId78" location="/description" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/ - /description"/>
+    <hyperlink ref="E53" r:id="rId79" location="/description" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/ - /description"/>
+    <hyperlink ref="E54" r:id="rId80" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
+    <hyperlink ref="E55" r:id="rId81" location="/description" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/ - /description"/>
+    <hyperlink ref="E56" r:id="rId82" display="https://leetcode-cn.com/problems/coin-change/"/>
+    <hyperlink ref="E58" r:id="rId83" display="https://leetcode-cn.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="E57" r:id="rId84" display="https://leetcode-cn.com/problems/sqrtx/"/>
+    <hyperlink ref="E72" r:id="rId85" display="https://leetcode-cn.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="E73" r:id="rId86" display="https://leetcode-cn.com/problems/decode-ways"/>
+    <hyperlink ref="E74" r:id="rId87" display="https://leetcode-cn.com/problems/maximal-square/"/>
+    <hyperlink ref="E75" r:id="rId88" display="https://leetcode-cn.com/problems/task-scheduler/"/>
+    <hyperlink ref="E76" r:id="rId89" display="https://leetcode-cn.com/problems/palindromic-substrings/"/>
+    <hyperlink ref="E77" r:id="rId90" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="E78" r:id="rId91" display="https://leetcode-cn.com/problems/edit-distance/"/>
+    <hyperlink ref="E79" r:id="rId92" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/"/>
+    <hyperlink ref="E80" r:id="rId93" display="https://leetcode-cn.com/problems/frog-jump/"/>
+    <hyperlink ref="E81" r:id="rId94" display="https://leetcode-cn.com/problems/split-array-largest-sum"/>
+    <hyperlink ref="E82" r:id="rId95" display="https://leetcode-cn.com/problems/student-attendance-record-ii/"/>
+    <hyperlink ref="E83" r:id="rId96" display="https://leetcode-cn.com/problems/minimum-window-substring/"/>
+    <hyperlink ref="E84" r:id="rId97" display="https://leetcode-cn.com/problems/burst-balloons/"/>
+    <hyperlink ref="E85" r:id="rId98" display="https://leetcode-cn.com/problems/unique-paths/"/>
+    <hyperlink ref="E86" r:id="rId99" display="https://leetcode-cn.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="E87" r:id="rId100" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
+    <hyperlink ref="E88" r:id="rId101" display="https://leetcode-cn.com/problems/climbing-stairs/description/"/>
+    <hyperlink ref="E89" r:id="rId102" display="https://leetcode-cn.com/problems/triangle/description/"/>
+    <hyperlink ref="E90" r:id="rId103" display="https://leetcode-cn.com/problems/maximum-subarray/"/>
+    <hyperlink ref="E91" r:id="rId104" display="https://leetcode-cn.com/problems/maximum-product-subarray/description/"/>
+    <hyperlink ref="E92" r:id="rId105" display="https://leetcode-cn.com/problems/house-robber/"/>
+    <hyperlink ref="E93" r:id="rId106" display="https://leetcode-cn.com/problems/house-robber-ii/description/"/>
+    <hyperlink ref="E94" r:id="rId107" location="/description" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/ - /description"/>
+    <hyperlink ref="E95" r:id="rId108" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
+    <hyperlink ref="E96" r:id="rId109" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iii/"/>
+    <hyperlink ref="E97" r:id="rId110" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="E98" r:id="rId111" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iv/"/>
+    <hyperlink ref="E99" r:id="rId112" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/"/>
+    <hyperlink ref="E100" r:id="rId113" display="https://leetcode-cn.com/problems/perfect-squares/"/>
+    <hyperlink ref="E103" r:id="rId114" display="https://leetcode-cn.com/problems/unique-paths-iii/"/>
+    <hyperlink ref="E104" r:id="rId115" display="https://leetcode-cn.com/problems/coin-change/"/>
+    <hyperlink ref="E105" r:id="rId116" display="https://leetcode-cn.com/problems/coin-change-2/"/>
+    <hyperlink ref="E102" r:id="rId117" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
+    <hyperlink ref="E101" r:id="rId118" display="https://leetcode-cn.com/problems/jump-game/"/>
+    <hyperlink ref="E106" r:id="rId119" display="https://leetcode-cn.com/problems/valid-sudoku/description/"/>
+    <hyperlink ref="E107" r:id="rId120" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description"/>
+    <hyperlink ref="E108" r:id="rId121" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
+    <hyperlink ref="E109" r:id="rId122" display="https://leetcode-cn.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="E110" r:id="rId123" display="https://leetcode-cn.com/problems/power-of-two/"/>
+    <hyperlink ref="E111" r:id="rId124" display="https://leetcode-cn.com/problems/reverse-bits/"/>
+    <hyperlink ref="E112" r:id="rId125" location="/description" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/ - /description"/>
+    <hyperlink ref="E113" r:id="rId126" display="https://leetcode-cn.com/problems/friend-circles"/>
+    <hyperlink ref="E114" r:id="rId127" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="E115" r:id="rId128" display="https://leetcode-cn.com/problems/surrounded-regions/"/>
+    <hyperlink ref="E116" r:id="rId129" display="https://leetcode-cn.com/problems/generate-parentheses/"/>
+    <hyperlink ref="E117" r:id="rId130" display="https://leetcode-cn.com/problems/word-ladder/"/>
+    <hyperlink ref="E118" r:id="rId131" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/"/>
+    <hyperlink ref="E119" r:id="rId132" display="https://leetcode-cn.com/problems/counting-bits/description/"/>
+    <hyperlink ref="E120" r:id="rId133" display="https://leetcode-cn.com/problems/word-search-ii/"/>
+    <hyperlink ref="E121" r:id="rId134" display="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="E122" r:id="rId135" display="https://leetcode-cn.com/problems/n-queens-ii/description/"/>
+    <hyperlink ref="E123" r:id="rId136" location="/" display="https://leetcode-cn.com/problems/lru-cache/ - /"/>
+    <hyperlink ref="E124" r:id="rId137" display="https://leetcode-cn.com/problems/relative-sort-array/"/>
+    <hyperlink ref="E125" r:id="rId138" display="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="E126" r:id="rId139" display="https://leetcode-cn.com/problems/design-a-leaderboard/"/>
+    <hyperlink ref="E127" r:id="rId140" display="https://leetcode-cn.com/problems/merge-intervals/"/>
+    <hyperlink ref="E128" r:id="rId141" display="https://leetcode-cn.com/problems/reverse-pairs/"/>
+    <hyperlink ref="E130" r:id="rId142" display="https://leetcode-cn.com/problems/reverse-words-in-a-string/"/>
+    <hyperlink ref="E131" r:id="rId143" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/"/>
+    <hyperlink ref="E132" r:id="rId144" display="https://leetcode-cn.com/problems/reverse-only-letters/"/>
+    <hyperlink ref="E133" r:id="rId145" display="https://leetcode-cn.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="E134" r:id="rId146" display="https://leetcode-cn.com/problems/valid-palindrome-ii/"/>
+    <hyperlink ref="E135" r:id="rId147" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="E136" r:id="rId148" display="https://leetcode-cn.com/problems/decode-ways/"/>
+    <hyperlink ref="E137" r:id="rId149" display="https://leetcode-cn.com/problems/string-to-integer-atoi/"/>
+    <hyperlink ref="E138" r:id="rId150" display="https://leetcode-cn.com/problems/find-all-anagrams-in-a-string/"/>
+    <hyperlink ref="E139" r:id="rId151" display="https://leetcode-cn.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="E140" r:id="rId152" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="E141" r:id="rId153" display="https://leetcode-cn.com/problems/race-car/"/>
+    <hyperlink ref="E142" r:id="rId154" display="https://leetcode-cn.com/problems/wildcard-matching/"/>
+    <hyperlink ref="E143" r:id="rId155" display="https://leetcode-cn.com/problems/distinct-subsequences/"/>
+    <hyperlink ref="E144" r:id="rId156" display="https://leetcode-cn.com/problems/to-lower-case/"/>
+    <hyperlink ref="E145" r:id="rId157" display="https://leetcode-cn.com/problems/length-of-last-word/"/>
+    <hyperlink ref="E146" r:id="rId158" display="https://leetcode-cn.com/problems/jewels-and-stones/"/>
+    <hyperlink ref="E147" r:id="rId159" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/"/>
+    <hyperlink ref="E148" r:id="rId160" display="https://leetcode-cn.com/problems/longest-common-prefix/description/"/>
+    <hyperlink ref="E149" r:id="rId161" display="https://leetcode-cn.com/problems/reverse-string"/>
+    <hyperlink ref="E150" r:id="rId162" display="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="E151" r:id="rId163" display="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="E152" r:id="rId164" display="https://leetcode-cn.com/problems/valid-palindrome/"/>
+    <hyperlink ref="E153" r:id="rId165" display="https://leetcode-cn.com/problems/edit-distance/"/>
+    <hyperlink ref="E154" r:id="rId166" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
+    <hyperlink ref="E155" r:id="rId167" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
+    <hyperlink ref="E156" r:id="rId168" display="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="E36" r:id="rId169" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId169"/>
-  <drawing r:id="rId170"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId170"/>
+  <drawing r:id="rId171"/>
 </worksheet>
 </file>
 

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="305">
   <si>
     <t>实战题目</t>
   </si>
@@ -239,10 +239,6 @@
   </si>
   <si>
     <t>树、二叉树、二叉搜索树</t>
-  </si>
-  <si>
-    <t>二叉树的中序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二叉树的前序遍历</t>
@@ -408,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、递归法；2、迭代法；3、标记迭代法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、递归法；2、迭代法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +456,6 @@
   </si>
   <si>
     <t>1、递归法；2、迭代法（注意写法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、递归法；2、迭代法（遍历结束后反转结果）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1279,12 +1267,64 @@
   <si>
     <t>二叉树的后序遍历</t>
   </si>
+  <si>
+    <t>从中序与后序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、递归法；2、迭代法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（压入所有左子树的左节点）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；3、标记迭代法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、递归法；2、迭代法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（遍历结束后反转结果）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,6 +1419,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3516,12 +3565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T156"/>
+  <dimension ref="A1:T173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3550,7 +3598,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3594,12 +3642,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1">
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -3614,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="9">
@@ -3650,27 +3698,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="36" hidden="1">
+    <row r="3" spans="1:20" ht="36">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="9">
@@ -3700,15 +3748,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" hidden="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -3723,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4"/>
       <c r="I4" s="9">
@@ -3759,15 +3807,15 @@
         <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" hidden="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -3782,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="12">
@@ -3812,7 +3860,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T5" s="5"/>
     </row>
@@ -3821,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -3836,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="12">
@@ -3864,12 +3912,12 @@
       </c>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:20" ht="24" hidden="1">
+    <row r="7" spans="1:20" ht="24">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -3884,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="9">
@@ -3914,7 +3962,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3922,7 +3970,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -3937,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8"/>
       <c r="J8" s="9" t="str">
@@ -3967,7 +4015,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -3982,7 +4030,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9"/>
       <c r="J9" s="9" t="str">
@@ -4007,12 +4055,12 @@
       </c>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4027,7 +4075,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="9">
@@ -4066,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4081,7 +4129,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11"/>
       <c r="J11" s="9" t="str">
@@ -4111,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4126,7 +4174,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12"/>
       <c r="J12" s="9" t="str">
@@ -4156,13 +4204,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>32</v>
@@ -4171,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13"/>
       <c r="J13" s="9" t="str">
@@ -4196,12 +4244,12 @@
       </c>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:20" ht="24" hidden="1">
+    <row r="14" spans="1:20" ht="24">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -4216,7 +4264,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="9">
@@ -4249,12 +4297,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" hidden="1">
+    <row r="15" spans="1:20" ht="36">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -4269,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15"/>
       <c r="I15" s="9">
@@ -4302,12 +4350,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" hidden="1">
+    <row r="16" spans="1:20" ht="27">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -4322,7 +4370,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="12">
@@ -4352,7 +4400,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="72">
@@ -4360,7 +4408,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -4375,7 +4423,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="9">
@@ -4405,12 +4453,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -4425,7 +4473,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="9">
@@ -4463,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -4478,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="9">
@@ -4511,7 +4559,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -4526,7 +4574,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="9">
@@ -4559,7 +4607,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -4609,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -4624,7 +4672,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22"/>
       <c r="J22" s="9" t="str">
@@ -4654,7 +4702,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -4704,7 +4752,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -4719,7 +4767,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24"/>
       <c r="J24" s="9" t="str">
@@ -4749,13 +4797,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>49</v>
@@ -4764,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9">
@@ -4791,7 +4839,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4799,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4841,7 +4889,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="27">
@@ -4849,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4891,7 +4939,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="27">
@@ -4899,7 +4947,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -4941,7 +4989,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4949,7 +4997,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -4991,7 +5039,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4999,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -5044,22 +5092,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9">
@@ -5086,7 +5134,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="27">
@@ -5094,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -5103,13 +5151,13 @@
         <v>239</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9">
@@ -5136,7 +5184,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5144,22 +5192,22 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -5175,7 +5223,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -5184,7 +5232,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
@@ -5203,11 +5251,11 @@
         <v>KW30/1</v>
       </c>
       <c r="K34" s="9">
-        <v>44080</v>
+        <v>44100</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" ref="L34" si="85">"KW"&amp;WEEKNUM(K34)&amp;"/"&amp;WEEKDAY(K34,2)</f>
-        <v>KW37/7</v>
+        <v>KW39/6</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="59"/>
@@ -5222,7 +5270,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="27">
@@ -5230,7 +5278,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -5239,7 +5287,7 @@
         <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -5258,11 +5306,11 @@
         <v>KW30/1</v>
       </c>
       <c r="K35" s="9">
-        <v>44080</v>
+        <v>44100</v>
       </c>
       <c r="L35" s="9" t="str">
         <f t="shared" ref="L35" si="87">"KW"&amp;WEEKNUM(K35)&amp;"/"&amp;WEEKDAY(K35,2)</f>
-        <v>KW37/7</v>
+        <v>KW39/6</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="59"/>
@@ -5277,7 +5325,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5287,7 +5335,7 @@
         <v>145</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -5306,11 +5354,11 @@
         <v>KW36/6</v>
       </c>
       <c r="K36" s="9">
-        <v>44080</v>
+        <v>44100</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" ref="L36" si="89">"KW"&amp;WEEKNUM(K36)&amp;"/"&amp;WEEKDAY(K36,2)</f>
-        <v>KW37/7</v>
+        <v>KW39/6</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" ref="N36" si="90">"KW"&amp;WEEKNUM(M36)&amp;"/"&amp;WEEKDAY(M36,2)</f>
@@ -5319,7 +5367,7 @@
       <c r="P36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="27">
@@ -5327,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -5336,7 +5384,7 @@
         <v>590</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -5374,7 +5422,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5382,7 +5430,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
@@ -5391,7 +5439,7 @@
         <v>589</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
@@ -5429,7 +5477,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5437,7 +5485,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -5446,7 +5494,7 @@
         <v>429</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
@@ -5490,7 +5538,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -5499,7 +5547,7 @@
         <v>236</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
@@ -5537,7 +5585,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
@@ -5546,7 +5594,7 @@
         <v>105</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
@@ -5584,7 +5632,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -5593,7 +5641,7 @@
         <v>264</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>20</v>
@@ -5628,7 +5676,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5636,7 +5684,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -5645,13 +5693,13 @@
         <v>347</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>48</v>
@@ -5680,7 +5728,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -5688,7 +5736,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -5697,13 +5745,13 @@
         <v>77</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J44" s="9" t="str">
         <f t="shared" si="103"/>
@@ -5732,7 +5780,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
@@ -5741,13 +5789,13 @@
         <v>46</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J45" s="9" t="str">
         <f t="shared" ref="J45:J46" si="105">"KW"&amp;WEEKNUM(I45)&amp;"/"&amp;WEEKDAY(I45,2)</f>
@@ -5768,7 +5816,7 @@
         <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
@@ -5777,13 +5825,13 @@
         <v>47</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="shared" si="105"/>
@@ -5799,9 +5847,9 @@
       </c>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19">
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -5810,16 +5858,16 @@
         <v>50</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I47" s="9">
         <v>44039</v>
@@ -5840,12 +5888,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" hidden="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="B48" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -5854,16 +5902,16 @@
         <v>78</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I48" s="9">
         <v>44040</v>
@@ -5884,12 +5932,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" ht="40.5" hidden="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="40.5">
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -5898,16 +5946,16 @@
         <v>169</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I49" s="9">
         <v>44040</v>
@@ -5928,12 +5976,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" hidden="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>23</v>
@@ -5942,16 +5990,16 @@
         <v>17</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I50" s="9">
         <v>44041</v>
@@ -5972,30 +6020,30 @@
         <v>KW0/6</v>
       </c>
       <c r="S50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6011,9 +6059,9 @@
       </c>
       <c r="S51"/>
     </row>
-    <row r="52" spans="2:19" hidden="1">
+    <row r="52" spans="2:19">
       <c r="B52" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -6022,13 +6070,13 @@
         <v>102</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I52" s="9">
         <v>44041</v>
@@ -6049,27 +6097,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:19">
       <c r="B53" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6085,9 +6133,9 @@
       </c>
       <c r="S53"/>
     </row>
-    <row r="54" spans="2:19" hidden="1">
+    <row r="54" spans="2:19">
       <c r="B54" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>0</v>
@@ -6096,13 +6144,13 @@
         <v>22</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I54" s="9">
         <v>44041</v>
@@ -6126,12 +6174,12 @@
         <v>KW32/4</v>
       </c>
       <c r="S54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -6140,13 +6188,13 @@
         <v>515</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6164,22 +6212,22 @@
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6194,12 +6242,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="27" hidden="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="27">
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
@@ -6208,13 +6256,13 @@
         <v>69</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I57" s="9">
         <v>44044</v>
@@ -6235,12 +6283,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" hidden="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -6249,13 +6297,13 @@
         <v>367</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9">
         <v>44045</v>
@@ -6276,12 +6324,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="2:19">
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>23</v>
@@ -6290,13 +6338,13 @@
         <v>860</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I59" s="9">
         <v>44044</v>
@@ -6314,12 +6362,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" hidden="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
@@ -6328,13 +6376,13 @@
         <v>122</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I60" s="9">
         <v>44043</v>
@@ -6355,12 +6403,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:19">
       <c r="B61" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -6369,13 +6417,13 @@
         <v>455</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I61" s="9">
         <v>44043</v>
@@ -6393,12 +6441,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:19">
       <c r="B62" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -6407,13 +6455,13 @@
         <v>874</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="str">
@@ -6432,22 +6480,22 @@
     </row>
     <row r="63" spans="2:19">
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I63" s="9">
         <v>44042</v>
@@ -6465,12 +6513,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S63" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" hidden="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
@@ -6479,13 +6527,13 @@
         <v>200</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I64" s="9">
         <v>44042</v>
@@ -6506,12 +6554,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
@@ -6520,13 +6568,13 @@
         <v>529</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6544,7 +6592,7 @@
     </row>
     <row r="66" spans="2:19">
       <c r="B66" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
@@ -6553,13 +6601,13 @@
         <v>55</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I66" s="9">
         <v>44043</v>
@@ -6577,12 +6625,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" hidden="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
@@ -6591,13 +6639,13 @@
         <v>33</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I67" s="9">
         <v>44045</v>
@@ -6618,12 +6666,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S67" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" hidden="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
       <c r="B68" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>23</v>
@@ -6632,13 +6680,13 @@
         <v>74</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I68" s="9">
         <v>44045</v>
@@ -6659,12 +6707,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="2:19">
       <c r="B69" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
@@ -6673,13 +6721,13 @@
         <v>153</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6697,7 +6745,7 @@
     </row>
     <row r="70" spans="2:19">
       <c r="B70" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
@@ -6706,13 +6754,13 @@
         <v>126</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6730,22 +6778,22 @@
     </row>
     <row r="71" spans="2:19">
       <c r="B71" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6763,7 +6811,7 @@
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
@@ -6772,13 +6820,13 @@
         <v>64</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I72" s="9">
         <v>44051</v>
@@ -6796,12 +6844,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" ht="27" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="27">
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -6810,13 +6858,13 @@
         <v>91</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I73" s="9">
         <v>44051</v>
@@ -6837,12 +6885,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
@@ -6851,13 +6899,13 @@
         <v>221</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I74" s="9">
         <v>44051</v>
@@ -6875,12 +6923,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:19">
       <c r="B75" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -6889,13 +6937,13 @@
         <v>621</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I75" s="9">
         <v>44052</v>
@@ -6913,12 +6961,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>23</v>
@@ -6927,13 +6975,13 @@
         <v>647</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I76" s="9">
         <v>44052</v>
@@ -6951,12 +6999,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
@@ -6965,13 +7013,13 @@
         <v>32</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I77" s="9">
         <v>44052</v>
@@ -6989,12 +7037,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
@@ -7003,16 +7051,16 @@
         <v>72</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I78" s="9">
         <v>44052</v>
@@ -7033,12 +7081,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -7047,13 +7095,13 @@
         <v>363</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J79" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7070,7 +7118,7 @@
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
@@ -7079,13 +7127,13 @@
         <v>403</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J80" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7102,7 +7150,7 @@
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
@@ -7111,13 +7159,13 @@
         <v>410</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J81" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7134,7 +7182,7 @@
     </row>
     <row r="82" spans="2:19">
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
@@ -7143,13 +7191,13 @@
         <v>552</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J82" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7166,7 +7214,7 @@
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -7175,13 +7223,13 @@
         <v>76</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J83" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7198,7 +7246,7 @@
     </row>
     <row r="84" spans="2:19">
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>23</v>
@@ -7207,13 +7255,13 @@
         <v>312</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J84" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7230,7 +7278,7 @@
     </row>
     <row r="85" spans="2:19">
       <c r="B85" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>0</v>
@@ -7239,13 +7287,13 @@
         <v>62</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I85" s="9">
         <v>44048</v>
@@ -7263,12 +7311,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="2:19">
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -7277,13 +7325,13 @@
         <v>63</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I86" s="9">
         <v>44049</v>
@@ -7301,12 +7349,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" ht="27" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" ht="27">
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
@@ -7315,13 +7363,13 @@
         <v>1143</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I87" s="9">
         <v>44050</v>
@@ -7342,12 +7390,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" ht="36" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" ht="36">
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>0</v>
@@ -7356,13 +7404,13 @@
         <v>70</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I88" s="9">
         <v>44031</v>
@@ -7383,12 +7431,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S88" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="27">
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
@@ -7397,13 +7445,13 @@
         <v>120</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I89" s="9">
         <v>44051</v>
@@ -7421,12 +7469,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="2:19">
       <c r="B90" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>0</v>
@@ -7435,13 +7483,13 @@
         <v>53</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I90" s="9">
         <v>44051</v>
@@ -7459,12 +7507,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="2:19">
       <c r="B91" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>0</v>
@@ -7473,13 +7521,13 @@
         <v>152</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J91" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7496,7 +7544,7 @@
     </row>
     <row r="92" spans="2:19">
       <c r="B92" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
@@ -7505,13 +7553,13 @@
         <v>198</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I92" s="9">
         <v>44052</v>
@@ -7529,12 +7577,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
@@ -7543,13 +7591,13 @@
         <v>213</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J93" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7566,7 +7614,7 @@
     </row>
     <row r="94" spans="2:19">
       <c r="B94" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
@@ -7575,13 +7623,13 @@
         <v>121</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I94" s="9">
         <v>44069</v>
@@ -7599,27 +7647,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J95" s="9" t="str">
         <f t="shared" si="114"/>
@@ -7636,7 +7684,7 @@
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>0</v>
@@ -7645,13 +7693,13 @@
         <v>123</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I96" s="9">
         <v>44071</v>
@@ -7669,12 +7717,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
@@ -7683,13 +7731,13 @@
         <v>309</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I97" s="9">
         <v>44070</v>
@@ -7707,12 +7755,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>0</v>
@@ -7721,13 +7769,13 @@
         <v>188</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I98" s="9">
         <v>44071</v>
@@ -7745,12 +7793,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="2:19">
       <c r="B99" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>0</v>
@@ -7759,13 +7807,13 @@
         <v>714</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I99" s="9">
         <v>44070</v>
@@ -7783,12 +7831,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="2:19">
       <c r="B100" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
@@ -7797,16 +7845,16 @@
         <v>279</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J100" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7823,25 +7871,25 @@
     </row>
     <row r="101" spans="2:19">
       <c r="B101" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J101" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7858,7 +7906,7 @@
     </row>
     <row r="102" spans="2:19">
       <c r="B102" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>0</v>
@@ -7867,16 +7915,16 @@
         <v>45</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J102" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7893,7 +7941,7 @@
     </row>
     <row r="103" spans="2:19">
       <c r="B103" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
@@ -7902,16 +7950,16 @@
         <v>980</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J103" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7928,7 +7976,7 @@
     </row>
     <row r="104" spans="2:19" ht="27">
       <c r="B104" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>0</v>
@@ -7937,16 +7985,16 @@
         <v>322</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I104" s="9">
         <v>44052</v>
@@ -7964,12 +8012,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="2:19">
       <c r="B105" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>0</v>
@@ -7978,16 +8026,16 @@
         <v>518</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J105" s="9" t="str">
         <f t="shared" ref="J105" si="120">"KW"&amp;WEEKNUM(I105)&amp;"/"&amp;WEEKDAY(I105,2)</f>
@@ -8004,7 +8052,7 @@
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>23</v>
@@ -8013,13 +8061,13 @@
         <v>36</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I106" s="9">
         <v>44055</v>
@@ -8039,7 +8087,7 @@
     </row>
     <row r="107" spans="2:19">
       <c r="B107" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
@@ -8048,13 +8096,13 @@
         <v>37</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I107" s="9">
         <v>44056</v>
@@ -8074,22 +8122,22 @@
     </row>
     <row r="108" spans="2:19" ht="36">
       <c r="B108" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="str">
@@ -8105,12 +8153,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S108" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="2:19" ht="54">
       <c r="B109" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
@@ -8119,13 +8167,13 @@
         <v>191</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I109" s="9">
         <v>44057</v>
@@ -8143,12 +8191,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="2:19">
       <c r="B110" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>23</v>
@@ -8157,13 +8205,13 @@
         <v>231</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I110" s="9">
         <v>44057</v>
@@ -8181,12 +8229,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="2:19" ht="40.5">
       <c r="B111" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
@@ -8195,13 +8243,13 @@
         <v>190</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I111" s="9">
         <v>44058</v>
@@ -8219,12 +8267,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="2:19">
       <c r="B112" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
@@ -8233,7 +8281,7 @@
         <v>208</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>20</v>
@@ -8256,7 +8304,7 @@
     </row>
     <row r="113" spans="2:19">
       <c r="B113" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -8265,13 +8313,13 @@
         <v>547</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J113" s="9" t="str">
         <f t="shared" si="123"/>
@@ -8288,16 +8336,16 @@
     </row>
     <row r="114" spans="2:19">
       <c r="B114" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>20</v>
@@ -8317,7 +8365,7 @@
     </row>
     <row r="115" spans="2:19">
       <c r="B115" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>23</v>
@@ -8326,7 +8374,7 @@
         <v>130</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>20</v>
@@ -8346,16 +8394,16 @@
     </row>
     <row r="116" spans="2:19">
       <c r="B116" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>20</v>
@@ -8373,9 +8421,9 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="117" spans="2:19" hidden="1">
+    <row r="117" spans="2:19">
       <c r="B117" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>23</v>
@@ -8384,13 +8432,13 @@
         <v>127</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I117" s="9">
         <v>44059</v>
@@ -8413,7 +8461,7 @@
     </row>
     <row r="118" spans="2:19">
       <c r="B118" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -8422,13 +8470,13 @@
         <v>433</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J118" s="9" t="str">
         <f t="shared" si="123"/>
@@ -8445,7 +8493,7 @@
     </row>
     <row r="119" spans="2:19">
       <c r="B119" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
@@ -8454,13 +8502,13 @@
         <v>338</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I119" s="9">
         <v>44058</v>
@@ -8478,12 +8526,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S119" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="2:19">
       <c r="B120" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
@@ -8492,7 +8540,7 @@
         <v>212</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>22</v>
@@ -8512,7 +8560,7 @@
     </row>
     <row r="121" spans="2:19">
       <c r="B121" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>23</v>
@@ -8521,13 +8569,13 @@
         <v>51</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I121" s="9">
         <v>44058</v>
@@ -8545,12 +8593,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S121" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="2:19">
       <c r="B122" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>23</v>
@@ -8559,13 +8607,13 @@
         <v>52</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I122" s="9">
         <v>44059</v>
@@ -8583,12 +8631,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="2:19">
       <c r="B123" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
@@ -8597,13 +8645,13 @@
         <v>146</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I123" s="9">
         <v>44060</v>
@@ -8621,12 +8669,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="2:19">
       <c r="B124" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -8635,13 +8683,13 @@
         <v>1122</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J124" s="9" t="str">
         <f t="shared" ref="J124:J143" si="132">"KW"&amp;WEEKNUM(I124)&amp;"/"&amp;WEEKDAY(I124,2)</f>
@@ -8658,13 +8706,13 @@
     </row>
     <row r="125" spans="2:19">
       <c r="B125" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>17</v>
@@ -8673,7 +8721,7 @@
         <v>19</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J125" s="9" t="str">
         <f t="shared" si="132"/>
@@ -8690,7 +8738,7 @@
     </row>
     <row r="126" spans="2:19">
       <c r="B126" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>0</v>
@@ -8699,13 +8747,13 @@
         <v>1244</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J126" s="9" t="str">
         <f t="shared" si="132"/>
@@ -8722,7 +8770,7 @@
     </row>
     <row r="127" spans="2:19">
       <c r="B127" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
@@ -8731,13 +8779,13 @@
         <v>56</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I127" s="9">
         <v>44063</v>
@@ -8755,12 +8803,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S127" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="2:19">
       <c r="B128" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>23</v>
@@ -8769,13 +8817,13 @@
         <v>493</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I128" s="9">
         <v>44067</v>
@@ -8793,12 +8841,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="2:19">
       <c r="B129" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>23</v>
@@ -8807,13 +8855,13 @@
         <v>541</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I129" s="9">
         <v>44065</v>
@@ -8833,7 +8881,7 @@
     </row>
     <row r="130" spans="2:19">
       <c r="B130" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>23</v>
@@ -8842,13 +8890,13 @@
         <v>151</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I130" s="9">
         <v>44065</v>
@@ -8868,7 +8916,7 @@
     </row>
     <row r="131" spans="2:19">
       <c r="B131" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -8877,13 +8925,13 @@
         <v>557</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I131" s="9">
         <v>44065</v>
@@ -8903,7 +8951,7 @@
     </row>
     <row r="132" spans="2:19">
       <c r="B132" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>23</v>
@@ -8912,13 +8960,13 @@
         <v>917</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I132" s="9">
         <v>44065</v>
@@ -8938,7 +8986,7 @@
     </row>
     <row r="133" spans="2:19">
       <c r="B133" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -8947,13 +8995,13 @@
         <v>205</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J133" s="9" t="str">
         <f t="shared" si="132"/>
@@ -8970,7 +9018,7 @@
     </row>
     <row r="134" spans="2:19">
       <c r="B134" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -8979,13 +9027,13 @@
         <v>680</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J134" s="9" t="str">
         <f t="shared" si="132"/>
@@ -9002,7 +9050,7 @@
     </row>
     <row r="135" spans="2:19">
       <c r="B135" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
@@ -9011,7 +9059,7 @@
         <v>300</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>20</v>
@@ -9031,16 +9079,16 @@
     </row>
     <row r="136" spans="2:19">
       <c r="B136" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>20</v>
@@ -9060,7 +9108,7 @@
     </row>
     <row r="137" spans="2:19">
       <c r="B137" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>23</v>
@@ -9069,13 +9117,13 @@
         <v>8</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I137" s="9">
         <v>44065</v>
@@ -9093,12 +9141,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S137" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="2:19">
       <c r="B138" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
@@ -9107,13 +9155,13 @@
         <v>438</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J138" s="9" t="str">
         <f t="shared" si="132"/>
@@ -9130,7 +9178,7 @@
     </row>
     <row r="139" spans="2:19">
       <c r="B139" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
@@ -9139,13 +9187,13 @@
         <v>5</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I139" s="9">
         <v>44068</v>
@@ -9163,27 +9211,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S139" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="2:19">
       <c r="B140" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J140" s="9" t="str">
         <f t="shared" si="132"/>
@@ -9200,7 +9248,7 @@
     </row>
     <row r="141" spans="2:19">
       <c r="B141" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
@@ -9209,7 +9257,7 @@
         <v>818</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>22</v>
@@ -9229,7 +9277,7 @@
     </row>
     <row r="142" spans="2:19">
       <c r="B142" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -9238,13 +9286,13 @@
         <v>44</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J142" s="9" t="str">
         <f t="shared" si="132"/>
@@ -9261,7 +9309,7 @@
     </row>
     <row r="143" spans="2:19">
       <c r="B143" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>23</v>
@@ -9270,13 +9318,13 @@
         <v>115</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J143" s="9" t="str">
         <f t="shared" si="132"/>
@@ -9293,7 +9341,7 @@
     </row>
     <row r="144" spans="2:19" ht="12.75" customHeight="1">
       <c r="B144" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>0</v>
@@ -9302,13 +9350,13 @@
         <v>709</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I144" s="9">
         <v>44065</v>
@@ -9326,12 +9374,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="2:19" ht="27">
       <c r="B145" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>0</v>
@@ -9340,13 +9388,13 @@
         <v>58</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I145" s="9">
         <v>44065</v>
@@ -9364,12 +9412,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="2:19">
       <c r="B146" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>0</v>
@@ -9378,13 +9426,13 @@
         <v>771</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I146" s="9">
         <v>44065</v>
@@ -9402,12 +9450,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="2:19">
       <c r="B147" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>23</v>
@@ -9416,13 +9464,13 @@
         <v>387</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I147" s="9">
         <v>44065</v>
@@ -9440,12 +9488,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="2:19">
       <c r="B148" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>0</v>
@@ -9454,13 +9502,13 @@
         <v>14</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I148" s="9">
         <v>44065</v>
@@ -9478,12 +9526,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="2:19">
       <c r="B149" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>0</v>
@@ -9492,13 +9540,13 @@
         <v>344</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I149" s="9">
         <v>44065</v>
@@ -9518,13 +9566,13 @@
     </row>
     <row r="150" spans="2:19">
       <c r="B150" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>17</v>
@@ -9533,7 +9581,7 @@
         <v>19</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J150" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9550,22 +9598,22 @@
     </row>
     <row r="151" spans="2:19">
       <c r="B151" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J151" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9582,7 +9630,7 @@
     </row>
     <row r="152" spans="2:19">
       <c r="B152" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>0</v>
@@ -9591,13 +9639,13 @@
         <v>125</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J152" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9614,22 +9662,22 @@
     </row>
     <row r="153" spans="2:19">
       <c r="B153" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J153" s="9" t="str">
         <f t="shared" ref="J153:J155" si="138">"KW"&amp;WEEKNUM(I153)&amp;"/"&amp;WEEKDAY(I153,2)</f>
@@ -9646,22 +9694,22 @@
     </row>
     <row r="154" spans="2:19">
       <c r="B154" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J154" s="9" t="str">
         <f t="shared" si="138"/>
@@ -9678,7 +9726,7 @@
     </row>
     <row r="155" spans="2:19">
       <c r="B155" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>0</v>
@@ -9687,13 +9735,13 @@
         <v>10</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J155" s="9" t="str">
         <f t="shared" si="138"/>
@@ -9713,13 +9761,13 @@
         <v>240</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I156" s="9">
         <v>44069</v>
@@ -9737,12 +9785,261 @@
         <v>KW0/6</v>
       </c>
     </row>
+    <row r="157" spans="2:19">
+      <c r="D157" s="1">
+        <v>106</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I157" s="9">
+        <v>44100</v>
+      </c>
+      <c r="J157" s="9" t="str">
+        <f t="shared" ref="J157:J173" si="144">"KW"&amp;WEEKNUM(I157)&amp;"/"&amp;WEEKDAY(I157,2)</f>
+        <v>KW39/6</v>
+      </c>
+      <c r="L157" s="9" t="str">
+        <f t="shared" ref="L157:L173" si="145">"KW"&amp;WEEKNUM(K157)&amp;"/"&amp;WEEKDAY(K157,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="N157" s="9" t="str">
+        <f t="shared" ref="N157:N173" si="146">"KW"&amp;WEEKNUM(M157)&amp;"/"&amp;WEEKDAY(M157,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19">
+      <c r="J158" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L158" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N158" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19">
+      <c r="J159" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L159" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N159" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19">
+      <c r="J160" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L160" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N160" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="161" spans="10:14">
+      <c r="J161" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L161" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N161" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="162" spans="10:14">
+      <c r="J162" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L162" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N162" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="163" spans="10:14">
+      <c r="J163" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L163" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N163" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="164" spans="10:14">
+      <c r="J164" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L164" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N164" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="165" spans="10:14">
+      <c r="J165" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L165" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N165" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="166" spans="10:14">
+      <c r="J166" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L166" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N166" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="167" spans="10:14">
+      <c r="J167" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L167" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N167" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="168" spans="10:14">
+      <c r="J168" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L168" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N168" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="169" spans="10:14">
+      <c r="J169" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L169" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N169" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="170" spans="10:14">
+      <c r="J170" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L170" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N170" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="171" spans="10:14">
+      <c r="J171" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L171" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N171" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="172" spans="10:14">
+      <c r="J172" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L172" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N172" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="173" spans="10:14">
+      <c r="J173" s="9" t="str">
+        <f t="shared" si="144"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L173" s="9" t="str">
+        <f t="shared" si="145"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N173" s="9" t="str">
+        <f t="shared" si="146"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S159">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S159"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C155">
@@ -9922,10 +10219,11 @@
     <hyperlink ref="E155" r:id="rId167" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
     <hyperlink ref="E156" r:id="rId168" display="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
     <hyperlink ref="E36" r:id="rId169" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="E157" r:id="rId170" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId170"/>
-  <drawing r:id="rId171"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId171"/>
+  <drawing r:id="rId172"/>
 </worksheet>
 </file>
 

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$S$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$S$160</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="306">
   <si>
     <t>实战题目</t>
   </si>
@@ -1266,9 +1266,6 @@
   </si>
   <si>
     <t>二叉树的后序遍历</t>
-  </si>
-  <si>
-    <t>从中序与后序遍历序列构造二叉树</t>
   </si>
   <si>
     <t>二叉树的中序遍历</t>
@@ -1319,12 +1316,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>路径总和 II</t>
+  </si>
+  <si>
+    <t>从中序与后序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,6 +1437,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1473,7 +1484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1534,6 +1545,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3565,11 +3579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T173"/>
+  <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L147" sqref="L147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5232,7 +5246,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
@@ -5270,7 +5284,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="27">
@@ -5422,7 +5436,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5873,18 +5887,18 @@
         <v>44039</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="shared" ref="J47:J72" si="108">"KW"&amp;WEEKNUM(I47)&amp;"/"&amp;WEEKDAY(I47,2)</f>
+        <f t="shared" ref="J47:J73" si="108">"KW"&amp;WEEKNUM(I47)&amp;"/"&amp;WEEKDAY(I47,2)</f>
         <v>KW31/1</v>
       </c>
       <c r="K47" s="18">
         <v>44045</v>
       </c>
       <c r="L47" s="9" t="str">
-        <f t="shared" ref="L47:L72" si="109">"KW"&amp;WEEKNUM(K47)&amp;"/"&amp;WEEKDAY(K47,2)</f>
+        <f t="shared" ref="L47:L73" si="109">"KW"&amp;WEEKNUM(K47)&amp;"/"&amp;WEEKDAY(K47,2)</f>
         <v>KW32/7</v>
       </c>
       <c r="N47" s="9" t="str">
-        <f t="shared" ref="N47:N72" si="110">"KW"&amp;WEEKNUM(M47)&amp;"/"&amp;WEEKDAY(M47,2)</f>
+        <f t="shared" ref="N47:N73" si="110">"KW"&amp;WEEKNUM(M47)&amp;"/"&amp;WEEKDAY(M47,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S47" t="s">
@@ -6082,18 +6096,18 @@
         <v>44041</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="shared" ref="J52:J56" si="111">"KW"&amp;WEEKNUM(I52)&amp;"/"&amp;WEEKDAY(I52,2)</f>
+        <f t="shared" ref="J52:J57" si="111">"KW"&amp;WEEKNUM(I52)&amp;"/"&amp;WEEKDAY(I52,2)</f>
         <v>KW31/3</v>
       </c>
       <c r="K52" s="18">
         <v>44045</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f t="shared" ref="L52:L56" si="112">"KW"&amp;WEEKNUM(K52)&amp;"/"&amp;WEEKDAY(K52,2)</f>
+        <f t="shared" ref="L52:L57" si="112">"KW"&amp;WEEKNUM(K52)&amp;"/"&amp;WEEKDAY(K52,2)</f>
         <v>KW32/7</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f t="shared" ref="N52:N56" si="113">"KW"&amp;WEEKNUM(M52)&amp;"/"&amp;WEEKDAY(M52,2)</f>
+        <f t="shared" ref="N52:N57" si="113">"KW"&amp;WEEKNUM(M52)&amp;"/"&amp;WEEKDAY(M52,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S52" t="s">
@@ -6134,48 +6148,32 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="2:19">
-      <c r="B54" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="D54" s="1">
-        <v>22</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54" s="9">
-        <v>44041</v>
+        <v>129</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f t="shared" si="111"/>
-        <v>KW31/3</v>
-      </c>
-      <c r="K54" s="18">
-        <v>44045</v>
+        <f t="shared" ref="J54" si="114">"KW"&amp;WEEKNUM(I54)&amp;"/"&amp;WEEKDAY(I54,2)</f>
+        <v>KW0/6</v>
       </c>
       <c r="L54" s="9" t="str">
-        <f t="shared" si="112"/>
-        <v>KW32/7</v>
-      </c>
-      <c r="M54" s="18">
-        <v>44049</v>
+        <f t="shared" ref="L54" si="115">"KW"&amp;WEEKNUM(K54)&amp;"/"&amp;WEEKDAY(K54,2)</f>
+        <v>KW0/6</v>
       </c>
       <c r="N54" s="9" t="str">
-        <f t="shared" si="113"/>
-        <v>KW32/4</v>
-      </c>
-      <c r="S54" t="s">
-        <v>131</v>
-      </c>
+        <f t="shared" ref="N54" si="116">"KW"&amp;WEEKNUM(M54)&amp;"/"&amp;WEEKDAY(M54,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="S54"/>
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="4" t="s">
@@ -6185,30 +6183,41 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="I55" s="9">
+        <v>44041</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="shared" si="111"/>
-        <v>KW0/6</v>
+        <v>KW31/3</v>
+      </c>
+      <c r="K55" s="18">
+        <v>44045</v>
       </c>
       <c r="L55" s="9" t="str">
         <f t="shared" si="112"/>
-        <v>KW0/6</v>
+        <v>KW32/7</v>
+      </c>
+      <c r="M55" s="18">
+        <v>44049</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="113"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S55"/>
+        <v>KW32/4</v>
+      </c>
+      <c r="S55" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="4" t="s">
@@ -6217,17 +6226,17 @@
       <c r="C56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>195</v>
+      <c r="D56" s="1">
+        <v>515</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6241,76 +6250,68 @@
         <f t="shared" si="113"/>
         <v>KW0/6</v>
       </c>
-      <c r="S56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="27">
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f t="shared" si="111"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" si="112"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N57" s="9" t="str">
+        <f t="shared" si="113"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="27">
+      <c r="B58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>69</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E58" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I58" s="9">
         <v>44044</v>
       </c>
-      <c r="J57" s="9" t="str">
+      <c r="J58" s="9" t="str">
         <f t="shared" si="108"/>
         <v>KW31/6</v>
-      </c>
-      <c r="K57" s="9">
-        <v>44052</v>
-      </c>
-      <c r="L57" s="9" t="str">
-        <f t="shared" si="109"/>
-        <v>KW33/7</v>
-      </c>
-      <c r="N57" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S57" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19">
-      <c r="B58" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>367</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="9">
-        <v>44045</v>
-      </c>
-      <c r="J58" s="9" t="str">
-        <f t="shared" si="108"/>
-        <v>KW32/7</v>
       </c>
       <c r="K58" s="9">
         <v>44052</v>
@@ -6323,8 +6324,8 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S58" t="s">
-        <v>147</v>
+      <c r="S58" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -6332,37 +6333,40 @@
         <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>860</v>
+        <v>367</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I59" s="9">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW31/6</v>
+        <v>KW32/7</v>
+      </c>
+      <c r="K59" s="9">
+        <v>44052</v>
       </c>
       <c r="L59" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW0/6</v>
+        <v>KW33/7</v>
       </c>
       <c r="N59" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S59" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -6373,10 +6377,10 @@
         <v>23</v>
       </c>
       <c r="D60" s="1">
-        <v>122</v>
+        <v>860</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>19</v>
@@ -6385,18 +6389,15 @@
         <v>133</v>
       </c>
       <c r="I60" s="9">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW31/5</v>
-      </c>
-      <c r="K60" s="9">
-        <v>44070</v>
+        <v>KW31/6</v>
       </c>
       <c r="L60" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW35/4</v>
+        <v>KW0/6</v>
       </c>
       <c r="N60" s="9" t="str">
         <f t="shared" si="110"/>
@@ -6414,10 +6415,10 @@
         <v>23</v>
       </c>
       <c r="D61" s="1">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>19</v>
@@ -6432,16 +6433,19 @@
         <f t="shared" si="108"/>
         <v>KW31/5</v>
       </c>
+      <c r="K61" s="9">
+        <v>44070</v>
+      </c>
       <c r="L61" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW0/6</v>
+        <v>KW35/4</v>
       </c>
       <c r="N61" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S61" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -6452,10 +6456,10 @@
         <v>23</v>
       </c>
       <c r="D62" s="1">
-        <v>874</v>
+        <v>455</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
@@ -6463,10 +6467,12 @@
       <c r="G62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9">
+        <v>44043</v>
+      </c>
       <c r="J62" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW0/6</v>
+        <v>KW31/5</v>
       </c>
       <c r="L62" s="9" t="str">
         <f t="shared" si="109"/>
@@ -6476,7 +6482,9 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S62"/>
+      <c r="S62" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="63" spans="2:19">
       <c r="B63" s="4" t="s">
@@ -6485,24 +6493,22 @@
       <c r="C63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>225</v>
+      <c r="D63" s="1">
+        <v>874</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="9">
-        <v>44042</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I63" s="9"/>
       <c r="J63" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW31/4</v>
+        <v>KW0/6</v>
       </c>
       <c r="L63" s="9" t="str">
         <f t="shared" si="109"/>
@@ -6512,9 +6518,7 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S63" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="S63"/>
     </row>
     <row r="64" spans="2:19">
       <c r="B64" s="4" t="s">
@@ -6523,11 +6527,11 @@
       <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="1">
-        <v>200</v>
+      <c r="D64" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>20</v>
@@ -6542,19 +6546,16 @@
         <f t="shared" si="108"/>
         <v>KW31/4</v>
       </c>
-      <c r="K64" s="18">
-        <v>44045</v>
-      </c>
       <c r="L64" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW32/7</v>
+        <v>KW0/6</v>
       </c>
       <c r="N64" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S64" t="s">
-        <v>136</v>
+      <c r="S64" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -6565,10 +6566,10 @@
         <v>23</v>
       </c>
       <c r="D65" s="1">
-        <v>529</v>
+        <v>200</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>20</v>
@@ -6576,19 +6577,27 @@
       <c r="G65" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="I65" s="9">
+        <v>44042</v>
+      </c>
       <c r="J65" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW0/6</v>
+        <v>KW31/4</v>
+      </c>
+      <c r="K65" s="18">
+        <v>44045</v>
       </c>
       <c r="L65" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW0/6</v>
+        <v>KW32/7</v>
       </c>
       <c r="N65" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S65"/>
+      <c r="S65" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="66" spans="2:19">
       <c r="B66" s="4" t="s">
@@ -6598,23 +6607,20 @@
         <v>23</v>
       </c>
       <c r="D66" s="1">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I66" s="9">
-        <v>44043</v>
+        <v>129</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW31/5</v>
+        <v>KW0/6</v>
       </c>
       <c r="L66" s="9" t="str">
         <f t="shared" si="109"/>
@@ -6624,9 +6630,7 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S66" t="s">
-        <v>142</v>
-      </c>
+      <c r="S66"/>
     </row>
     <row r="67" spans="2:19">
       <c r="B67" s="4" t="s">
@@ -6636,37 +6640,34 @@
         <v>23</v>
       </c>
       <c r="D67" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="I67" s="9">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW32/7</v>
-      </c>
-      <c r="K67" s="9">
-        <v>44052</v>
+        <v>KW31/5</v>
       </c>
       <c r="L67" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW33/7</v>
+        <v>KW0/6</v>
       </c>
       <c r="N67" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S67" s="20" t="s">
-        <v>146</v>
+      <c r="S67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -6677,10 +6678,10 @@
         <v>23</v>
       </c>
       <c r="D68" s="1">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>20</v>
@@ -6688,6 +6689,7 @@
       <c r="G68" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="H68" s="24"/>
       <c r="I68" s="9">
         <v>44045</v>
       </c>
@@ -6706,8 +6708,8 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S68" t="s">
-        <v>148</v>
+      <c r="S68" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="2:19">
@@ -6718,10 +6720,10 @@
         <v>23</v>
       </c>
       <c r="D69" s="1">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>20</v>
@@ -6729,19 +6731,27 @@
       <c r="G69" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="I69" s="9">
+        <v>44045</v>
+      </c>
       <c r="J69" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW0/6</v>
+        <v>KW32/7</v>
+      </c>
+      <c r="K69" s="9">
+        <v>44052</v>
       </c>
       <c r="L69" s="9" t="str">
         <f t="shared" si="109"/>
-        <v>KW0/6</v>
+        <v>KW33/7</v>
       </c>
       <c r="N69" s="9" t="str">
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S69"/>
+      <c r="S69" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="70" spans="2:19">
       <c r="B70" s="4" t="s">
@@ -6751,16 +6761,16 @@
         <v>23</v>
       </c>
       <c r="D70" s="1">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6783,17 +6793,17 @@
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>186</v>
+      <c r="D71" s="1">
+        <v>126</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6811,29 +6821,26 @@
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="1">
-        <v>64</v>
+      <c r="D72" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I72" s="9">
-        <v>44051</v>
+        <v>22</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="shared" si="108"/>
-        <v>KW32/6</v>
+        <v>KW0/6</v>
       </c>
       <c r="L72" s="9" t="str">
         <f t="shared" si="109"/>
@@ -6843,11 +6850,9 @@
         <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
-      <c r="S72" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" ht="27">
+      <c r="S72"/>
+    </row>
+    <row r="73" spans="2:19">
       <c r="B73" s="4" t="s">
         <v>149</v>
       </c>
@@ -6855,10 +6860,10 @@
         <v>23</v>
       </c>
       <c r="D73" s="1">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
@@ -6870,25 +6875,22 @@
         <v>44051</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="shared" ref="J73:J97" si="114">"KW"&amp;WEEKNUM(I73)&amp;"/"&amp;WEEKDAY(I73,2)</f>
+        <f t="shared" si="108"/>
         <v>KW32/6</v>
       </c>
-      <c r="K73" s="18">
-        <v>44071</v>
-      </c>
       <c r="L73" s="9" t="str">
-        <f t="shared" ref="L73:L97" si="115">"KW"&amp;WEEKNUM(K73)&amp;"/"&amp;WEEKDAY(K73,2)</f>
-        <v>KW35/5</v>
+        <f t="shared" si="109"/>
+        <v>KW0/6</v>
       </c>
       <c r="N73" s="9" t="str">
-        <f t="shared" ref="N73:N97" si="116">"KW"&amp;WEEKNUM(M73)&amp;"/"&amp;WEEKDAY(M73,2)</f>
+        <f t="shared" si="110"/>
         <v>KW0/6</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" ht="27">
       <c r="B74" s="4" t="s">
         <v>149</v>
       </c>
@@ -6896,10 +6898,10 @@
         <v>23</v>
       </c>
       <c r="D74" s="1">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
@@ -6911,19 +6913,22 @@
         <v>44051</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="J74:J98" si="117">"KW"&amp;WEEKNUM(I74)&amp;"/"&amp;WEEKDAY(I74,2)</f>
         <v>KW32/6</v>
       </c>
+      <c r="K74" s="18">
+        <v>44071</v>
+      </c>
       <c r="L74" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW0/6</v>
+        <f t="shared" ref="L74:L98" si="118">"KW"&amp;WEEKNUM(K74)&amp;"/"&amp;WEEKDAY(K74,2)</f>
+        <v>KW35/5</v>
       </c>
       <c r="N74" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="N74:N98" si="119">"KW"&amp;WEEKNUM(M74)&amp;"/"&amp;WEEKDAY(M74,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -6934,34 +6939,34 @@
         <v>23</v>
       </c>
       <c r="D75" s="1">
-        <v>621</v>
+        <v>221</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="22" t="s">
         <v>189</v>
       </c>
       <c r="I75" s="9">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW33/7</v>
+        <f t="shared" si="117"/>
+        <v>KW32/6</v>
       </c>
       <c r="L75" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N75" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -6972,34 +6977,34 @@
         <v>23</v>
       </c>
       <c r="D76" s="1">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="1" t="s">
         <v>189</v>
       </c>
       <c r="I76" s="9">
         <v>44052</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW33/7</v>
       </c>
       <c r="L76" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N76" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -7010,13 +7015,13 @@
         <v>23</v>
       </c>
       <c r="D77" s="1">
-        <v>32</v>
+        <v>647</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>189</v>
@@ -7025,19 +7030,19 @@
         <v>44052</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW33/7</v>
       </c>
       <c r="L77" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N77" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -7048,10 +7053,10 @@
         <v>23</v>
       </c>
       <c r="D78" s="1">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
@@ -7059,25 +7064,19 @@
       <c r="G78" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="I78" s="9">
         <v>44052</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW33/7</v>
       </c>
-      <c r="K78" s="18">
-        <v>44067</v>
-      </c>
       <c r="L78" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW35/1</v>
+        <f t="shared" si="118"/>
+        <v>KW0/6</v>
       </c>
       <c r="N78" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S78" s="5" t="s">
@@ -7092,28 +7091,40 @@
         <v>23</v>
       </c>
       <c r="D79" s="1">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="22" t="s">
         <v>189</v>
       </c>
+      <c r="H79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" s="9">
+        <v>44052</v>
+      </c>
       <c r="J79" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <f t="shared" si="117"/>
+        <v>KW33/7</v>
+      </c>
+      <c r="K79" s="18">
+        <v>44067</v>
       </c>
       <c r="L79" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW0/6</v>
+        <f t="shared" si="118"/>
+        <v>KW35/1</v>
       </c>
       <c r="N79" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -7124,10 +7135,10 @@
         <v>23</v>
       </c>
       <c r="D80" s="1">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
@@ -7136,15 +7147,15 @@
         <v>189</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L80" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N80" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7156,10 +7167,10 @@
         <v>23</v>
       </c>
       <c r="D81" s="1">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
@@ -7168,15 +7179,15 @@
         <v>189</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L81" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N81" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7188,10 +7199,10 @@
         <v>23</v>
       </c>
       <c r="D82" s="1">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
@@ -7200,15 +7211,15 @@
         <v>189</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L82" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N82" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7220,10 +7231,10 @@
         <v>23</v>
       </c>
       <c r="D83" s="1">
-        <v>76</v>
+        <v>552</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
@@ -7232,15 +7243,15 @@
         <v>189</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L83" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N83" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7252,10 +7263,10 @@
         <v>23</v>
       </c>
       <c r="D84" s="1">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
@@ -7264,15 +7275,15 @@
         <v>189</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW0/6</v>
       </c>
       <c r="L84" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N84" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7281,37 +7292,31 @@
         <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I85" s="9">
-        <v>44048</v>
-      </c>
       <c r="J85" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW32/3</v>
+        <f t="shared" si="117"/>
+        <v>KW0/6</v>
       </c>
       <c r="L85" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N85" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>192</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -7322,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
@@ -7334,25 +7339,25 @@
         <v>189</v>
       </c>
       <c r="I86" s="9">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW32/4</v>
+        <f t="shared" si="117"/>
+        <v>KW32/3</v>
       </c>
       <c r="L86" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N86" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" ht="27">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87" s="4" t="s">
         <v>149</v>
       </c>
@@ -7360,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>1143</v>
+        <v>63</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
@@ -7372,28 +7377,25 @@
         <v>189</v>
       </c>
       <c r="I87" s="9">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW32/5</v>
-      </c>
-      <c r="K87" s="9">
-        <v>44067</v>
+        <f t="shared" si="117"/>
+        <v>KW32/4</v>
       </c>
       <c r="L87" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW35/1</v>
+        <f t="shared" si="118"/>
+        <v>KW0/6</v>
       </c>
       <c r="N87" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" ht="36">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" ht="27">
       <c r="B88" s="4" t="s">
         <v>149</v>
       </c>
@@ -7401,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>70</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>166</v>
+        <v>1143</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I88" s="9">
-        <v>44031</v>
+        <v>44050</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW30/7</v>
+        <f t="shared" si="117"/>
+        <v>KW32/5</v>
       </c>
       <c r="K88" s="9">
-        <v>44050</v>
+        <v>44067</v>
       </c>
       <c r="L88" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW32/5</v>
+        <f t="shared" si="118"/>
+        <v>KW35/1</v>
       </c>
       <c r="N88" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S88" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" ht="27">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" ht="36">
       <c r="B89" s="4" t="s">
         <v>149</v>
       </c>
@@ -7442,37 +7444,40 @@
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>120</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>167</v>
+        <v>70</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="I89" s="9">
-        <v>44051</v>
+        <v>44031</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW32/6</v>
+        <f t="shared" si="117"/>
+        <v>KW30/7</v>
+      </c>
+      <c r="K89" s="9">
+        <v>44050</v>
       </c>
       <c r="L89" s="9" t="str">
-        <f t="shared" si="115"/>
-        <v>KW0/6</v>
+        <f t="shared" si="118"/>
+        <v>KW32/5</v>
       </c>
       <c r="N89" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S89" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19">
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" ht="27">
       <c r="B90" s="4" t="s">
         <v>149</v>
       </c>
@@ -7480,13 +7485,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>189</v>
@@ -7495,19 +7500,19 @@
         <v>44051</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>KW32/6</v>
       </c>
       <c r="L90" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N90" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -7518,28 +7523,34 @@
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="22" t="s">
         <v>189</v>
       </c>
+      <c r="I91" s="9">
+        <v>44051</v>
+      </c>
       <c r="J91" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <f t="shared" si="117"/>
+        <v>KW32/6</v>
       </c>
       <c r="L91" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N91" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -7550,34 +7561,28 @@
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I92" s="9">
-        <v>44052</v>
+        <v>20</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW33/7</v>
+        <f t="shared" si="117"/>
+        <v>KW0/6</v>
       </c>
       <c r="L92" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N92" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>198</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -7588,28 +7593,34 @@
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="22" t="s">
         <v>188</v>
       </c>
+      <c r="I93" s="9">
+        <v>44052</v>
+      </c>
       <c r="J93" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <f t="shared" si="117"/>
+        <v>KW33/7</v>
       </c>
       <c r="L93" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N93" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -7620,34 +7631,28 @@
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I94" s="9">
-        <v>44069</v>
-      </c>
       <c r="J94" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW35/3</v>
+        <f t="shared" si="117"/>
+        <v>KW0/6</v>
       </c>
       <c r="L94" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N94" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S94" s="5" t="s">
-        <v>292</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="95" spans="2:19">
@@ -7657,11 +7662,11 @@
       <c r="C95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>190</v>
+      <c r="D95" s="1">
+        <v>121</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>19</v>
@@ -7669,17 +7674,23 @@
       <c r="G95" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="I95" s="9">
+        <v>44069</v>
+      </c>
       <c r="J95" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW0/6</v>
+        <f t="shared" si="117"/>
+        <v>KW35/3</v>
       </c>
       <c r="L95" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N95" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -7689,35 +7700,29 @@
       <c r="C96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="1">
-        <v>123</v>
+      <c r="D96" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I96" s="9">
-        <v>44071</v>
-      </c>
       <c r="J96" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW35/5</v>
+        <f t="shared" si="117"/>
+        <v>KW0/6</v>
       </c>
       <c r="L96" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N96" s="9" t="str">
-        <f t="shared" si="116"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S96" s="5" t="s">
-        <v>294</v>
+        <f t="shared" si="119"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -7728,30 +7733,30 @@
         <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I97" s="9">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="J97" s="9" t="str">
-        <f t="shared" si="114"/>
-        <v>KW35/4</v>
+        <f t="shared" si="117"/>
+        <v>KW35/5</v>
       </c>
       <c r="L97" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N97" s="9" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S97" s="5" t="s">
@@ -7766,30 +7771,30 @@
         <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I98" s="9">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="shared" ref="J98:J104" si="117">"KW"&amp;WEEKNUM(I98)&amp;"/"&amp;WEEKDAY(I98,2)</f>
-        <v>KW35/5</v>
+        <f t="shared" si="117"/>
+        <v>KW35/4</v>
       </c>
       <c r="L98" s="9" t="str">
-        <f t="shared" ref="L98:L104" si="118">"KW"&amp;WEEKNUM(K98)&amp;"/"&amp;WEEKDAY(K98,2)</f>
+        <f t="shared" si="118"/>
         <v>KW0/6</v>
       </c>
       <c r="N98" s="9" t="str">
-        <f t="shared" ref="N98:N104" si="119">"KW"&amp;WEEKNUM(M98)&amp;"/"&amp;WEEKDAY(M98,2)</f>
+        <f t="shared" si="119"/>
         <v>KW0/6</v>
       </c>
       <c r="S98" s="5" t="s">
@@ -7804,30 +7809,30 @@
         <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I99" s="9">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="shared" si="117"/>
-        <v>KW35/4</v>
+        <f t="shared" ref="J99:J105" si="120">"KW"&amp;WEEKNUM(I99)&amp;"/"&amp;WEEKDAY(I99,2)</f>
+        <v>KW35/5</v>
       </c>
       <c r="L99" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="L99:L105" si="121">"KW"&amp;WEEKNUM(K99)&amp;"/"&amp;WEEKDAY(K99,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N99" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="N99:N105" si="122">"KW"&amp;WEEKNUM(M99)&amp;"/"&amp;WEEKDAY(M99,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S99" s="5" t="s">
@@ -7842,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>279</v>
+        <v>714</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>20</v>
@@ -7853,20 +7858,23 @@
       <c r="G100" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>181</v>
+      <c r="I100" s="9">
+        <v>44070</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="shared" si="117"/>
-        <v>KW0/6</v>
+        <f t="shared" si="120"/>
+        <v>KW35/4</v>
       </c>
       <c r="L100" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N100" s="9" t="str">
-        <f t="shared" si="119"/>
-        <v>KW0/6</v>
+        <f t="shared" si="122"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -7876,11 +7884,11 @@
       <c r="C101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>187</v>
+      <c r="D101" s="1">
+        <v>279</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>20</v>
@@ -7892,15 +7900,15 @@
         <v>181</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>KW0/6</v>
       </c>
       <c r="L101" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N101" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7911,14 +7919,14 @@
       <c r="C102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="1">
-        <v>45</v>
+      <c r="D102" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>188</v>
@@ -7927,15 +7935,15 @@
         <v>181</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>KW0/6</v>
       </c>
       <c r="L102" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N102" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -7947,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>22</v>
@@ -7962,19 +7970,19 @@
         <v>181</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>KW0/6</v>
       </c>
       <c r="L103" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N103" s="9" t="str">
-        <f t="shared" si="119"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" ht="27">
+        <f t="shared" si="122"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19">
       <c r="B104" s="4" t="s">
         <v>149</v>
       </c>
@@ -7982,40 +7990,34 @@
         <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>322</v>
+        <v>980</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I104" s="9">
-        <v>44052</v>
-      </c>
       <c r="J104" s="9" t="str">
-        <f t="shared" si="117"/>
-        <v>KW33/7</v>
+        <f t="shared" si="120"/>
+        <v>KW0/6</v>
       </c>
       <c r="L104" s="9" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N104" s="9" t="str">
-        <f t="shared" si="119"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S104" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19">
+        <f t="shared" si="122"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" ht="27">
       <c r="B105" s="4" t="s">
         <v>149</v>
       </c>
@@ -8023,65 +8025,71 @@
         <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>518</v>
+        <v>322</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="22" t="s">
         <v>188</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="I105" s="9">
+        <v>44052</v>
+      </c>
       <c r="J105" s="9" t="str">
-        <f t="shared" ref="J105" si="120">"KW"&amp;WEEKNUM(I105)&amp;"/"&amp;WEEKDAY(I105,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" si="120"/>
+        <v>KW33/7</v>
       </c>
       <c r="L105" s="9" t="str">
-        <f t="shared" ref="L105" si="121">"KW"&amp;WEEKNUM(K105)&amp;"/"&amp;WEEKDAY(K105,2)</f>
+        <f t="shared" si="121"/>
         <v>KW0/6</v>
       </c>
       <c r="N105" s="9" t="str">
-        <f t="shared" ref="N105" si="122">"KW"&amp;WEEKNUM(M105)&amp;"/"&amp;WEEKDAY(M105,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" si="122"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="4" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I106" s="9">
-        <v>44055</v>
+        <v>188</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="J106" s="9" t="str">
-        <f t="shared" ref="J106:J121" si="123">"KW"&amp;WEEKNUM(I106)&amp;"/"&amp;WEEKDAY(I106,2)</f>
-        <v>KW33/3</v>
+        <f t="shared" ref="J106" si="123">"KW"&amp;WEEKNUM(I106)&amp;"/"&amp;WEEKDAY(I106,2)</f>
+        <v>KW0/6</v>
       </c>
       <c r="L106" s="9" t="str">
-        <f t="shared" ref="L106:L121" si="124">"KW"&amp;WEEKNUM(K106)&amp;"/"&amp;WEEKDAY(K106,2)</f>
+        <f t="shared" ref="L106" si="124">"KW"&amp;WEEKNUM(K106)&amp;"/"&amp;WEEKDAY(K106,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N106" s="9" t="str">
-        <f t="shared" ref="N106:N121" si="125">"KW"&amp;WEEKNUM(M106)&amp;"/"&amp;WEEKDAY(M106,2)</f>
+        <f t="shared" ref="N106" si="125">"KW"&amp;WEEKNUM(M106)&amp;"/"&amp;WEEKDAY(M106,2)</f>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8093,108 +8101,105 @@
         <v>23</v>
       </c>
       <c r="D107" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>206</v>
       </c>
       <c r="I107" s="9">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="J107" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/4</v>
+        <f t="shared" ref="J107:J122" si="126">"KW"&amp;WEEKNUM(I107)&amp;"/"&amp;WEEKDAY(I107,2)</f>
+        <v>KW33/3</v>
       </c>
       <c r="L107" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="L107:L122" si="127">"KW"&amp;WEEKNUM(K107)&amp;"/"&amp;WEEKDAY(K107,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N107" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" ht="36">
+        <f t="shared" ref="N107:N122" si="128">"KW"&amp;WEEKNUM(M107)&amp;"/"&amp;WEEKDAY(M107,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19">
       <c r="B108" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>166</v>
+      <c r="D108" s="1">
+        <v>37</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I108" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="I108" s="9">
+        <v>44056</v>
+      </c>
       <c r="J108" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW0/6</v>
+        <f t="shared" si="126"/>
+        <v>KW33/4</v>
       </c>
       <c r="L108" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N108" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S108" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" ht="54">
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" ht="36">
       <c r="B109" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="1">
-        <v>191</v>
+      <c r="D109" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I109" s="9">
-        <v>44057</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I109" s="9"/>
       <c r="J109" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/5</v>
+        <f t="shared" si="126"/>
+        <v>KW0/6</v>
       </c>
       <c r="L109" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N109" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S109" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19">
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S109" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" ht="54">
       <c r="B110" s="4" t="s">
         <v>202</v>
       </c>
@@ -8202,10 +8207,10 @@
         <v>23</v>
       </c>
       <c r="D110" s="1">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>19</v>
@@ -8217,22 +8222,22 @@
         <v>44057</v>
       </c>
       <c r="J110" s="9" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>KW33/5</v>
       </c>
       <c r="L110" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N110" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" ht="40.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19">
       <c r="B111" s="4" t="s">
         <v>202</v>
       </c>
@@ -8240,10 +8245,10 @@
         <v>23</v>
       </c>
       <c r="D111" s="1">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>19</v>
@@ -8252,25 +8257,25 @@
         <v>235</v>
       </c>
       <c r="I111" s="9">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="J111" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/6</v>
+        <f t="shared" si="126"/>
+        <v>KW33/5</v>
       </c>
       <c r="L111" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N111" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" ht="40.5">
       <c r="B112" s="4" t="s">
         <v>202</v>
       </c>
@@ -8278,28 +8283,34 @@
         <v>23</v>
       </c>
       <c r="D112" s="1">
-        <v>208</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="I112" s="9">
-        <v>44053</v>
+        <v>44058</v>
       </c>
       <c r="J112" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/1</v>
+        <f t="shared" si="126"/>
+        <v>KW33/6</v>
       </c>
       <c r="L112" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N112" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="2:19">
@@ -8310,27 +8321,27 @@
         <v>23</v>
       </c>
       <c r="D113" s="1">
-        <v>547</v>
+        <v>208</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>234</v>
+      <c r="I113" s="9">
+        <v>44053</v>
       </c>
       <c r="J113" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW0/6</v>
+        <f t="shared" si="126"/>
+        <v>KW33/1</v>
       </c>
       <c r="L113" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N113" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8341,25 +8352,28 @@
       <c r="C114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>228</v>
+      <c r="D114" s="1">
+        <v>547</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="J114" s="9" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>KW0/6</v>
       </c>
       <c r="L114" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N114" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8370,25 +8384,25 @@
       <c r="C115" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="1">
-        <v>130</v>
+      <c r="D115" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J115" s="9" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>KW0/6</v>
       </c>
       <c r="L115" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N115" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8399,25 +8413,25 @@
       <c r="C116" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>226</v>
+      <c r="D116" s="1">
+        <v>130</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J116" s="9" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>KW0/6</v>
       </c>
       <c r="L116" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N116" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8428,34 +8442,25 @@
       <c r="C117" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I117" s="9">
-        <v>44059</v>
-      </c>
       <c r="J117" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW34/7</v>
-      </c>
-      <c r="K117" s="18">
-        <v>44071</v>
+        <f t="shared" si="126"/>
+        <v>KW0/6</v>
       </c>
       <c r="L117" s="9" t="str">
-        <f t="shared" si="124"/>
-        <v>KW35/5</v>
+        <f t="shared" si="127"/>
+        <v>KW0/6</v>
       </c>
       <c r="N117" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8467,27 +8472,33 @@
         <v>23</v>
       </c>
       <c r="D118" s="1">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
+      </c>
+      <c r="I118" s="9">
+        <v>44059</v>
       </c>
       <c r="J118" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW0/6</v>
+        <f t="shared" si="126"/>
+        <v>KW34/7</v>
+      </c>
+      <c r="K118" s="18">
+        <v>44071</v>
       </c>
       <c r="L118" s="9" t="str">
-        <f t="shared" si="124"/>
-        <v>KW0/6</v>
+        <f t="shared" si="127"/>
+        <v>KW35/5</v>
       </c>
       <c r="N118" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8499,34 +8510,28 @@
         <v>23</v>
       </c>
       <c r="D119" s="1">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I119" s="9">
-        <v>44058</v>
+        <v>224</v>
       </c>
       <c r="J119" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/6</v>
+        <f t="shared" si="126"/>
+        <v>KW0/6</v>
       </c>
       <c r="L119" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N119" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S119" s="5" t="s">
-        <v>232</v>
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="120" spans="2:19">
@@ -8537,25 +8542,34 @@
         <v>23</v>
       </c>
       <c r="D120" s="1">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I120" s="9">
+        <v>44058</v>
       </c>
       <c r="J120" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW0/6</v>
+        <f t="shared" si="126"/>
+        <v>KW33/6</v>
       </c>
       <c r="L120" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N120" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="2:19">
@@ -8566,34 +8580,25 @@
         <v>23</v>
       </c>
       <c r="D121" s="1">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I121" s="9">
-        <v>44058</v>
-      </c>
       <c r="J121" s="9" t="str">
-        <f t="shared" si="123"/>
-        <v>KW33/6</v>
+        <f t="shared" si="126"/>
+        <v>KW0/6</v>
       </c>
       <c r="L121" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N121" s="9" t="str">
-        <f t="shared" si="125"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S121" s="5" t="s">
-        <v>233</v>
+        <f t="shared" si="128"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="122" spans="2:19">
@@ -8604,30 +8609,30 @@
         <v>23</v>
       </c>
       <c r="D122" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I122" s="9">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="J122" s="9" t="str">
-        <f t="shared" ref="J122" si="126">"KW"&amp;WEEKNUM(I122)&amp;"/"&amp;WEEKDAY(I122,2)</f>
-        <v>KW34/7</v>
+        <f t="shared" si="126"/>
+        <v>KW33/6</v>
       </c>
       <c r="L122" s="9" t="str">
-        <f t="shared" ref="L122" si="127">"KW"&amp;WEEKNUM(K122)&amp;"/"&amp;WEEKDAY(K122,2)</f>
+        <f t="shared" si="127"/>
         <v>KW0/6</v>
       </c>
       <c r="N122" s="9" t="str">
-        <f t="shared" ref="N122" si="128">"KW"&amp;WEEKNUM(M122)&amp;"/"&amp;WEEKDAY(M122,2)</f>
+        <f t="shared" si="128"/>
         <v>KW0/6</v>
       </c>
       <c r="S122" s="5" t="s">
@@ -8636,29 +8641,29 @@
     </row>
     <row r="123" spans="2:19">
       <c r="B123" s="4" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="1">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I123" s="9">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="J123" s="9" t="str">
         <f t="shared" ref="J123" si="129">"KW"&amp;WEEKNUM(I123)&amp;"/"&amp;WEEKDAY(I123,2)</f>
-        <v>KW34/1</v>
+        <v>KW34/7</v>
       </c>
       <c r="L123" s="9" t="str">
         <f t="shared" ref="L123" si="130">"KW"&amp;WEEKNUM(K123)&amp;"/"&amp;WEEKDAY(K123,2)</f>
@@ -8669,7 +8674,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="2:19">
@@ -8680,28 +8685,34 @@
         <v>23</v>
       </c>
       <c r="D124" s="1">
-        <v>1122</v>
+        <v>146</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
+      </c>
+      <c r="I124" s="9">
+        <v>44060</v>
       </c>
       <c r="J124" s="9" t="str">
-        <f t="shared" ref="J124:J143" si="132">"KW"&amp;WEEKNUM(I124)&amp;"/"&amp;WEEKDAY(I124,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="J124" si="132">"KW"&amp;WEEKNUM(I124)&amp;"/"&amp;WEEKDAY(I124,2)</f>
+        <v>KW34/1</v>
       </c>
       <c r="L124" s="9" t="str">
-        <f t="shared" ref="L124:L143" si="133">"KW"&amp;WEEKNUM(K124)&amp;"/"&amp;WEEKDAY(K124,2)</f>
+        <f t="shared" ref="L124" si="133">"KW"&amp;WEEKNUM(K124)&amp;"/"&amp;WEEKDAY(K124,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N124" s="9" t="str">
-        <f t="shared" ref="N124:N143" si="134">"KW"&amp;WEEKNUM(M124)&amp;"/"&amp;WEEKDAY(M124,2)</f>
-        <v>KW0/6</v>
+        <f t="shared" ref="N124" si="134">"KW"&amp;WEEKNUM(M124)&amp;"/"&amp;WEEKDAY(M124,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="2:19">
@@ -8711,11 +8722,11 @@
       <c r="C125" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>262</v>
+      <c r="D125" s="1">
+        <v>1122</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>19</v>
@@ -8724,15 +8735,15 @@
         <v>264</v>
       </c>
       <c r="J125" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="J125:J144" si="135">"KW"&amp;WEEKNUM(I125)&amp;"/"&amp;WEEKDAY(I125,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L125" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="L125:L144" si="136">"KW"&amp;WEEKNUM(K125)&amp;"/"&amp;WEEKDAY(K125,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N125" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="N125:N144" si="137">"KW"&amp;WEEKNUM(M125)&amp;"/"&amp;WEEKDAY(M125,2)</f>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8741,30 +8752,30 @@
         <v>239</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1">
-        <v>1244</v>
+        <v>23</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>244</v>
+        <v>17</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="J126" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L126" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N126" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8773,37 +8784,31 @@
         <v>239</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1">
-        <v>56</v>
+        <v>1244</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I127" s="9">
-        <v>44063</v>
+      <c r="H127" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="J127" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW34/4</v>
+        <f t="shared" si="135"/>
+        <v>KW0/6</v>
       </c>
       <c r="L127" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N127" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S127" s="5" t="s">
-        <v>264</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="128" spans="2:19">
@@ -8814,34 +8819,34 @@
         <v>23</v>
       </c>
       <c r="D128" s="1">
-        <v>493</v>
+        <v>56</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I128" s="9">
-        <v>44067</v>
+        <v>44063</v>
       </c>
       <c r="J128" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW35/1</v>
+        <f t="shared" si="135"/>
+        <v>KW34/4</v>
       </c>
       <c r="L128" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N128" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="2:19">
@@ -8852,31 +8857,34 @@
         <v>23</v>
       </c>
       <c r="D129" s="1">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I129" s="9">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="J129" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW34/6</v>
+        <f t="shared" si="135"/>
+        <v>KW35/1</v>
       </c>
       <c r="L129" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N129" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S129" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="2:19">
@@ -8887,13 +8895,13 @@
         <v>23</v>
       </c>
       <c r="D130" s="1">
-        <v>151</v>
+        <v>541</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>269</v>
@@ -8902,15 +8910,15 @@
         <v>44065</v>
       </c>
       <c r="J130" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L130" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N130" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8922,13 +8930,13 @@
         <v>23</v>
       </c>
       <c r="D131" s="1">
-        <v>557</v>
+        <v>151</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>269</v>
@@ -8937,15 +8945,15 @@
         <v>44065</v>
       </c>
       <c r="J131" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L131" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N131" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8957,10 +8965,10 @@
         <v>23</v>
       </c>
       <c r="D132" s="1">
-        <v>917</v>
+        <v>557</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>19</v>
@@ -8972,15 +8980,15 @@
         <v>44065</v>
       </c>
       <c r="J132" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW34/6</v>
       </c>
       <c r="L132" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N132" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -8992,10 +9000,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="1">
-        <v>205</v>
+        <v>917</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>19</v>
@@ -9003,16 +9011,19 @@
       <c r="G133" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="I133" s="9">
+        <v>44065</v>
+      </c>
       <c r="J133" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW0/6</v>
+        <f t="shared" si="135"/>
+        <v>KW34/6</v>
       </c>
       <c r="L133" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N133" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9024,10 +9035,10 @@
         <v>23</v>
       </c>
       <c r="D134" s="1">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>19</v>
@@ -9036,15 +9047,15 @@
         <v>269</v>
       </c>
       <c r="J134" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L134" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N134" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9056,24 +9067,27 @@
         <v>23</v>
       </c>
       <c r="D135" s="1">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="J135" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L135" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N135" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9084,25 +9098,25 @@
       <c r="C136" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>291</v>
+      <c r="D136" s="1">
+        <v>300</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J136" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L136" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N136" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9113,35 +9127,26 @@
       <c r="C137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="1">
-        <v>8</v>
+      <c r="D137" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I137" s="9">
-        <v>44065</v>
-      </c>
       <c r="J137" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW34/6</v>
+        <f t="shared" si="135"/>
+        <v>KW0/6</v>
       </c>
       <c r="L137" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N137" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S137" s="5" t="s">
-        <v>278</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="138" spans="2:19">
@@ -9152,10 +9157,10 @@
         <v>23</v>
       </c>
       <c r="D138" s="1">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>20</v>
@@ -9163,17 +9168,23 @@
       <c r="G138" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="I138" s="9">
+        <v>44065</v>
+      </c>
       <c r="J138" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW0/6</v>
+        <f t="shared" si="135"/>
+        <v>KW34/6</v>
       </c>
       <c r="L138" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N138" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="2:19">
@@ -9184,10 +9195,10 @@
         <v>23</v>
       </c>
       <c r="D139" s="1">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>20</v>
@@ -9195,23 +9206,17 @@
       <c r="G139" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I139" s="9">
-        <v>44068</v>
-      </c>
       <c r="J139" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW35/2</v>
+        <f t="shared" si="135"/>
+        <v>KW0/6</v>
       </c>
       <c r="L139" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N139" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-      <c r="S139" s="5" t="s">
-        <v>286</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
       </c>
     </row>
     <row r="140" spans="2:19">
@@ -9221,29 +9226,35 @@
       <c r="C140" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>290</v>
+      <c r="D140" s="1">
+        <v>5</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="I140" s="9">
+        <v>44068</v>
+      </c>
       <c r="J140" s="9" t="str">
-        <f t="shared" si="132"/>
-        <v>KW0/6</v>
+        <f t="shared" si="135"/>
+        <v>KW35/2</v>
       </c>
       <c r="L140" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N140" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S140" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="2:19">
@@ -9253,25 +9264,28 @@
       <c r="C141" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D141" s="1">
-        <v>818</v>
+      <c r="D141" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G141" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="J141" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L141" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N141" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9283,27 +9297,24 @@
         <v>23</v>
       </c>
       <c r="D142" s="1">
-        <v>44</v>
+        <v>818</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="J142" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L142" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N142" s="9" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9315,10 +9326,10 @@
         <v>23</v>
       </c>
       <c r="D143" s="1">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>22</v>
@@ -9327,57 +9338,51 @@
         <v>269</v>
       </c>
       <c r="J143" s="9" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>KW0/6</v>
       </c>
       <c r="L143" s="9" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N143" s="9" t="str">
-        <f t="shared" si="134"/>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" ht="12.75" customHeight="1">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19">
       <c r="B144" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D144" s="1">
-        <v>709</v>
+        <v>115</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I144" s="9">
-        <v>44065</v>
-      </c>
       <c r="J144" s="9" t="str">
-        <f t="shared" ref="J144:J152" si="135">"KW"&amp;WEEKNUM(I144)&amp;"/"&amp;WEEKDAY(I144,2)</f>
-        <v>KW34/6</v>
+        <f t="shared" si="135"/>
+        <v>KW0/6</v>
       </c>
       <c r="L144" s="9" t="str">
-        <f t="shared" ref="L144:L152" si="136">"KW"&amp;WEEKNUM(K144)&amp;"/"&amp;WEEKDAY(K144,2)</f>
+        <f t="shared" si="136"/>
         <v>KW0/6</v>
       </c>
       <c r="N144" s="9" t="str">
-        <f t="shared" ref="N144:N152" si="137">"KW"&amp;WEEKNUM(M144)&amp;"/"&amp;WEEKDAY(M144,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="S144" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19" ht="27">
+        <f t="shared" si="137"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" ht="12.75" customHeight="1">
       <c r="B145" s="4" t="s">
         <v>239</v>
       </c>
@@ -9385,10 +9390,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="1">
-        <v>58</v>
+        <v>709</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>19</v>
@@ -9400,22 +9405,22 @@
         <v>44065</v>
       </c>
       <c r="J145" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" ref="J145:J153" si="138">"KW"&amp;WEEKNUM(I145)&amp;"/"&amp;WEEKDAY(I145,2)</f>
         <v>KW34/6</v>
       </c>
       <c r="L145" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="L145:L153" si="139">"KW"&amp;WEEKNUM(K145)&amp;"/"&amp;WEEKDAY(K145,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N145" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="N145:N153" si="140">"KW"&amp;WEEKNUM(M145)&amp;"/"&amp;WEEKDAY(M145,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="146" spans="2:19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" ht="27">
       <c r="B146" s="4" t="s">
         <v>239</v>
       </c>
@@ -9423,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="1">
-        <v>771</v>
+        <v>58</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>19</v>
@@ -9438,19 +9443,19 @@
         <v>44065</v>
       </c>
       <c r="J146" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW34/6</v>
       </c>
       <c r="L146" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N146" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="2:19">
@@ -9458,13 +9463,13 @@
         <v>239</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D147" s="1">
-        <v>387</v>
+        <v>771</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>19</v>
@@ -9476,19 +9481,19 @@
         <v>44065</v>
       </c>
       <c r="J147" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW34/6</v>
       </c>
       <c r="L147" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N147" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="2:19">
@@ -9496,13 +9501,13 @@
         <v>239</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D148" s="1">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>19</v>
@@ -9514,19 +9519,19 @@
         <v>44065</v>
       </c>
       <c r="J148" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW34/6</v>
       </c>
       <c r="L148" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N148" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="2:19">
@@ -9537,10 +9542,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="1">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
@@ -9552,16 +9557,19 @@
         <v>44065</v>
       </c>
       <c r="J149" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW34/6</v>
       </c>
       <c r="L149" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N149" s="9" t="str">
-        <f t="shared" si="137"/>
-        <v>KW0/6</v>
+        <f t="shared" si="140"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="S149" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="2:19">
@@ -9571,11 +9579,11 @@
       <c r="C150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>280</v>
+      <c r="D150" s="1">
+        <v>344</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>19</v>
@@ -9583,16 +9591,19 @@
       <c r="G150" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="I150" s="9">
+        <v>44065</v>
+      </c>
       <c r="J150" s="9" t="str">
-        <f t="shared" si="135"/>
-        <v>KW0/6</v>
+        <f t="shared" si="138"/>
+        <v>KW34/6</v>
       </c>
       <c r="L150" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N150" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9604,27 +9615,27 @@
         <v>0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J151" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW0/6</v>
       </c>
       <c r="L151" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N151" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9635,28 +9646,28 @@
       <c r="C152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D152" s="1">
-        <v>125</v>
+      <c r="D152" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J152" s="9" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>KW0/6</v>
       </c>
       <c r="L152" s="9" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N152" s="9" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9667,28 +9678,28 @@
       <c r="C153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>285</v>
+      <c r="D153" s="1">
+        <v>125</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J153" s="9" t="str">
-        <f t="shared" ref="J153:J155" si="138">"KW"&amp;WEEKNUM(I153)&amp;"/"&amp;WEEKDAY(I153,2)</f>
+        <f t="shared" si="138"/>
         <v>KW0/6</v>
       </c>
       <c r="L153" s="9" t="str">
-        <f t="shared" ref="L153:L155" si="139">"KW"&amp;WEEKNUM(K153)&amp;"/"&amp;WEEKDAY(K153,2)</f>
+        <f t="shared" si="139"/>
         <v>KW0/6</v>
       </c>
       <c r="N153" s="9" t="str">
-        <f t="shared" ref="N153:N155" si="140">"KW"&amp;WEEKNUM(M153)&amp;"/"&amp;WEEKDAY(M153,2)</f>
+        <f t="shared" si="140"/>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9700,27 +9711,27 @@
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J154" s="9" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="J154:J156" si="141">"KW"&amp;WEEKNUM(I154)&amp;"/"&amp;WEEKDAY(I154,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="L154" s="9" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="L154:L156" si="142">"KW"&amp;WEEKNUM(K154)&amp;"/"&amp;WEEKDAY(K154,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N154" s="9" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="N154:N156" si="143">"KW"&amp;WEEKNUM(M154)&amp;"/"&amp;WEEKDAY(M154,2)</f>
         <v>KW0/6</v>
       </c>
     </row>
@@ -9731,321 +9742,353 @@
       <c r="C155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D155" s="1">
-        <v>10</v>
+      <c r="D155" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J155" s="9" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v>KW0/6</v>
       </c>
       <c r="L155" s="9" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>KW0/6</v>
       </c>
       <c r="N155" s="9" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="156" spans="2:19">
+      <c r="B156" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D156" s="1">
-        <v>240</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>288</v>
+        <v>10</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I156" s="9">
-        <v>44069</v>
+        <v>269</v>
       </c>
       <c r="J156" s="9" t="str">
-        <f t="shared" ref="J156" si="141">"KW"&amp;WEEKNUM(I156)&amp;"/"&amp;WEEKDAY(I156,2)</f>
-        <v>KW35/3</v>
+        <f t="shared" si="141"/>
+        <v>KW0/6</v>
       </c>
       <c r="L156" s="9" t="str">
-        <f t="shared" ref="L156" si="142">"KW"&amp;WEEKNUM(K156)&amp;"/"&amp;WEEKDAY(K156,2)</f>
+        <f t="shared" si="142"/>
         <v>KW0/6</v>
       </c>
       <c r="N156" s="9" t="str">
-        <f t="shared" ref="N156" si="143">"KW"&amp;WEEKNUM(M156)&amp;"/"&amp;WEEKDAY(M156,2)</f>
+        <f t="shared" si="143"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="157" spans="2:19">
       <c r="D157" s="1">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I157" s="9">
+        <v>44069</v>
+      </c>
+      <c r="J157" s="9" t="str">
+        <f t="shared" ref="J157" si="144">"KW"&amp;WEEKNUM(I157)&amp;"/"&amp;WEEKDAY(I157,2)</f>
+        <v>KW35/3</v>
+      </c>
+      <c r="L157" s="9" t="str">
+        <f t="shared" ref="L157" si="145">"KW"&amp;WEEKNUM(K157)&amp;"/"&amp;WEEKDAY(K157,2)</f>
+        <v>KW0/6</v>
+      </c>
+      <c r="N157" s="9" t="str">
+        <f t="shared" ref="N157" si="146">"KW"&amp;WEEKNUM(M157)&amp;"/"&amp;WEEKDAY(M157,2)</f>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19">
+      <c r="D158" s="1">
+        <v>106</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I157" s="9">
+      <c r="I158" s="9">
         <v>44100</v>
       </c>
-      <c r="J157" s="9" t="str">
-        <f t="shared" ref="J157:J173" si="144">"KW"&amp;WEEKNUM(I157)&amp;"/"&amp;WEEKDAY(I157,2)</f>
+      <c r="J158" s="9" t="str">
+        <f t="shared" ref="J158:J174" si="147">"KW"&amp;WEEKNUM(I158)&amp;"/"&amp;WEEKDAY(I158,2)</f>
         <v>KW39/6</v>
       </c>
-      <c r="L157" s="9" t="str">
-        <f t="shared" ref="L157:L173" si="145">"KW"&amp;WEEKNUM(K157)&amp;"/"&amp;WEEKDAY(K157,2)</f>
-        <v>KW0/6</v>
-      </c>
-      <c r="N157" s="9" t="str">
-        <f t="shared" ref="N157:N173" si="146">"KW"&amp;WEEKNUM(M157)&amp;"/"&amp;WEEKDAY(M157,2)</f>
-        <v>KW0/6</v>
-      </c>
-    </row>
-    <row r="158" spans="2:19">
-      <c r="J158" s="9" t="str">
-        <f t="shared" si="144"/>
-        <v>KW0/6</v>
-      </c>
       <c r="L158" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="L158:L174" si="148">"KW"&amp;WEEKNUM(K158)&amp;"/"&amp;WEEKDAY(K158,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="N158" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="N158:N174" si="149">"KW"&amp;WEEKNUM(M158)&amp;"/"&amp;WEEKDAY(M158,2)</f>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="159" spans="2:19">
       <c r="J159" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L159" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N159" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="160" spans="2:19">
       <c r="J160" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L160" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N160" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="161" spans="10:14">
       <c r="J161" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L161" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N161" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="162" spans="10:14">
       <c r="J162" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L162" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N162" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="163" spans="10:14">
       <c r="J163" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L163" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N163" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="164" spans="10:14">
       <c r="J164" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L164" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N164" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="165" spans="10:14">
       <c r="J165" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L165" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N165" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="166" spans="10:14">
       <c r="J166" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L166" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N166" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="167" spans="10:14">
       <c r="J167" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L167" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N167" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="168" spans="10:14">
       <c r="J168" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L168" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N168" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="169" spans="10:14">
       <c r="J169" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L169" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N169" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="170" spans="10:14">
       <c r="J170" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L170" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N170" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="171" spans="10:14">
       <c r="J171" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L171" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N171" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="172" spans="10:14">
       <c r="J172" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L172" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N172" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
     <row r="173" spans="10:14">
       <c r="J173" s="9" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>KW0/6</v>
       </c>
       <c r="L173" s="9" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>KW0/6</v>
       </c>
       <c r="N173" s="9" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="149"/>
+        <v>KW0/6</v>
+      </c>
+    </row>
+    <row r="174" spans="10:14">
+      <c r="J174" s="9" t="str">
+        <f t="shared" si="147"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="L174" s="9" t="str">
+        <f t="shared" si="148"/>
+        <v>KW0/6</v>
+      </c>
+      <c r="N174" s="9" t="str">
+        <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S159"/>
+  <autoFilter ref="A1:S160"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C155">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C156">
       <formula1>"周作业,实战题目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F160">
       <formula1>"简单,中等,困难"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10114,116 +10157,117 @@
     <hyperlink ref="E49" r:id="rId62" display="https://leetcode-cn.com/problems/majority-element/description/"/>
     <hyperlink ref="E50" r:id="rId63" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
     <hyperlink ref="E51" r:id="rId64" display="https://leetcode-cn.com/problems/n-queens/"/>
-    <hyperlink ref="E59" r:id="rId65" display="https://leetcode-cn.com/problems/lemonade-change/description/"/>
-    <hyperlink ref="E60" r:id="rId66" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
-    <hyperlink ref="E61" r:id="rId67" display="https://leetcode-cn.com/problems/assign-cookies/description/"/>
-    <hyperlink ref="E62" r:id="rId68" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
-    <hyperlink ref="E63" r:id="rId69" display="https://leetcode-cn.com/problems/word-ladder/description/"/>
-    <hyperlink ref="E64" r:id="rId70" display="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="E65" r:id="rId71" display="https://leetcode-cn.com/problems/minesweeper/description/"/>
-    <hyperlink ref="E66" r:id="rId72" display="https://leetcode-cn.com/problems/jump-game/"/>
-    <hyperlink ref="E67" r:id="rId73" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
-    <hyperlink ref="E68" r:id="rId74" display="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="E69" r:id="rId75" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="E70" r:id="rId76" display="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
-    <hyperlink ref="E71" r:id="rId77" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
+    <hyperlink ref="E60" r:id="rId65" display="https://leetcode-cn.com/problems/lemonade-change/description/"/>
+    <hyperlink ref="E61" r:id="rId66" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
+    <hyperlink ref="E62" r:id="rId67" display="https://leetcode-cn.com/problems/assign-cookies/description/"/>
+    <hyperlink ref="E63" r:id="rId68" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
+    <hyperlink ref="E64" r:id="rId69" display="https://leetcode-cn.com/problems/word-ladder/description/"/>
+    <hyperlink ref="E65" r:id="rId70" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="E66" r:id="rId71" display="https://leetcode-cn.com/problems/minesweeper/description/"/>
+    <hyperlink ref="E67" r:id="rId72" display="https://leetcode-cn.com/problems/jump-game/"/>
+    <hyperlink ref="E68" r:id="rId73" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="E69" r:id="rId74" display="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="E70" r:id="rId75" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="E71" r:id="rId76" display="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
+    <hyperlink ref="E72" r:id="rId77" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
     <hyperlink ref="E52" r:id="rId78" location="/description" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/ - /description"/>
     <hyperlink ref="E53" r:id="rId79" location="/description" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/ - /description"/>
-    <hyperlink ref="E54" r:id="rId80" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
-    <hyperlink ref="E55" r:id="rId81" location="/description" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/ - /description"/>
-    <hyperlink ref="E56" r:id="rId82" display="https://leetcode-cn.com/problems/coin-change/"/>
-    <hyperlink ref="E58" r:id="rId83" display="https://leetcode-cn.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="E57" r:id="rId84" display="https://leetcode-cn.com/problems/sqrtx/"/>
-    <hyperlink ref="E72" r:id="rId85" display="https://leetcode-cn.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="E73" r:id="rId86" display="https://leetcode-cn.com/problems/decode-ways"/>
-    <hyperlink ref="E74" r:id="rId87" display="https://leetcode-cn.com/problems/maximal-square/"/>
-    <hyperlink ref="E75" r:id="rId88" display="https://leetcode-cn.com/problems/task-scheduler/"/>
-    <hyperlink ref="E76" r:id="rId89" display="https://leetcode-cn.com/problems/palindromic-substrings/"/>
-    <hyperlink ref="E77" r:id="rId90" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="E78" r:id="rId91" display="https://leetcode-cn.com/problems/edit-distance/"/>
-    <hyperlink ref="E79" r:id="rId92" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/"/>
-    <hyperlink ref="E80" r:id="rId93" display="https://leetcode-cn.com/problems/frog-jump/"/>
-    <hyperlink ref="E81" r:id="rId94" display="https://leetcode-cn.com/problems/split-array-largest-sum"/>
-    <hyperlink ref="E82" r:id="rId95" display="https://leetcode-cn.com/problems/student-attendance-record-ii/"/>
-    <hyperlink ref="E83" r:id="rId96" display="https://leetcode-cn.com/problems/minimum-window-substring/"/>
-    <hyperlink ref="E84" r:id="rId97" display="https://leetcode-cn.com/problems/burst-balloons/"/>
-    <hyperlink ref="E85" r:id="rId98" display="https://leetcode-cn.com/problems/unique-paths/"/>
-    <hyperlink ref="E86" r:id="rId99" display="https://leetcode-cn.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="E87" r:id="rId100" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
-    <hyperlink ref="E88" r:id="rId101" display="https://leetcode-cn.com/problems/climbing-stairs/description/"/>
-    <hyperlink ref="E89" r:id="rId102" display="https://leetcode-cn.com/problems/triangle/description/"/>
-    <hyperlink ref="E90" r:id="rId103" display="https://leetcode-cn.com/problems/maximum-subarray/"/>
-    <hyperlink ref="E91" r:id="rId104" display="https://leetcode-cn.com/problems/maximum-product-subarray/description/"/>
-    <hyperlink ref="E92" r:id="rId105" display="https://leetcode-cn.com/problems/house-robber/"/>
-    <hyperlink ref="E93" r:id="rId106" display="https://leetcode-cn.com/problems/house-robber-ii/description/"/>
-    <hyperlink ref="E94" r:id="rId107" location="/description" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/ - /description"/>
-    <hyperlink ref="E95" r:id="rId108" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
-    <hyperlink ref="E96" r:id="rId109" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iii/"/>
-    <hyperlink ref="E97" r:id="rId110" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="E98" r:id="rId111" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iv/"/>
-    <hyperlink ref="E99" r:id="rId112" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/"/>
-    <hyperlink ref="E100" r:id="rId113" display="https://leetcode-cn.com/problems/perfect-squares/"/>
-    <hyperlink ref="E103" r:id="rId114" display="https://leetcode-cn.com/problems/unique-paths-iii/"/>
-    <hyperlink ref="E104" r:id="rId115" display="https://leetcode-cn.com/problems/coin-change/"/>
-    <hyperlink ref="E105" r:id="rId116" display="https://leetcode-cn.com/problems/coin-change-2/"/>
-    <hyperlink ref="E102" r:id="rId117" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
-    <hyperlink ref="E101" r:id="rId118" display="https://leetcode-cn.com/problems/jump-game/"/>
-    <hyperlink ref="E106" r:id="rId119" display="https://leetcode-cn.com/problems/valid-sudoku/description/"/>
-    <hyperlink ref="E107" r:id="rId120" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description"/>
-    <hyperlink ref="E108" r:id="rId121" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
-    <hyperlink ref="E109" r:id="rId122" display="https://leetcode-cn.com/problems/number-of-1-bits/"/>
-    <hyperlink ref="E110" r:id="rId123" display="https://leetcode-cn.com/problems/power-of-two/"/>
-    <hyperlink ref="E111" r:id="rId124" display="https://leetcode-cn.com/problems/reverse-bits/"/>
-    <hyperlink ref="E112" r:id="rId125" location="/description" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/ - /description"/>
-    <hyperlink ref="E113" r:id="rId126" display="https://leetcode-cn.com/problems/friend-circles"/>
-    <hyperlink ref="E114" r:id="rId127" display="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="E115" r:id="rId128" display="https://leetcode-cn.com/problems/surrounded-regions/"/>
-    <hyperlink ref="E116" r:id="rId129" display="https://leetcode-cn.com/problems/generate-parentheses/"/>
-    <hyperlink ref="E117" r:id="rId130" display="https://leetcode-cn.com/problems/word-ladder/"/>
-    <hyperlink ref="E118" r:id="rId131" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/"/>
-    <hyperlink ref="E119" r:id="rId132" display="https://leetcode-cn.com/problems/counting-bits/description/"/>
-    <hyperlink ref="E120" r:id="rId133" display="https://leetcode-cn.com/problems/word-search-ii/"/>
-    <hyperlink ref="E121" r:id="rId134" display="https://leetcode-cn.com/problems/n-queens/"/>
-    <hyperlink ref="E122" r:id="rId135" display="https://leetcode-cn.com/problems/n-queens-ii/description/"/>
-    <hyperlink ref="E123" r:id="rId136" location="/" display="https://leetcode-cn.com/problems/lru-cache/ - /"/>
-    <hyperlink ref="E124" r:id="rId137" display="https://leetcode-cn.com/problems/relative-sort-array/"/>
-    <hyperlink ref="E125" r:id="rId138" display="https://leetcode-cn.com/problems/valid-anagram/"/>
-    <hyperlink ref="E126" r:id="rId139" display="https://leetcode-cn.com/problems/design-a-leaderboard/"/>
-    <hyperlink ref="E127" r:id="rId140" display="https://leetcode-cn.com/problems/merge-intervals/"/>
-    <hyperlink ref="E128" r:id="rId141" display="https://leetcode-cn.com/problems/reverse-pairs/"/>
-    <hyperlink ref="E130" r:id="rId142" display="https://leetcode-cn.com/problems/reverse-words-in-a-string/"/>
-    <hyperlink ref="E131" r:id="rId143" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/"/>
-    <hyperlink ref="E132" r:id="rId144" display="https://leetcode-cn.com/problems/reverse-only-letters/"/>
-    <hyperlink ref="E133" r:id="rId145" display="https://leetcode-cn.com/problems/isomorphic-strings/"/>
-    <hyperlink ref="E134" r:id="rId146" display="https://leetcode-cn.com/problems/valid-palindrome-ii/"/>
-    <hyperlink ref="E135" r:id="rId147" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="E136" r:id="rId148" display="https://leetcode-cn.com/problems/decode-ways/"/>
-    <hyperlink ref="E137" r:id="rId149" display="https://leetcode-cn.com/problems/string-to-integer-atoi/"/>
-    <hyperlink ref="E138" r:id="rId150" display="https://leetcode-cn.com/problems/find-all-anagrams-in-a-string/"/>
-    <hyperlink ref="E139" r:id="rId151" display="https://leetcode-cn.com/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="E140" r:id="rId152" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="E141" r:id="rId153" display="https://leetcode-cn.com/problems/race-car/"/>
-    <hyperlink ref="E142" r:id="rId154" display="https://leetcode-cn.com/problems/wildcard-matching/"/>
-    <hyperlink ref="E143" r:id="rId155" display="https://leetcode-cn.com/problems/distinct-subsequences/"/>
-    <hyperlink ref="E144" r:id="rId156" display="https://leetcode-cn.com/problems/to-lower-case/"/>
-    <hyperlink ref="E145" r:id="rId157" display="https://leetcode-cn.com/problems/length-of-last-word/"/>
-    <hyperlink ref="E146" r:id="rId158" display="https://leetcode-cn.com/problems/jewels-and-stones/"/>
-    <hyperlink ref="E147" r:id="rId159" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/"/>
-    <hyperlink ref="E148" r:id="rId160" display="https://leetcode-cn.com/problems/longest-common-prefix/description/"/>
-    <hyperlink ref="E149" r:id="rId161" display="https://leetcode-cn.com/problems/reverse-string"/>
-    <hyperlink ref="E150" r:id="rId162" display="https://leetcode-cn.com/problems/valid-anagram/"/>
-    <hyperlink ref="E151" r:id="rId163" display="https://leetcode-cn.com/problems/group-anagrams/"/>
-    <hyperlink ref="E152" r:id="rId164" display="https://leetcode-cn.com/problems/valid-palindrome/"/>
-    <hyperlink ref="E153" r:id="rId165" display="https://leetcode-cn.com/problems/edit-distance/"/>
-    <hyperlink ref="E154" r:id="rId166" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
-    <hyperlink ref="E155" r:id="rId167" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
-    <hyperlink ref="E156" r:id="rId168" display="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
-    <hyperlink ref="E36" r:id="rId169" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
-    <hyperlink ref="E157" r:id="rId170" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="E56" r:id="rId80" location="/description" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/ - /description"/>
+    <hyperlink ref="E57" r:id="rId81" display="https://leetcode-cn.com/problems/coin-change/"/>
+    <hyperlink ref="E59" r:id="rId82" display="https://leetcode-cn.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="E58" r:id="rId83" display="https://leetcode-cn.com/problems/sqrtx/"/>
+    <hyperlink ref="E73" r:id="rId84" display="https://leetcode-cn.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="E74" r:id="rId85" display="https://leetcode-cn.com/problems/decode-ways"/>
+    <hyperlink ref="E75" r:id="rId86" display="https://leetcode-cn.com/problems/maximal-square/"/>
+    <hyperlink ref="E76" r:id="rId87" display="https://leetcode-cn.com/problems/task-scheduler/"/>
+    <hyperlink ref="E77" r:id="rId88" display="https://leetcode-cn.com/problems/palindromic-substrings/"/>
+    <hyperlink ref="E78" r:id="rId89" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="E79" r:id="rId90" display="https://leetcode-cn.com/problems/edit-distance/"/>
+    <hyperlink ref="E80" r:id="rId91" display="https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/"/>
+    <hyperlink ref="E81" r:id="rId92" display="https://leetcode-cn.com/problems/frog-jump/"/>
+    <hyperlink ref="E82" r:id="rId93" display="https://leetcode-cn.com/problems/split-array-largest-sum"/>
+    <hyperlink ref="E83" r:id="rId94" display="https://leetcode-cn.com/problems/student-attendance-record-ii/"/>
+    <hyperlink ref="E84" r:id="rId95" display="https://leetcode-cn.com/problems/minimum-window-substring/"/>
+    <hyperlink ref="E85" r:id="rId96" display="https://leetcode-cn.com/problems/burst-balloons/"/>
+    <hyperlink ref="E86" r:id="rId97" display="https://leetcode-cn.com/problems/unique-paths/"/>
+    <hyperlink ref="E87" r:id="rId98" display="https://leetcode-cn.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="E88" r:id="rId99" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
+    <hyperlink ref="E89" r:id="rId100" display="https://leetcode-cn.com/problems/climbing-stairs/description/"/>
+    <hyperlink ref="E90" r:id="rId101" display="https://leetcode-cn.com/problems/triangle/description/"/>
+    <hyperlink ref="E91" r:id="rId102" display="https://leetcode-cn.com/problems/maximum-subarray/"/>
+    <hyperlink ref="E92" r:id="rId103" display="https://leetcode-cn.com/problems/maximum-product-subarray/description/"/>
+    <hyperlink ref="E93" r:id="rId104" display="https://leetcode-cn.com/problems/house-robber/"/>
+    <hyperlink ref="E94" r:id="rId105" display="https://leetcode-cn.com/problems/house-robber-ii/description/"/>
+    <hyperlink ref="E95" r:id="rId106" location="/description" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/ - /description"/>
+    <hyperlink ref="E96" r:id="rId107" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
+    <hyperlink ref="E97" r:id="rId108" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iii/"/>
+    <hyperlink ref="E98" r:id="rId109" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="E99" r:id="rId110" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iv/"/>
+    <hyperlink ref="E100" r:id="rId111" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/"/>
+    <hyperlink ref="E101" r:id="rId112" display="https://leetcode-cn.com/problems/perfect-squares/"/>
+    <hyperlink ref="E104" r:id="rId113" display="https://leetcode-cn.com/problems/unique-paths-iii/"/>
+    <hyperlink ref="E105" r:id="rId114" display="https://leetcode-cn.com/problems/coin-change/"/>
+    <hyperlink ref="E106" r:id="rId115" display="https://leetcode-cn.com/problems/coin-change-2/"/>
+    <hyperlink ref="E103" r:id="rId116" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
+    <hyperlink ref="E102" r:id="rId117" display="https://leetcode-cn.com/problems/jump-game/"/>
+    <hyperlink ref="E107" r:id="rId118" display="https://leetcode-cn.com/problems/valid-sudoku/description/"/>
+    <hyperlink ref="E108" r:id="rId119" location="/description" display="https://leetcode-cn.com/problems/sudoku-solver/ - /description"/>
+    <hyperlink ref="E109" r:id="rId120" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
+    <hyperlink ref="E110" r:id="rId121" display="https://leetcode-cn.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="E111" r:id="rId122" display="https://leetcode-cn.com/problems/power-of-two/"/>
+    <hyperlink ref="E112" r:id="rId123" display="https://leetcode-cn.com/problems/reverse-bits/"/>
+    <hyperlink ref="E113" r:id="rId124" location="/description" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/ - /description"/>
+    <hyperlink ref="E114" r:id="rId125" display="https://leetcode-cn.com/problems/friend-circles"/>
+    <hyperlink ref="E115" r:id="rId126" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="E116" r:id="rId127" display="https://leetcode-cn.com/problems/surrounded-regions/"/>
+    <hyperlink ref="E117" r:id="rId128" display="https://leetcode-cn.com/problems/generate-parentheses/"/>
+    <hyperlink ref="E118" r:id="rId129" display="https://leetcode-cn.com/problems/word-ladder/"/>
+    <hyperlink ref="E119" r:id="rId130" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/"/>
+    <hyperlink ref="E120" r:id="rId131" display="https://leetcode-cn.com/problems/counting-bits/description/"/>
+    <hyperlink ref="E121" r:id="rId132" display="https://leetcode-cn.com/problems/word-search-ii/"/>
+    <hyperlink ref="E122" r:id="rId133" display="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="E123" r:id="rId134" display="https://leetcode-cn.com/problems/n-queens-ii/description/"/>
+    <hyperlink ref="E124" r:id="rId135" location="/" display="https://leetcode-cn.com/problems/lru-cache/ - /"/>
+    <hyperlink ref="E125" r:id="rId136" display="https://leetcode-cn.com/problems/relative-sort-array/"/>
+    <hyperlink ref="E126" r:id="rId137" display="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="E127" r:id="rId138" display="https://leetcode-cn.com/problems/design-a-leaderboard/"/>
+    <hyperlink ref="E128" r:id="rId139" display="https://leetcode-cn.com/problems/merge-intervals/"/>
+    <hyperlink ref="E129" r:id="rId140" display="https://leetcode-cn.com/problems/reverse-pairs/"/>
+    <hyperlink ref="E131" r:id="rId141" display="https://leetcode-cn.com/problems/reverse-words-in-a-string/"/>
+    <hyperlink ref="E132" r:id="rId142" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/"/>
+    <hyperlink ref="E133" r:id="rId143" display="https://leetcode-cn.com/problems/reverse-only-letters/"/>
+    <hyperlink ref="E134" r:id="rId144" display="https://leetcode-cn.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="E135" r:id="rId145" display="https://leetcode-cn.com/problems/valid-palindrome-ii/"/>
+    <hyperlink ref="E136" r:id="rId146" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="E137" r:id="rId147" display="https://leetcode-cn.com/problems/decode-ways/"/>
+    <hyperlink ref="E138" r:id="rId148" display="https://leetcode-cn.com/problems/string-to-integer-atoi/"/>
+    <hyperlink ref="E139" r:id="rId149" display="https://leetcode-cn.com/problems/find-all-anagrams-in-a-string/"/>
+    <hyperlink ref="E140" r:id="rId150" display="https://leetcode-cn.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="E141" r:id="rId151" display="https://leetcode-cn.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="E142" r:id="rId152" display="https://leetcode-cn.com/problems/race-car/"/>
+    <hyperlink ref="E143" r:id="rId153" display="https://leetcode-cn.com/problems/wildcard-matching/"/>
+    <hyperlink ref="E144" r:id="rId154" display="https://leetcode-cn.com/problems/distinct-subsequences/"/>
+    <hyperlink ref="E145" r:id="rId155" display="https://leetcode-cn.com/problems/to-lower-case/"/>
+    <hyperlink ref="E146" r:id="rId156" display="https://leetcode-cn.com/problems/length-of-last-word/"/>
+    <hyperlink ref="E147" r:id="rId157" display="https://leetcode-cn.com/problems/jewels-and-stones/"/>
+    <hyperlink ref="E148" r:id="rId158" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/"/>
+    <hyperlink ref="E149" r:id="rId159" display="https://leetcode-cn.com/problems/longest-common-prefix/description/"/>
+    <hyperlink ref="E150" r:id="rId160" display="https://leetcode-cn.com/problems/reverse-string"/>
+    <hyperlink ref="E151" r:id="rId161" display="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="E152" r:id="rId162" display="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="E153" r:id="rId163" display="https://leetcode-cn.com/problems/valid-palindrome/"/>
+    <hyperlink ref="E154" r:id="rId164" display="https://leetcode-cn.com/problems/edit-distance/"/>
+    <hyperlink ref="E155" r:id="rId165" display="https://leetcode-cn.com/problems/longest-common-subsequence/"/>
+    <hyperlink ref="E156" r:id="rId166" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
+    <hyperlink ref="E157" r:id="rId167" display="https://leetcode-cn.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="E36" r:id="rId168" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="E158" r:id="rId169" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="E55" r:id="rId170" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
+    <hyperlink ref="E54" r:id="rId171" display="https://leetcode-cn.com/problems/path-sum-ii/solution/lu-jing-zong-he-ii-by-leetcode-solution/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId171"/>
-  <drawing r:id="rId172"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId172"/>
+  <drawing r:id="rId173"/>
 </worksheet>
 </file>
 

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="308">
   <si>
     <t>实战题目</t>
   </si>
@@ -1321,6 +1321,13 @@
   </si>
   <si>
     <t>从中序与后序遍历序列构造二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不同</t>
+  </si>
+  <si>
+    <t>1、异或；2、哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3582,8 +3589,8 @@
   <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L147" sqref="L147"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S161" sqref="S161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9858,9 +9865,21 @@
       </c>
     </row>
     <row r="159" spans="2:19">
+      <c r="D159" s="1">
+        <v>389</v>
+      </c>
+      <c r="E159" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" s="9">
+        <v>44103</v>
+      </c>
       <c r="J159" s="9" t="str">
         <f t="shared" si="147"/>
-        <v>KW0/6</v>
+        <v>KW40/2</v>
       </c>
       <c r="L159" s="9" t="str">
         <f t="shared" si="148"/>
@@ -9869,6 +9888,9 @@
       <c r="N159" s="9" t="str">
         <f t="shared" si="149"/>
         <v>KW0/6</v>
+      </c>
+      <c r="S159" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="2:19">
@@ -10264,10 +10286,11 @@
     <hyperlink ref="E158" r:id="rId169" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
     <hyperlink ref="E55" r:id="rId170" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
     <hyperlink ref="E54" r:id="rId171" display="https://leetcode-cn.com/problems/path-sum-ii/solution/lu-jing-zong-he-ii-by-leetcode-solution/"/>
+    <hyperlink ref="E159" r:id="rId172" display="https://leetcode-cn.com/problems/find-the-difference/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId172"/>
-  <drawing r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <drawing r:id="rId174"/>
 </worksheet>
 </file>
 

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="311">
   <si>
     <t>实战题目</t>
   </si>
@@ -1327,7 +1327,18 @@
     <t>找不同</t>
   </si>
   <si>
+    <t>单词规律</t>
+  </si>
+  <si>
     <t>1、异或；2、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、哈希表；2、利用map函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3590,7 +3601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S161" sqref="S161"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9874,6 +9885,9 @@
       <c r="F159" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G159" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="I159" s="9">
         <v>44103</v>
       </c>
@@ -9890,10 +9904,22 @@
         <v>KW0/6</v>
       </c>
       <c r="S159" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19">
+      <c r="D160" s="1">
+        <v>290</v>
+      </c>
+      <c r="E160" s="23" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="160" spans="2:19">
+      <c r="F160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="J160" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -9905,6 +9931,9 @@
       <c r="N160" s="9" t="str">
         <f t="shared" si="149"/>
         <v>KW0/6</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="10:14">
@@ -10287,10 +10316,11 @@
     <hyperlink ref="E55" r:id="rId170" location="/description" display="https://leetcode-cn.com/problems/generate-parentheses/ - /description"/>
     <hyperlink ref="E54" r:id="rId171" display="https://leetcode-cn.com/problems/path-sum-ii/solution/lu-jing-zong-he-ii-by-leetcode-solution/"/>
     <hyperlink ref="E159" r:id="rId172" display="https://leetcode-cn.com/problems/find-the-difference/"/>
+    <hyperlink ref="E160" r:id="rId173" display="https://leetcode-cn.com/problems/word-pattern/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
-  <drawing r:id="rId174"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId174"/>
+  <drawing r:id="rId175"/>
 </worksheet>
 </file>
 

--- a/file/leetcode刷题.xlsx
+++ b/file/leetcode刷题.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="313">
   <si>
     <t>实战题目</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>合并两个有序数组</t>
-  </si>
-  <si>
-    <t>双指针法：双向夹逼</t>
   </si>
   <si>
     <r>
@@ -1341,12 +1338,36 @@
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>双指针法：双向夹逼；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹逼的策略再注意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层for循环+while循环和双向夹逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1482,13 @@
       <color rgb="FF262626"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3600,8 +3628,8 @@
   <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S166" sqref="S166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3618,9 +3646,8 @@
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="17" width="9" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9" customWidth="1"/>
+    <col min="17" max="18" width="9" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="30.75" style="5" customWidth="1"/>
     <col min="20" max="20" width="12.25" customWidth="1"/>
   </cols>
@@ -3630,7 +3657,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3645,10 +3672,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
@@ -3679,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -3694,7 +3721,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="9">
@@ -3718,16 +3745,19 @@
         <f t="shared" ref="N2" si="1">"KW"&amp;WEEKNUM(M2)&amp;"/"&amp;WEEKDAY(M2,2)</f>
         <v>KW30/1</v>
       </c>
+      <c r="O2" s="18">
+        <v>44233</v>
+      </c>
       <c r="P2" s="9" t="str">
         <f t="shared" ref="P2" si="2">"KW"&amp;WEEKNUM(O2)&amp;"/"&amp;WEEKDAY(O2,2)</f>
-        <v>KW0/6</v>
+        <v>KW6/6</v>
       </c>
       <c r="R2" s="9" t="str">
         <f t="shared" ref="R2" si="3">"KW"&amp;WEEKNUM(Q2)&amp;"/"&amp;WEEKDAY(Q2,2)</f>
         <v>KW0/6</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36">
@@ -3735,22 +3765,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="9">
@@ -3780,15 +3810,15 @@
         <v>KW0/6</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="48">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -3803,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4"/>
       <c r="I4" s="9">
@@ -3836,10 +3866,10 @@
         <v>KW0/6</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>295</v>
+        <v>38</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3847,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -3856,13 +3886,13 @@
         <v>206</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="12">
@@ -3892,7 +3922,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T5" s="5"/>
     </row>
@@ -3901,7 +3931,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -3910,13 +3940,13 @@
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="12">
@@ -3949,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -3964,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="9">
@@ -3994,7 +4024,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4002,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -4017,7 +4047,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8"/>
       <c r="J8" s="9" t="str">
@@ -4047,7 +4077,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -4062,7 +4092,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9"/>
       <c r="J9" s="9" t="str">
@@ -4092,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
@@ -4107,7 +4137,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="9">
@@ -4146,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -4161,7 +4191,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11"/>
       <c r="J11" s="9" t="str">
@@ -4191,7 +4221,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
@@ -4206,7 +4236,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12"/>
       <c r="J12" s="9" t="str">
@@ -4236,13 +4266,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>32</v>
@@ -4251,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13"/>
       <c r="J13" s="9" t="str">
@@ -4281,7 +4311,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -4296,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="9">
@@ -4334,7 +4364,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -4349,7 +4379,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15"/>
       <c r="I15" s="9">
@@ -4387,7 +4417,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -4402,7 +4432,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="12">
@@ -4432,7 +4462,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="72">
@@ -4440,7 +4470,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -4455,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="9">
@@ -4490,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -4505,7 +4535,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="9">
@@ -4522,9 +4552,12 @@
         <f t="shared" si="37"/>
         <v>KW30/7</v>
       </c>
+      <c r="M18" s="18">
+        <v>44233</v>
+      </c>
       <c r="N18" s="9" t="str">
         <f t="shared" ref="N18" si="44">"KW"&amp;WEEKNUM(M18)&amp;"/"&amp;WEEKDAY(M18,2)</f>
-        <v>KW0/6</v>
+        <v>KW6/6</v>
       </c>
       <c r="P18" s="9" t="str">
         <f t="shared" ref="P18" si="45">"KW"&amp;WEEKNUM(O18)&amp;"/"&amp;WEEKDAY(O18,2)</f>
@@ -4535,7 +4568,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4543,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -4558,7 +4591,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="9">
@@ -4591,7 +4624,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
@@ -4606,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="9">
@@ -4639,7 +4672,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -4654,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="9">
@@ -4681,7 +4714,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4689,7 +4722,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -4704,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22"/>
       <c r="J22" s="9" t="str">
@@ -4734,7 +4767,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -4743,13 +4776,13 @@
         <v>49</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="12">
@@ -4776,7 +4809,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4784,7 +4817,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -4799,7 +4832,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24"/>
       <c r="J24" s="9" t="str">
@@ -4829,22 +4862,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9">
@@ -4871,7 +4904,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4879,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -4888,13 +4921,13 @@
         <v>226</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9">
@@ -4921,7 +4954,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="27">
@@ -4929,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
@@ -4938,13 +4971,13 @@
         <v>98</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9">
@@ -4971,7 +5004,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="27">
@@ -4979,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>0</v>
@@ -4988,13 +5021,13 @@
         <v>104</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9">
@@ -5021,7 +5054,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5029,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -5038,13 +5071,13 @@
         <v>111</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9">
@@ -5071,7 +5104,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5079,7 +5112,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
@@ -5088,13 +5121,13 @@
         <v>297</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="9"/>
       <c r="J30" s="9" t="str">
@@ -5124,22 +5157,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9">
@@ -5166,7 +5199,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="27">
@@ -5174,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
@@ -5183,13 +5216,13 @@
         <v>239</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9">
@@ -5216,7 +5249,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5224,22 +5257,22 @@
         <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -5255,7 +5288,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -5264,16 +5297,16 @@
         <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9">
         <v>44032</v>
@@ -5302,7 +5335,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="27">
@@ -5310,7 +5343,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -5319,16 +5352,16 @@
         <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9">
         <v>44032</v>
@@ -5357,7 +5390,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5367,16 +5400,16 @@
         <v>145</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9">
         <v>44079</v>
@@ -5399,7 +5432,7 @@
       <c r="P36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="27">
@@ -5407,7 +5440,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -5416,16 +5449,16 @@
         <v>590</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9">
         <v>44037</v>
@@ -5454,7 +5487,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5462,7 +5495,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
@@ -5471,16 +5504,16 @@
         <v>589</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9">
         <v>44037</v>
@@ -5509,7 +5542,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5517,7 +5550,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -5526,16 +5559,16 @@
         <v>429</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9">
         <v>44079</v>
@@ -5570,7 +5603,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
@@ -5579,16 +5612,16 @@
         <v>236</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="shared" ref="J40" si="97">"KW"&amp;WEEKNUM(I40)&amp;"/"&amp;WEEKDAY(I40,2)</f>
@@ -5617,7 +5650,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
@@ -5626,16 +5659,16 @@
         <v>105</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="shared" ref="J41" si="99">"KW"&amp;WEEKNUM(I41)&amp;"/"&amp;WEEKDAY(I41,2)</f>
@@ -5664,7 +5697,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>23</v>
@@ -5673,16 +5706,16 @@
         <v>264</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I42" s="9">
         <v>44035</v>
@@ -5708,7 +5741,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5716,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -5725,16 +5758,16 @@
         <v>347</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9">
         <v>44034</v>
@@ -5760,7 +5793,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -5768,7 +5801,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -5777,13 +5810,13 @@
         <v>77</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="9" t="str">
         <f t="shared" si="103"/>
@@ -5812,7 +5845,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
@@ -5821,13 +5854,13 @@
         <v>46</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J45" s="9" t="str">
         <f t="shared" ref="J45:J46" si="105">"KW"&amp;WEEKNUM(I45)&amp;"/"&amp;WEEKDAY(I45,2)</f>
@@ -5848,7 +5881,7 @@
         <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
@@ -5857,13 +5890,13 @@
         <v>47</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="shared" si="105"/>
@@ -5881,7 +5914,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -5890,16 +5923,16 @@
         <v>50</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I47" s="9">
         <v>44039</v>
@@ -5920,12 +5953,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -5934,16 +5967,16 @@
         <v>78</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48" s="9">
         <v>44040</v>
@@ -5964,12 +5997,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="40.5">
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -5978,16 +6011,16 @@
         <v>169</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9">
         <v>44040</v>
@@ -6008,12 +6041,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:19">
       <c r="B50" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>23</v>
@@ -6022,16 +6055,16 @@
         <v>17</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I50" s="9">
         <v>44041</v>
@@ -6052,30 +6085,30 @@
         <v>KW0/6</v>
       </c>
       <c r="S50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6093,7 +6126,7 @@
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
@@ -6102,13 +6135,13 @@
         <v>102</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I52" s="9">
         <v>44041</v>
@@ -6129,27 +6162,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:19">
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6171,13 +6204,13 @@
         <v>113</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="shared" ref="J54" si="114">"KW"&amp;WEEKNUM(I54)&amp;"/"&amp;WEEKDAY(I54,2)</f>
@@ -6195,7 +6228,7 @@
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>0</v>
@@ -6204,13 +6237,13 @@
         <v>22</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9">
         <v>44041</v>
@@ -6234,12 +6267,12 @@
         <v>KW32/4</v>
       </c>
       <c r="S55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>0</v>
@@ -6248,13 +6281,13 @@
         <v>515</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6272,22 +6305,22 @@
     </row>
     <row r="57" spans="2:19">
       <c r="B57" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="shared" si="111"/>
@@ -6302,12 +6335,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="2:19" ht="27">
       <c r="B58" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>0</v>
@@ -6316,13 +6349,13 @@
         <v>69</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I58" s="9">
         <v>44044</v>
@@ -6343,12 +6376,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="2:19">
       <c r="B59" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
@@ -6357,13 +6390,13 @@
         <v>367</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I59" s="9">
         <v>44045</v>
@@ -6384,12 +6417,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="2:19">
       <c r="B60" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
@@ -6398,13 +6431,13 @@
         <v>860</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I60" s="9">
         <v>44044</v>
@@ -6422,12 +6455,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="2:19">
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
@@ -6436,13 +6469,13 @@
         <v>122</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9">
         <v>44043</v>
@@ -6463,12 +6496,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="2:19">
       <c r="B62" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -6477,13 +6510,13 @@
         <v>455</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I62" s="9">
         <v>44043</v>
@@ -6501,12 +6534,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:19">
       <c r="B63" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
@@ -6515,13 +6548,13 @@
         <v>874</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="str">
@@ -6540,22 +6573,22 @@
     </row>
     <row r="64" spans="2:19">
       <c r="B64" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" s="9">
         <v>44042</v>
@@ -6573,12 +6606,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S64" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
@@ -6587,13 +6620,13 @@
         <v>200</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I65" s="9">
         <v>44042</v>
@@ -6614,12 +6647,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="2:19">
       <c r="B66" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
@@ -6628,13 +6661,13 @@
         <v>529</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6652,7 +6685,7 @@
     </row>
     <row r="67" spans="2:19">
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
@@ -6661,13 +6694,13 @@
         <v>55</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I67" s="9">
         <v>44043</v>
@@ -6685,12 +6718,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="2:19">
       <c r="B68" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>23</v>
@@ -6699,13 +6732,13 @@
         <v>33</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="9">
@@ -6727,12 +6760,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S68" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:19">
       <c r="B69" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
@@ -6741,13 +6774,13 @@
         <v>74</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9">
         <v>44045</v>
@@ -6768,12 +6801,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="2:19">
       <c r="B70" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
@@ -6782,13 +6815,13 @@
         <v>153</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6806,7 +6839,7 @@
     </row>
     <row r="71" spans="2:19">
       <c r="B71" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
@@ -6815,13 +6848,13 @@
         <v>126</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6839,22 +6872,22 @@
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="shared" si="108"/>
@@ -6872,7 +6905,7 @@
     </row>
     <row r="73" spans="2:19">
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -6881,13 +6914,13 @@
         <v>64</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I73" s="9">
         <v>44051</v>
@@ -6905,12 +6938,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="2:19" ht="27">
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
@@ -6919,13 +6952,13 @@
         <v>91</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I74" s="9">
         <v>44051</v>
@@ -6946,12 +6979,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:19">
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -6960,13 +6993,13 @@
         <v>221</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I75" s="9">
         <v>44051</v>
@@ -6984,12 +7017,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>23</v>
@@ -6998,13 +7031,13 @@
         <v>621</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I76" s="9">
         <v>44052</v>
@@ -7022,12 +7055,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
@@ -7036,13 +7069,13 @@
         <v>647</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I77" s="9">
         <v>44052</v>
@@ -7060,12 +7093,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
@@ -7074,13 +7107,13 @@
         <v>32</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I78" s="9">
         <v>44052</v>
@@ -7098,12 +7131,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -7112,16 +7145,16 @@
         <v>72</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" s="9">
         <v>44052</v>
@@ -7142,12 +7175,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
@@ -7156,13 +7189,13 @@
         <v>363</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J80" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7179,7 +7212,7 @@
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
@@ -7188,13 +7221,13 @@
         <v>403</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J81" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7211,7 +7244,7 @@
     </row>
     <row r="82" spans="2:19">
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
@@ -7220,13 +7253,13 @@
         <v>410</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J82" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7243,7 +7276,7 @@
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -7252,13 +7285,13 @@
         <v>552</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J83" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7275,7 +7308,7 @@
     </row>
     <row r="84" spans="2:19">
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>23</v>
@@ -7284,13 +7317,13 @@
         <v>76</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J84" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7307,7 +7340,7 @@
     </row>
     <row r="85" spans="2:19">
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>23</v>
@@ -7316,13 +7349,13 @@
         <v>312</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J85" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7339,7 +7372,7 @@
     </row>
     <row r="86" spans="2:19">
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
@@ -7348,13 +7381,13 @@
         <v>62</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I86" s="9">
         <v>44048</v>
@@ -7372,12 +7405,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="2:19">
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>0</v>
@@ -7386,13 +7419,13 @@
         <v>63</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I87" s="9">
         <v>44049</v>
@@ -7410,12 +7443,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="2:19" ht="27">
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>0</v>
@@ -7424,13 +7457,13 @@
         <v>1143</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I88" s="9">
         <v>44050</v>
@@ -7451,12 +7484,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="36">
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>0</v>
@@ -7465,13 +7498,13 @@
         <v>70</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I89" s="9">
         <v>44031</v>
@@ -7492,12 +7525,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S89" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="2:19" ht="27">
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>0</v>
@@ -7506,13 +7539,13 @@
         <v>120</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I90" s="9">
         <v>44051</v>
@@ -7530,12 +7563,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:19">
       <c r="B91" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>0</v>
@@ -7544,13 +7577,13 @@
         <v>53</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I91" s="9">
         <v>44051</v>
@@ -7568,12 +7601,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="2:19">
       <c r="B92" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>0</v>
@@ -7582,13 +7615,13 @@
         <v>152</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J92" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7605,7 +7638,7 @@
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
@@ -7614,13 +7647,13 @@
         <v>198</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I93" s="9">
         <v>44052</v>
@@ -7638,12 +7671,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="2:19">
       <c r="B94" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
@@ -7652,13 +7685,13 @@
         <v>213</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J94" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7675,7 +7708,7 @@
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>0</v>
@@ -7684,13 +7717,13 @@
         <v>121</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I95" s="9">
         <v>44069</v>
@@ -7708,27 +7741,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J96" s="9" t="str">
         <f t="shared" si="117"/>
@@ -7745,7 +7778,7 @@
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>0</v>
@@ -7754,13 +7787,13 @@
         <v>123</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I97" s="9">
         <v>44071</v>
@@ -7778,12 +7811,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>0</v>
@@ -7792,13 +7825,13 @@
         <v>309</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I98" s="9">
         <v>44070</v>
@@ -7816,12 +7849,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="2:19">
       <c r="B99" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>0</v>
@@ -7830,13 +7863,13 @@
         <v>188</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I99" s="9">
         <v>44071</v>
@@ -7854,12 +7887,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="2:19">
       <c r="B100" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>0</v>
@@ -7868,13 +7901,13 @@
         <v>714</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I100" s="9">
         <v>44070</v>
@@ -7892,12 +7925,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="2:19">
       <c r="B101" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>0</v>
@@ -7906,16 +7939,16 @@
         <v>279</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J101" s="9" t="str">
         <f t="shared" si="120"/>
@@ -7932,25 +7965,25 @@
     </row>
     <row r="102" spans="2:19">
       <c r="B102" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J102" s="9" t="str">
         <f t="shared" si="120"/>
@@ -7967,7 +8000,7 @@
     </row>
     <row r="103" spans="2:19">
       <c r="B103" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>0</v>
@@ -7976,16 +8009,16 @@
         <v>45</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J103" s="9" t="str">
         <f t="shared" si="120"/>
@@ -8002,7 +8035,7 @@
     </row>
     <row r="104" spans="2:19">
       <c r="B104" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>0</v>
@@ -8011,16 +8044,16 @@
         <v>980</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J104" s="9" t="str">
         <f t="shared" si="120"/>
@@ -8037,7 +8070,7 @@
     </row>
     <row r="105" spans="2:19" ht="27">
       <c r="B105" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>0</v>
@@ -8046,16 +8079,16 @@
         <v>322</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I105" s="9">
         <v>44052</v>
@@ -8073,12 +8106,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>0</v>
@@ -8087,16 +8120,16 @@
         <v>518</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J106" s="9" t="str">
         <f t="shared" ref="J106" si="123">"KW"&amp;WEEKNUM(I106)&amp;"/"&amp;WEEKDAY(I106,2)</f>
@@ -8113,7 +8146,7 @@
     </row>
     <row r="107" spans="2:19">
       <c r="B107" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
@@ -8122,13 +8155,13 @@
         <v>36</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" s="9">
         <v>44055</v>
@@ -8148,7 +8181,7 @@
     </row>
     <row r="108" spans="2:19">
       <c r="B108" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -8157,13 +8190,13 @@
         <v>37</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" s="9">
         <v>44056</v>
@@ -8183,22 +8216,22 @@
     </row>
     <row r="109" spans="2:19" ht="36">
       <c r="B109" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9" t="str">
@@ -8214,12 +8247,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S109" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="2:19" ht="54">
       <c r="B110" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>23</v>
@@ -8228,13 +8261,13 @@
         <v>191</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I110" s="9">
         <v>44057</v>
@@ -8252,12 +8285,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="2:19">
       <c r="B111" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
@@ -8266,13 +8299,13 @@
         <v>231</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I111" s="9">
         <v>44057</v>
@@ -8290,12 +8323,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="2:19" ht="40.5">
       <c r="B112" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
@@ -8304,13 +8337,13 @@
         <v>190</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I112" s="9">
         <v>44058</v>
@@ -8328,12 +8361,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="2:19">
       <c r="B113" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -8342,7 +8375,7 @@
         <v>208</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>20</v>
@@ -8365,7 +8398,7 @@
     </row>
     <row r="114" spans="2:19">
       <c r="B114" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
@@ -8374,13 +8407,13 @@
         <v>547</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J114" s="9" t="str">
         <f t="shared" si="126"/>
@@ -8397,16 +8430,16 @@
     </row>
     <row r="115" spans="2:19">
       <c r="B115" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>20</v>
@@ -8426,7 +8459,7 @@
     </row>
     <row r="116" spans="2:19">
       <c r="B116" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>23</v>
@@ -8435,7 +8468,7 @@
         <v>130</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>20</v>
@@ -8455,16 +8488,16 @@
     </row>
     <row r="117" spans="2:19">
       <c r="B117" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>20</v>
@@ -8484,7 +8517,7 @@
     </row>
     <row r="118" spans="2:19">
       <c r="B118" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -8493,13 +8526,13 @@
         <v>127</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I118" s="9">
         <v>44059</v>
@@ -8522,7 +8555,7 @@
     </row>
     <row r="119" spans="2:19">
       <c r="B119" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
@@ -8531,13 +8564,13 @@
         <v>433</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J119" s="9" t="str">
         <f t="shared" si="126"/>
@@ -8554,7 +8587,7 @@
     </row>
     <row r="120" spans="2:19">
       <c r="B120" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
@@ -8563,13 +8596,13 @@
         <v>338</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I120" s="9">
         <v>44058</v>
@@ -8587,12 +8620,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="2:19">
       <c r="B121" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>23</v>
@@ -8601,7 +8634,7 @@
         <v>212</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>22</v>
@@ -8621,7 +8654,7 @@
     </row>
     <row r="122" spans="2:19">
       <c r="B122" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>23</v>
@@ -8630,13 +8663,13 @@
         <v>51</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I122" s="9">
         <v>44058</v>
@@ -8654,12 +8687,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="2:19">
       <c r="B123" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
@@ -8668,13 +8701,13 @@
         <v>52</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I123" s="9">
         <v>44059</v>
@@ -8692,12 +8725,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="2:19">
       <c r="B124" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>23</v>
@@ -8706,13 +8739,13 @@
         <v>146</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I124" s="9">
         <v>44060</v>
@@ -8730,12 +8763,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S124" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="2:19">
       <c r="B125" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -8744,13 +8777,13 @@
         <v>1122</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J125" s="9" t="str">
         <f t="shared" ref="J125:J144" si="135">"KW"&amp;WEEKNUM(I125)&amp;"/"&amp;WEEKDAY(I125,2)</f>
@@ -8767,13 +8800,13 @@
     </row>
     <row r="126" spans="2:19">
       <c r="B126" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>17</v>
@@ -8782,7 +8815,7 @@
         <v>19</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J126" s="9" t="str">
         <f t="shared" si="135"/>
@@ -8799,7 +8832,7 @@
     </row>
     <row r="127" spans="2:19">
       <c r="B127" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>0</v>
@@ -8808,13 +8841,13 @@
         <v>1244</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J127" s="9" t="str">
         <f t="shared" si="135"/>
@@ -8831,7 +8864,7 @@
     </row>
     <row r="128" spans="2:19">
       <c r="B128" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>23</v>
@@ -8840,13 +8873,13 @@
         <v>56</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I128" s="9">
         <v>44063</v>
@@ -8864,12 +8897,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S128" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="2:19">
       <c r="B129" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>23</v>
@@ -8878,13 +8911,13 @@
         <v>493</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I129" s="9">
         <v>44067</v>
@@ -8902,12 +8935,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S129" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="2:19">
       <c r="B130" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>23</v>
@@ -8916,13 +8949,13 @@
         <v>541</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I130" s="9">
         <v>44065</v>
@@ -8942,7 +8975,7 @@
     </row>
     <row r="131" spans="2:19">
       <c r="B131" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>23</v>
@@ -8951,13 +8984,13 @@
         <v>151</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I131" s="9">
         <v>44065</v>
@@ -8977,7 +9010,7 @@
     </row>
     <row r="132" spans="2:19">
       <c r="B132" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>23</v>
@@ -8986,13 +9019,13 @@
         <v>557</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I132" s="9">
         <v>44065</v>
@@ -9012,7 +9045,7 @@
     </row>
     <row r="133" spans="2:19">
       <c r="B133" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -9021,13 +9054,13 @@
         <v>917</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I133" s="9">
         <v>44065</v>
@@ -9047,7 +9080,7 @@
     </row>
     <row r="134" spans="2:19">
       <c r="B134" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -9056,13 +9089,13 @@
         <v>205</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J134" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9079,7 +9112,7 @@
     </row>
     <row r="135" spans="2:19">
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
@@ -9088,13 +9121,13 @@
         <v>680</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J135" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9111,7 +9144,7 @@
     </row>
     <row r="136" spans="2:19">
       <c r="B136" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
@@ -9120,7 +9153,7 @@
         <v>300</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>20</v>
@@ -9140,16 +9173,16 @@
     </row>
     <row r="137" spans="2:19">
       <c r="B137" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>20</v>
@@ -9169,7 +9202,7 @@
     </row>
     <row r="138" spans="2:19">
       <c r="B138" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>23</v>
@@ -9178,13 +9211,13 @@
         <v>8</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I138" s="9">
         <v>44065</v>
@@ -9202,12 +9235,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="2:19">
       <c r="B139" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
@@ -9216,13 +9249,13 @@
         <v>438</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J139" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9239,7 +9272,7 @@
     </row>
     <row r="140" spans="2:19">
       <c r="B140" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>23</v>
@@ -9248,13 +9281,13 @@
         <v>5</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I140" s="9">
         <v>44068</v>
@@ -9272,27 +9305,27 @@
         <v>KW0/6</v>
       </c>
       <c r="S140" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="2:19">
       <c r="B141" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J141" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9309,7 +9342,7 @@
     </row>
     <row r="142" spans="2:19">
       <c r="B142" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -9318,7 +9351,7 @@
         <v>818</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>22</v>
@@ -9338,7 +9371,7 @@
     </row>
     <row r="143" spans="2:19">
       <c r="B143" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>23</v>
@@ -9347,13 +9380,13 @@
         <v>44</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J143" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9370,7 +9403,7 @@
     </row>
     <row r="144" spans="2:19">
       <c r="B144" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>23</v>
@@ -9379,13 +9412,13 @@
         <v>115</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J144" s="9" t="str">
         <f t="shared" si="135"/>
@@ -9402,7 +9435,7 @@
     </row>
     <row r="145" spans="2:19" ht="12.75" customHeight="1">
       <c r="B145" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>0</v>
@@ -9411,13 +9444,13 @@
         <v>709</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I145" s="9">
         <v>44065</v>
@@ -9435,12 +9468,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="2:19" ht="27">
       <c r="B146" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>0</v>
@@ -9449,13 +9482,13 @@
         <v>58</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I146" s="9">
         <v>44065</v>
@@ -9473,12 +9506,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="2:19">
       <c r="B147" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>0</v>
@@ -9487,13 +9520,13 @@
         <v>771</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I147" s="9">
         <v>44065</v>
@@ -9511,12 +9544,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="2:19">
       <c r="B148" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>23</v>
@@ -9525,13 +9558,13 @@
         <v>387</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I148" s="9">
         <v>44065</v>
@@ -9549,12 +9582,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="2:19">
       <c r="B149" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>0</v>
@@ -9563,13 +9596,13 @@
         <v>14</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I149" s="9">
         <v>44065</v>
@@ -9587,12 +9620,12 @@
         <v>KW0/6</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="2:19">
       <c r="B150" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>0</v>
@@ -9601,13 +9634,13 @@
         <v>344</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I150" s="9">
         <v>44065</v>
@@ -9627,13 +9660,13 @@
     </row>
     <row r="151" spans="2:19">
       <c r="B151" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>17</v>
@@ -9642,7 +9675,7 @@
         <v>19</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J151" s="9" t="str">
         <f t="shared" si="138"/>
@@ -9659,22 +9692,22 @@
     </row>
     <row r="152" spans="2:19">
       <c r="B152" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J152" s="9" t="str">
         <f t="shared" si="138"/>
@@ -9691,7 +9724,7 @@
     </row>
     <row r="153" spans="2:19">
       <c r="B153" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>0</v>
@@ -9700,13 +9733,13 @@
         <v>125</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J153" s="9" t="str">
         <f t="shared" si="138"/>
@@ -9723,22 +9756,22 @@
     </row>
     <row r="154" spans="2:19">
       <c r="B154" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J154" s="9" t="str">
         <f t="shared" ref="J154:J156" si="141">"KW"&amp;WEEKNUM(I154)&amp;"/"&amp;WEEKDAY(I154,2)</f>
@@ -9755,22 +9788,22 @@
     </row>
     <row r="155" spans="2:19">
       <c r="B155" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J155" s="9" t="str">
         <f t="shared" si="141"/>
@@ -9787,7 +9820,7 @@
     </row>
     <row r="156" spans="2:19">
       <c r="B156" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>0</v>
@@ -9796,13 +9829,13 @@
         <v>10</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J156" s="9" t="str">
         <f t="shared" si="141"/>
@@ -9822,13 +9855,13 @@
         <v>240</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I157" s="9">
         <v>44069</v>
@@ -9851,13 +9884,13 @@
         <v>106</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I158" s="9">
         <v>44100</v>
@@ -9880,13 +9913,13 @@
         <v>389</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I159" s="9">
         <v>44103</v>
@@ -9904,7 +9937,7 @@
         <v>KW0/6</v>
       </c>
       <c r="S159" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="2:19">
@@ -9912,13 +9945,13 @@
         <v>290</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J160" s="9" t="str">
         <f t="shared" si="147"/>
@@ -9933,13 +9966,29 @@
         <v>KW0/6</v>
       </c>
       <c r="S160" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" spans="10:14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="4:19">
+      <c r="D161" s="1">
+        <v>18</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161" s="9">
+        <v>44234</v>
+      </c>
       <c r="J161" s="9" t="str">
         <f t="shared" si="147"/>
-        <v>KW0/6</v>
+        <v>KW7/7</v>
       </c>
       <c r="L161" s="9" t="str">
         <f t="shared" si="148"/>
@@ -9949,8 +9998,11 @@
         <f t="shared" si="149"/>
         <v>KW0/6</v>
       </c>
-    </row>
-    <row r="162" spans="10:14">
+      <c r="S161" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="4:19">
       <c r="J162" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -9964,7 +10016,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="163" spans="10:14">
+    <row r="163" spans="4:19">
       <c r="J163" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -9978,7 +10030,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="164" spans="10:14">
+    <row r="164" spans="4:19">
       <c r="J164" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -9992,7 +10044,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="165" spans="10:14">
+    <row r="165" spans="4:19">
       <c r="J165" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10006,7 +10058,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="166" spans="10:14">
+    <row r="166" spans="4:19">
       <c r="J166" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10020,7 +10072,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="167" spans="10:14">
+    <row r="167" spans="4:19">
       <c r="J167" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10034,7 +10086,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="168" spans="10:14">
+    <row r="168" spans="4:19">
       <c r="J168" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10048,7 +10100,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="169" spans="10:14">
+    <row r="169" spans="4:19">
       <c r="J169" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10062,7 +10114,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="170" spans="10:14">
+    <row r="170" spans="4:19">
       <c r="J170" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10076,7 +10128,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="171" spans="10:14">
+    <row r="171" spans="4:19">
       <c r="J171" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10090,7 +10142,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="172" spans="10:14">
+    <row r="172" spans="4:19">
       <c r="J172" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10104,7 +10156,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="173" spans="10:14">
+    <row r="173" spans="4:19">
       <c r="J173" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10118,7 +10170,7 @@
         <v>KW0/6</v>
       </c>
     </row>
-    <row r="174" spans="10:14">
+    <row r="174" spans="4:19">
       <c r="J174" s="9" t="str">
         <f t="shared" si="147"/>
         <v>KW0/6</v>
@@ -10139,7 +10191,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C156">
       <formula1>"周作业,实战题目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F161">
       <formula1>"简单,中等,困难"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10317,10 +10369,11 @@
     <hyperlink ref="E54" r:id="rId171" display="https://leetcode-cn.com/problems/path-sum-ii/solution/lu-jing-zong-he-ii-by-leetcode-solution/"/>
     <hyperlink ref="E159" r:id="rId172" display="https://leetcode-cn.com/problems/find-the-difference/"/>
     <hyperlink ref="E160" r:id="rId173" display="https://leetcode-cn.com/problems/word-pattern/"/>
+    <hyperlink ref="E161" r:id="rId174"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId174"/>
-  <drawing r:id="rId175"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId175"/>
+  <drawing r:id="rId176"/>
 </worksheet>
 </file>
 
